--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -275,10 +275,10 @@
     <t>台北市士林區德行西路100號</t>
   </si>
   <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
     <t>服務</t>
-  </si>
-  <si>
-    <t>PM抄表</t>
   </si>
   <si>
     <t>10:27:00</t>
@@ -2763,22 +2763,22 @@
 換下 8187000916</t>
   </si>
   <si>
+    <t>THILF0D349</t>
+  </si>
+  <si>
+    <t>新北市板橋區重慶路245巷61號</t>
+  </si>
+  <si>
+    <t>板橋成都店</t>
+  </si>
+  <si>
     <t>15:45:00</t>
   </si>
   <si>
-    <t>THILF0D349</t>
-  </si>
-  <si>
-    <t>新北市板橋區重慶路245巷61號</t>
-  </si>
-  <si>
-    <t>板橋成都店</t>
+    <t>驅動修復測試正常，請門市觀察中</t>
   </si>
   <si>
     <t>PMQ4 L99</t>
-  </si>
-  <si>
-    <t>驅動修復測試正常，請門市觀察中</t>
   </si>
   <si>
     <t>TX30000054</t>
@@ -3877,7 +3877,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025102727</v>
+        <v>2025102728</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3">
@@ -3923,9 +3923,7 @@
       <c r="R10" s="3">
         <v>2018</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -3933,7 +3931,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>40</v>
@@ -3947,7 +3945,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025102728</v>
+        <v>2025102727</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -3984,7 +3982,7 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7">
@@ -3993,7 +3991,9 @@
       <c r="R11" s="7">
         <v>2018</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -4001,7 +4001,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>40</v>
@@ -4122,7 +4122,7 @@
         <v>94</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7">
@@ -4141,7 +4141,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>40</v>
@@ -4211,7 +4211,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>40</v>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3">
@@ -4349,7 +4349,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>40</v>
@@ -4417,7 +4417,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>40</v>
@@ -4429,7 +4429,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025101693</v>
+        <v>2025101694</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>108</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
@@ -4477,9 +4477,7 @@
       <c r="R18" s="3">
         <v>2479</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -4487,7 +4485,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>40</v>
@@ -4501,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025101694</v>
+        <v>2025101693</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -4540,7 +4538,7 @@
         <v>108</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7">
@@ -4549,7 +4547,9 @@
       <c r="R19" s="7">
         <v>2479</v>
       </c>
-      <c r="S19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -4557,7 +4557,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>40</v>
@@ -4608,7 +4608,7 @@
         <v>108</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
@@ -4627,7 +4627,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>40</v>
@@ -4697,7 +4697,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>40</v>
@@ -4748,7 +4748,7 @@
         <v>52</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
@@ -4767,7 +4767,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>40</v>
@@ -4837,7 +4837,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>40</v>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -4977,7 +4977,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025101688</v>
+        <v>2025101689</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -5016,16 +5016,14 @@
         <v>128</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
         <v>1845</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -5033,7 +5031,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>40</v>
@@ -5047,7 +5045,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025101689</v>
+        <v>2025101688</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -5086,14 +5084,16 @@
         <v>128</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
         <v>1845</v>
       </c>
-      <c r="S27" s="7"/>
+      <c r="S27" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -5101,7 +5101,7 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>40</v>
@@ -5218,7 +5218,7 @@
         <v>30</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -5235,7 +5235,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -5299,7 +5299,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>40</v>
@@ -5350,7 +5350,7 @@
         <v>30</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -5418,7 +5418,7 @@
         <v>30</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -5435,7 +5435,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>40</v>
@@ -5503,7 +5503,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>40</v>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -5750,7 +5750,7 @@
         <v>159</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -5767,7 +5767,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>40</v>
@@ -5835,7 +5835,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>40</v>
@@ -5847,7 +5847,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025102577</v>
+        <v>2025102578</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -5886,16 +5886,14 @@
         <v>30</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <v>36832</v>
       </c>
-      <c r="S39" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -5903,17 +5901,21 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025102578</v>
+        <v>2025102577</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -5952,14 +5954,16 @@
         <v>30</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
         <v>36832</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -5967,11 +5971,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
@@ -6018,7 +6020,7 @@
         <v>169</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -6035,7 +6037,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>40</v>
@@ -6103,7 +6105,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>40</v>
@@ -6152,7 +6154,7 @@
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -6169,7 +6171,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>40</v>
@@ -6235,7 +6237,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>40</v>
@@ -6284,7 +6286,7 @@
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -6354,7 +6356,7 @@
         <v>180</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -6371,7 +6373,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>40</v>
@@ -6439,7 +6441,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>40</v>
@@ -6490,7 +6492,7 @@
         <v>30</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -6507,7 +6509,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -6571,7 +6573,7 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>40</v>
@@ -6622,7 +6624,7 @@
         <v>191</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3">
@@ -6694,7 +6696,7 @@
         <v>159</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7">
@@ -6713,7 +6715,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>40</v>
@@ -6783,7 +6785,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>40</v>
@@ -6834,7 +6836,7 @@
         <v>159</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7">
@@ -6906,7 +6908,7 @@
         <v>206</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3">
@@ -6925,7 +6927,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>40</v>
@@ -6995,7 +6997,7 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>40</v>
@@ -7184,7 +7186,7 @@
         <v>223</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3">
@@ -7203,7 +7205,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>40</v>
@@ -7273,7 +7275,7 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA59" s="7" t="s">
         <v>40</v>
@@ -7390,7 +7392,7 @@
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -7485,7 +7487,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025103003</v>
+        <v>2025103002</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -7524,14 +7526,16 @@
         <v>236</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
         <v>142499</v>
       </c>
-      <c r="S63" s="7"/>
+      <c r="S63" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -7539,7 +7543,7 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA63" s="7" t="s">
         <v>40</v>
@@ -7553,7 +7557,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025103002</v>
+        <v>2025103003</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -7592,16 +7596,14 @@
         <v>236</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
         <v>142499</v>
       </c>
-      <c r="S64" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -7609,7 +7611,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>40</v>
@@ -7660,7 +7662,7 @@
         <v>240</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -7677,7 +7679,7 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA65" s="7" t="s">
         <v>40</v>
@@ -7745,7 +7747,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>40</v>
@@ -7792,7 +7794,7 @@
         <v>247</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
@@ -7858,7 +7860,7 @@
         <v>254</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
@@ -7924,7 +7926,7 @@
         <v>259</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -8056,7 +8058,7 @@
         <v>268</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
@@ -8122,7 +8124,7 @@
         <v>273</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
@@ -8188,7 +8190,7 @@
         <v>277</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
@@ -8322,7 +8324,7 @@
         <v>286</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
@@ -8388,7 +8390,7 @@
         <v>289</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
@@ -8454,7 +8456,7 @@
         <v>294</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
@@ -8520,7 +8522,7 @@
         <v>297</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
@@ -8586,7 +8588,7 @@
         <v>297</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
@@ -8720,7 +8722,7 @@
         <v>303</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
@@ -8784,7 +8786,7 @@
         <v>311</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
@@ -8850,7 +8852,7 @@
         <v>316</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
@@ -8916,7 +8918,7 @@
         <v>321</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
@@ -8982,7 +8984,7 @@
         <v>325</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
@@ -9184,7 +9186,7 @@
         <v>343</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
@@ -9386,7 +9388,7 @@
         <v>352</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
@@ -9790,7 +9792,7 @@
         <v>366</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
@@ -9854,7 +9856,7 @@
         <v>374</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
@@ -9920,7 +9922,7 @@
         <v>377</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
@@ -9986,7 +9988,7 @@
         <v>381</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
@@ -10120,7 +10122,7 @@
         <v>388</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
@@ -10186,7 +10188,7 @@
         <v>391</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
@@ -10252,7 +10254,7 @@
         <v>395</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
@@ -10318,7 +10320,7 @@
         <v>400</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
@@ -10384,7 +10386,7 @@
         <v>404</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
@@ -10450,7 +10452,7 @@
         <v>408</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
@@ -10516,7 +10518,7 @@
         <v>412</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
@@ -10582,7 +10584,7 @@
         <v>417</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
@@ -10648,7 +10650,7 @@
         <v>421</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
@@ -10714,7 +10716,7 @@
         <v>424</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
@@ -10848,7 +10850,7 @@
         <v>427</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
@@ -10914,7 +10916,7 @@
         <v>433</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
@@ -10980,7 +10982,7 @@
         <v>437</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
@@ -11046,7 +11048,7 @@
         <v>437</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
@@ -11112,7 +11114,7 @@
         <v>441</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
@@ -11178,7 +11180,7 @@
         <v>446</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
@@ -11312,7 +11314,7 @@
         <v>446</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
@@ -11378,7 +11380,7 @@
         <v>454</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
@@ -11444,7 +11446,7 @@
         <v>458</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
@@ -11510,7 +11512,7 @@
         <v>463</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
@@ -11644,7 +11646,7 @@
         <v>466</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
@@ -11710,7 +11712,7 @@
         <v>471</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
@@ -11776,7 +11778,7 @@
         <v>474</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
@@ -11910,7 +11912,7 @@
         <v>480</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
@@ -11974,7 +11976,7 @@
         <v>485</v>
       </c>
       <c r="O130" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
@@ -12044,7 +12046,7 @@
         <v>491</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P131" s="7"/>
       <c r="Q131" s="7">
@@ -12184,7 +12186,7 @@
         <v>491</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P133" s="7"/>
       <c r="Q133" s="7">
@@ -12256,7 +12258,7 @@
         <v>499</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P134" s="3"/>
       <c r="Q134" s="3">
@@ -12390,7 +12392,7 @@
       </c>
       <c r="N136" s="6"/>
       <c r="O136" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P136" s="3"/>
       <c r="Q136" s="3">
@@ -12528,7 +12530,7 @@
         <v>507</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P138" s="3"/>
       <c r="Q138" s="3">
@@ -12600,7 +12602,7 @@
         <v>507</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P139" s="7"/>
       <c r="Q139" s="7">
@@ -12810,7 +12812,7 @@
         <v>514</v>
       </c>
       <c r="O142" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P142" s="3"/>
       <c r="Q142" s="3">
@@ -12946,7 +12948,7 @@
         <v>518</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P144" s="3"/>
       <c r="Q144" s="3">
@@ -13082,7 +13084,7 @@
         <v>521</v>
       </c>
       <c r="O146" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P146" s="3"/>
       <c r="Q146" s="3">
@@ -13154,7 +13156,7 @@
         <v>521</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P147" s="7"/>
       <c r="Q147" s="7">
@@ -13290,7 +13292,7 @@
         <v>525</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P149" s="7">
         <v>6677</v>
@@ -13434,7 +13436,7 @@
         <v>528</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P151" s="7">
         <v>1800</v>
@@ -13578,7 +13580,7 @@
         <v>532</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P153" s="7"/>
       <c r="Q153" s="7">
@@ -13718,7 +13720,7 @@
         <v>535</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P155" s="7">
         <v>117</v>
@@ -13862,7 +13864,7 @@
         <v>539</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P157" s="7"/>
       <c r="Q157" s="7">
@@ -14099,7 +14101,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="7">
-        <v>2025100085</v>
+        <v>2025100084</v>
       </c>
       <c r="C161" s="7">
         <v>1</v>
@@ -14138,7 +14140,7 @@
         <v>532</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P161" s="7"/>
       <c r="Q161" s="7">
@@ -14147,7 +14149,9 @@
       <c r="R161" s="7">
         <v>400</v>
       </c>
-      <c r="S161" s="7"/>
+      <c r="S161" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
       <c r="V161" s="7"/>
@@ -14169,7 +14173,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="3">
-        <v>2025100084</v>
+        <v>2025100085</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
@@ -14208,7 +14212,7 @@
         <v>532</v>
       </c>
       <c r="O162" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P162" s="3"/>
       <c r="Q162" s="3">
@@ -14217,9 +14221,7 @@
       <c r="R162" s="3">
         <v>400</v>
       </c>
-      <c r="S162" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S162" s="3"/>
       <c r="T162" s="3"/>
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
@@ -14348,7 +14350,7 @@
         <v>547</v>
       </c>
       <c r="O164" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P164" s="3"/>
       <c r="Q164" s="3">
@@ -14484,7 +14486,7 @@
         <v>547</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P166" s="3"/>
       <c r="Q166" s="3">
@@ -14556,7 +14558,7 @@
         <v>550</v>
       </c>
       <c r="O167" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P167" s="7"/>
       <c r="Q167" s="7">
@@ -14653,7 +14655,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="7">
-        <v>2025101233</v>
+        <v>2025101232</v>
       </c>
       <c r="C169" s="7">
         <v>1</v>
@@ -14692,7 +14694,7 @@
         <v>554</v>
       </c>
       <c r="O169" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P169" s="7"/>
       <c r="Q169" s="7">
@@ -14701,7 +14703,9 @@
       <c r="R169" s="7">
         <v>1179</v>
       </c>
-      <c r="S169" s="7"/>
+      <c r="S169" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T169" s="7"/>
       <c r="U169" s="7"/>
       <c r="V169" s="7"/>
@@ -14711,19 +14715,15 @@
       <c r="Z169" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AA169" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB169" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA169" s="7"/>
+      <c r="AB169" s="7"/>
     </row>
     <row r="170" spans="1:28">
       <c r="A170" s="3">
         <v>168</v>
       </c>
       <c r="B170" s="3">
-        <v>2025101232</v>
+        <v>2025101233</v>
       </c>
       <c r="C170" s="3">
         <v>1</v>
@@ -14762,7 +14762,7 @@
         <v>554</v>
       </c>
       <c r="O170" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P170" s="3"/>
       <c r="Q170" s="3">
@@ -14771,9 +14771,7 @@
       <c r="R170" s="3">
         <v>1179</v>
       </c>
-      <c r="S170" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S170" s="3"/>
       <c r="T170" s="3"/>
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
@@ -14783,7 +14781,9 @@
       <c r="Z170" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AA170" s="3"/>
+      <c r="AA170" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB170" s="3"/>
     </row>
     <row r="171" spans="1:28">
@@ -15170,7 +15170,7 @@
         <v>569</v>
       </c>
       <c r="O176" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
@@ -15308,7 +15308,7 @@
         <v>578</v>
       </c>
       <c r="O178" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="N180" s="6"/>
       <c r="O180" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
@@ -15576,7 +15576,7 @@
         <v>585</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
@@ -15712,7 +15712,7 @@
         <v>585</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
@@ -15848,7 +15848,7 @@
         <v>590</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
@@ -15980,7 +15980,7 @@
         <v>590</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
@@ -16116,7 +16116,7 @@
         <v>595</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
@@ -16213,7 +16213,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="3">
-        <v>2025100369</v>
+        <v>2025100368</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
@@ -16252,14 +16252,16 @@
         <v>599</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
       <c r="R192" s="3">
         <v>155192</v>
       </c>
-      <c r="S192" s="3"/>
+      <c r="S192" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T192" s="3"/>
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
@@ -16281,7 +16283,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="7">
-        <v>2025100368</v>
+        <v>2025100369</v>
       </c>
       <c r="C193" s="7">
         <v>1</v>
@@ -16320,16 +16322,14 @@
         <v>599</v>
       </c>
       <c r="O193" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
       <c r="R193" s="7">
         <v>155192</v>
       </c>
-      <c r="S193" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S193" s="7"/>
       <c r="T193" s="7"/>
       <c r="U193" s="7"/>
       <c r="V193" s="7"/>
@@ -16388,7 +16388,7 @@
         <v>602</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
@@ -16590,7 +16590,7 @@
       </c>
       <c r="N197" s="8"/>
       <c r="O197" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P197" s="7"/>
       <c r="Q197" s="7"/>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="N199" s="8"/>
       <c r="O199" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
@@ -16792,7 +16792,7 @@
         <v>565</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
@@ -16862,7 +16862,7 @@
         <v>565</v>
       </c>
       <c r="O201" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P201" s="7"/>
       <c r="Q201" s="7"/>
@@ -16932,7 +16932,7 @@
         <v>613</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
@@ -17064,7 +17064,7 @@
         <v>617</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
@@ -17196,7 +17196,7 @@
         <v>620</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
@@ -17328,7 +17328,7 @@
         <v>532</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
@@ -17464,7 +17464,7 @@
         <v>625</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
@@ -17600,7 +17600,7 @@
         <v>628</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
@@ -17736,7 +17736,7 @@
         <v>631</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
@@ -17833,7 +17833,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="3">
-        <v>2025100063</v>
+        <v>2025100064</v>
       </c>
       <c r="C216" s="3">
         <v>1</v>
@@ -17872,16 +17872,14 @@
         <v>634</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
       <c r="R216" s="3">
         <v>2841</v>
       </c>
-      <c r="S216" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S216" s="3"/>
       <c r="T216" s="3"/>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
@@ -17903,7 +17901,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="7">
-        <v>2025100064</v>
+        <v>2025100063</v>
       </c>
       <c r="C217" s="7">
         <v>1</v>
@@ -17942,14 +17940,16 @@
         <v>634</v>
       </c>
       <c r="O217" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P217" s="7"/>
       <c r="Q217" s="7"/>
       <c r="R217" s="7">
         <v>2841</v>
       </c>
-      <c r="S217" s="7"/>
+      <c r="S217" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T217" s="7"/>
       <c r="U217" s="7"/>
       <c r="V217" s="7"/>
@@ -18008,7 +18008,7 @@
         <v>547</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
@@ -18105,7 +18105,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="3">
-        <v>2025102607</v>
+        <v>2025102606</v>
       </c>
       <c r="C220" s="3">
         <v>1</v>
@@ -18144,14 +18144,16 @@
         <v>634</v>
       </c>
       <c r="O220" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
       <c r="R220" s="3">
         <v>1291</v>
       </c>
-      <c r="S220" s="3"/>
+      <c r="S220" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
@@ -18161,19 +18163,15 @@
       <c r="Z220" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AA220" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB220" s="3">
-        <v>1</v>
-      </c>
+      <c r="AA220" s="3"/>
+      <c r="AB220" s="3"/>
     </row>
     <row r="221" spans="1:28">
       <c r="A221" s="7">
         <v>219</v>
       </c>
       <c r="B221" s="7">
-        <v>2025102606</v>
+        <v>2025102607</v>
       </c>
       <c r="C221" s="7">
         <v>1</v>
@@ -18212,16 +18210,14 @@
         <v>634</v>
       </c>
       <c r="O221" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P221" s="7"/>
       <c r="Q221" s="7"/>
       <c r="R221" s="7">
         <v>1291</v>
       </c>
-      <c r="S221" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S221" s="7"/>
       <c r="T221" s="7"/>
       <c r="U221" s="7"/>
       <c r="V221" s="7"/>
@@ -18231,7 +18227,9 @@
       <c r="Z221" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AA221" s="7"/>
+      <c r="AA221" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AB221" s="7"/>
     </row>
     <row r="222" spans="1:28">
@@ -18278,7 +18276,7 @@
         <v>602</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
@@ -18764,7 +18762,7 @@
         <v>653</v>
       </c>
       <c r="O229" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="7">
@@ -18900,7 +18898,7 @@
         <v>657</v>
       </c>
       <c r="O231" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="7">
@@ -18972,7 +18970,7 @@
         <v>657</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P232" s="3"/>
       <c r="Q232" s="3">
@@ -19044,7 +19042,7 @@
         <v>657</v>
       </c>
       <c r="O233" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="7">
@@ -19180,7 +19178,7 @@
         <v>634</v>
       </c>
       <c r="O235" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="7">
@@ -19316,7 +19314,7 @@
         <v>665</v>
       </c>
       <c r="O237" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P237" s="7"/>
       <c r="Q237" s="7"/>
@@ -19448,7 +19446,7 @@
         <v>668</v>
       </c>
       <c r="O239" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P239" s="7"/>
       <c r="Q239" s="7"/>
@@ -19580,7 +19578,7 @@
         <v>671</v>
       </c>
       <c r="O241" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P241" s="7"/>
       <c r="Q241" s="7"/>
@@ -19712,7 +19710,7 @@
         <v>674</v>
       </c>
       <c r="O243" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P243" s="7"/>
       <c r="Q243" s="7"/>
@@ -19848,7 +19846,7 @@
         <v>677</v>
       </c>
       <c r="O245" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P245" s="7"/>
       <c r="Q245" s="7"/>
@@ -19945,7 +19943,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="7">
-        <v>2025100505</v>
+        <v>2025100506</v>
       </c>
       <c r="C247" s="7">
         <v>1</v>
@@ -19984,16 +19982,14 @@
         <v>668</v>
       </c>
       <c r="O247" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P247" s="7"/>
       <c r="Q247" s="7"/>
       <c r="R247" s="7">
         <v>187561</v>
       </c>
-      <c r="S247" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S247" s="7"/>
       <c r="T247" s="7"/>
       <c r="U247" s="7"/>
       <c r="V247" s="7"/>
@@ -20003,15 +19999,19 @@
       <c r="Z247" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AA247" s="7"/>
-      <c r="AB247" s="7"/>
+      <c r="AA247" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB247" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:28">
       <c r="A248" s="3">
         <v>246</v>
       </c>
       <c r="B248" s="3">
-        <v>2025100506</v>
+        <v>2025100505</v>
       </c>
       <c r="C248" s="3">
         <v>1</v>
@@ -20050,14 +20050,16 @@
         <v>668</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
       <c r="R248" s="3">
         <v>187561</v>
       </c>
-      <c r="S248" s="3"/>
+      <c r="S248" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T248" s="3"/>
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
@@ -20067,9 +20069,7 @@
       <c r="Z248" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AA248" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA248" s="3"/>
       <c r="AB248" s="3"/>
     </row>
     <row r="249" spans="1:28">
@@ -20116,7 +20116,7 @@
         <v>682</v>
       </c>
       <c r="O249" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P249" s="7"/>
       <c r="Q249" s="7"/>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="N251" s="8"/>
       <c r="O251" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P251" s="7"/>
       <c r="Q251" s="7"/>
@@ -20378,7 +20378,7 @@
       </c>
       <c r="N253" s="8"/>
       <c r="O253" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P253" s="7"/>
       <c r="Q253" s="7"/>
@@ -20506,7 +20506,7 @@
       </c>
       <c r="N255" s="8"/>
       <c r="O255" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="7"/>
@@ -20607,7 +20607,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="7">
-        <v>2025100557</v>
+        <v>2025100558</v>
       </c>
       <c r="C257" s="7">
         <v>1</v>
@@ -20646,7 +20646,7 @@
         <v>532</v>
       </c>
       <c r="O257" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P257" s="7"/>
       <c r="Q257" s="7">
@@ -20655,9 +20655,7 @@
       <c r="R257" s="7">
         <v>8923</v>
       </c>
-      <c r="S257" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S257" s="7"/>
       <c r="T257" s="7"/>
       <c r="U257" s="7"/>
       <c r="V257" s="7"/>
@@ -20679,7 +20677,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="3">
-        <v>2025100558</v>
+        <v>2025100557</v>
       </c>
       <c r="C258" s="3">
         <v>1</v>
@@ -20718,7 +20716,7 @@
         <v>532</v>
       </c>
       <c r="O258" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P258" s="3"/>
       <c r="Q258" s="3">
@@ -20727,7 +20725,9 @@
       <c r="R258" s="3">
         <v>8923</v>
       </c>
-      <c r="S258" s="3"/>
+      <c r="S258" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T258" s="3"/>
       <c r="U258" s="3"/>
       <c r="V258" s="3"/>
@@ -20924,7 +20924,7 @@
         <v>590</v>
       </c>
       <c r="O261" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P261" s="7"/>
       <c r="Q261" s="7"/>
@@ -21124,7 +21124,7 @@
         <v>590</v>
       </c>
       <c r="O264" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
@@ -21330,7 +21330,7 @@
         <v>715</v>
       </c>
       <c r="O267" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P267" s="7"/>
       <c r="Q267" s="7"/>
@@ -21429,7 +21429,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="7">
-        <v>2025100709</v>
+        <v>2025100708</v>
       </c>
       <c r="C269" s="7">
         <v>1</v>
@@ -21468,14 +21468,16 @@
         <v>718</v>
       </c>
       <c r="O269" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P269" s="7"/>
       <c r="Q269" s="7"/>
       <c r="R269" s="7">
         <v>28</v>
       </c>
-      <c r="S269" s="7"/>
+      <c r="S269" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T269" s="7"/>
       <c r="U269" s="7"/>
       <c r="V269" s="7"/>
@@ -21485,19 +21487,15 @@
       <c r="Z269" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AA269" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB269" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA269" s="7"/>
+      <c r="AB269" s="7"/>
     </row>
     <row r="270" spans="1:28">
       <c r="A270" s="3">
         <v>268</v>
       </c>
       <c r="B270" s="3">
-        <v>2025100708</v>
+        <v>2025100709</v>
       </c>
       <c r="C270" s="3">
         <v>1</v>
@@ -21536,16 +21534,14 @@
         <v>718</v>
       </c>
       <c r="O270" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P270" s="3"/>
       <c r="Q270" s="3"/>
       <c r="R270" s="3">
         <v>28</v>
       </c>
-      <c r="S270" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S270" s="3"/>
       <c r="T270" s="3"/>
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
@@ -21555,7 +21551,9 @@
       <c r="Z270" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AA270" s="3"/>
+      <c r="AA270" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB270" s="3"/>
     </row>
     <row r="271" spans="1:28">
@@ -21602,7 +21600,7 @@
         <v>671</v>
       </c>
       <c r="O271" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P271" s="7"/>
       <c r="Q271" s="7"/>
@@ -21734,7 +21732,7 @@
         <v>723</v>
       </c>
       <c r="O273" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P273" s="7"/>
       <c r="Q273" s="7"/>
@@ -21872,7 +21870,7 @@
         <v>668</v>
       </c>
       <c r="O275" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P275" s="7"/>
       <c r="Q275" s="7">
@@ -22080,7 +22078,7 @@
         <v>693</v>
       </c>
       <c r="O278" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
@@ -22152,7 +22150,7 @@
         <v>693</v>
       </c>
       <c r="O279" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P279" s="7"/>
       <c r="Q279" s="7"/>
@@ -22222,7 +22220,7 @@
         <v>693</v>
       </c>
       <c r="O280" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
@@ -22290,7 +22288,7 @@
         <v>737</v>
       </c>
       <c r="O281" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P281" s="7"/>
       <c r="Q281" s="7"/>
@@ -22360,7 +22358,7 @@
         <v>737</v>
       </c>
       <c r="O282" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
@@ -22430,7 +22428,7 @@
         <v>737</v>
       </c>
       <c r="O283" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P283" s="7"/>
       <c r="Q283" s="7"/>
@@ -22500,7 +22498,7 @@
         <v>739</v>
       </c>
       <c r="O284" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
@@ -22570,7 +22568,7 @@
         <v>739</v>
       </c>
       <c r="O285" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P285" s="7"/>
       <c r="Q285" s="7"/>
@@ -22640,7 +22638,7 @@
         <v>739</v>
       </c>
       <c r="O286" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
@@ -22710,7 +22708,7 @@
         <v>602</v>
       </c>
       <c r="O287" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P287" s="7"/>
       <c r="Q287" s="7"/>
@@ -22807,7 +22805,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="7">
-        <v>2025100079</v>
+        <v>2025100080</v>
       </c>
       <c r="C289" s="7">
         <v>1</v>
@@ -22846,16 +22844,14 @@
         <v>744</v>
       </c>
       <c r="O289" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P289" s="7"/>
       <c r="Q289" s="7"/>
       <c r="R289" s="7">
         <v>68795</v>
       </c>
-      <c r="S289" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S289" s="7"/>
       <c r="T289" s="7"/>
       <c r="U289" s="7"/>
       <c r="V289" s="7"/>
@@ -22865,15 +22861,19 @@
       <c r="Z289" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AA289" s="7"/>
-      <c r="AB289" s="7"/>
+      <c r="AA289" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB289" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:28">
       <c r="A290" s="3">
         <v>288</v>
       </c>
       <c r="B290" s="3">
-        <v>2025100080</v>
+        <v>2025100079</v>
       </c>
       <c r="C290" s="3">
         <v>1</v>
@@ -22912,14 +22912,16 @@
         <v>744</v>
       </c>
       <c r="O290" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
       <c r="R290" s="3">
         <v>68795</v>
       </c>
-      <c r="S290" s="3"/>
+      <c r="S290" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T290" s="3"/>
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
@@ -22929,9 +22931,7 @@
       <c r="Z290" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AA290" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA290" s="3"/>
       <c r="AB290" s="3"/>
     </row>
     <row r="291" spans="1:28">
@@ -22978,7 +22978,7 @@
         <v>744</v>
       </c>
       <c r="O291" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P291" s="7"/>
       <c r="Q291" s="7"/>
@@ -23048,7 +23048,7 @@
         <v>746</v>
       </c>
       <c r="O292" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
@@ -23118,7 +23118,7 @@
         <v>746</v>
       </c>
       <c r="O293" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P293" s="7"/>
       <c r="Q293" s="7"/>
@@ -23188,7 +23188,7 @@
         <v>746</v>
       </c>
       <c r="O294" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
@@ -23258,7 +23258,7 @@
         <v>751</v>
       </c>
       <c r="O295" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P295" s="7"/>
       <c r="Q295" s="7">
@@ -23394,7 +23394,7 @@
         <v>751</v>
       </c>
       <c r="O297" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P297" s="7"/>
       <c r="Q297" s="7">
@@ -23466,7 +23466,7 @@
         <v>753</v>
       </c>
       <c r="O298" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P298" s="3"/>
       <c r="Q298" s="3">
@@ -23602,7 +23602,7 @@
         <v>753</v>
       </c>
       <c r="O300" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P300" s="3"/>
       <c r="Q300" s="3">
@@ -23670,7 +23670,7 @@
         <v>756</v>
       </c>
       <c r="O301" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
@@ -23804,7 +23804,7 @@
         <v>759</v>
       </c>
       <c r="O303" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
@@ -24004,7 +24004,7 @@
         <v>767</v>
       </c>
       <c r="O306" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P306" s="3"/>
       <c r="Q306" s="3"/>
@@ -24068,7 +24068,7 @@
         <v>771</v>
       </c>
       <c r="O307" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P307" s="7"/>
       <c r="Q307" s="7"/>
@@ -24270,7 +24270,7 @@
         <v>779</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P310" s="3"/>
       <c r="Q310" s="3"/>
@@ -24404,7 +24404,7 @@
         <v>782</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P312" s="3"/>
       <c r="Q312" s="3"/>
@@ -24670,7 +24670,7 @@
         <v>787</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P316" s="3"/>
       <c r="Q316" s="3"/>
@@ -24802,7 +24802,7 @@
         <v>792</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P318" s="3"/>
       <c r="Q318" s="3"/>
@@ -24934,7 +24934,7 @@
         <v>800</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
@@ -25068,7 +25068,7 @@
         <v>804</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P322" s="3"/>
       <c r="Q322" s="3"/>
@@ -25202,7 +25202,7 @@
         <v>808</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P324" s="3"/>
       <c r="Q324" s="3"/>
@@ -25266,7 +25266,7 @@
         <v>812</v>
       </c>
       <c r="O325" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P325" s="7"/>
       <c r="Q325" s="7"/>
@@ -25334,7 +25334,7 @@
         <v>815</v>
       </c>
       <c r="O326" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P326" s="3"/>
       <c r="Q326" s="3"/>
@@ -25400,7 +25400,7 @@
         <v>815</v>
       </c>
       <c r="O327" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P327" s="7"/>
       <c r="Q327" s="7"/>
@@ -25530,7 +25530,7 @@
         <v>820</v>
       </c>
       <c r="O329" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P329" s="7"/>
       <c r="Q329" s="7"/>
@@ -25598,7 +25598,7 @@
         <v>823</v>
       </c>
       <c r="O330" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P330" s="3"/>
       <c r="Q330" s="3"/>
@@ -25664,7 +25664,7 @@
         <v>827</v>
       </c>
       <c r="O331" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P331" s="7"/>
       <c r="Q331" s="7"/>
@@ -25798,7 +25798,7 @@
         <v>830</v>
       </c>
       <c r="O333" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P333" s="7"/>
       <c r="Q333" s="7"/>
@@ -25932,7 +25932,7 @@
         <v>834</v>
       </c>
       <c r="O335" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P335" s="7"/>
       <c r="Q335" s="7"/>
@@ -26064,7 +26064,7 @@
         <v>840</v>
       </c>
       <c r="O337" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P337" s="7"/>
       <c r="Q337" s="7"/>
@@ -26406,7 +26406,7 @@
         <v>857</v>
       </c>
       <c r="O342" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P342" s="3"/>
       <c r="Q342" s="3"/>
@@ -26538,7 +26538,7 @@
         <v>860</v>
       </c>
       <c r="O344" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
@@ -26670,7 +26670,7 @@
         <v>863</v>
       </c>
       <c r="O346" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P346" s="3"/>
       <c r="Q346" s="3"/>
@@ -26802,7 +26802,7 @@
         <v>869</v>
       </c>
       <c r="O348" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P348" s="3"/>
       <c r="Q348" s="3"/>
@@ -26872,7 +26872,7 @@
         <v>869</v>
       </c>
       <c r="O349" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
@@ -27039,7 +27039,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="3">
-        <v>2025102037</v>
+        <v>2025102005</v>
       </c>
       <c r="C352" s="3">
         <v>1</v>
@@ -27062,8 +27062,12 @@
       <c r="I352" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="J352" s="3"/>
-      <c r="K352" s="3"/>
+      <c r="J352" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L352" s="6" t="s">
         <v>245</v>
       </c>
@@ -27074,16 +27078,14 @@
         <v>881</v>
       </c>
       <c r="O352" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P352" s="3"/>
       <c r="Q352" s="3"/>
       <c r="R352" s="3">
         <v>0</v>
       </c>
-      <c r="S352" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S352" s="3"/>
       <c r="T352" s="3"/>
       <c r="U352" s="3"/>
       <c r="V352" s="3"/>
@@ -27091,17 +27093,21 @@
       <c r="X352" s="3"/>
       <c r="Y352" s="3"/>
       <c r="Z352" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="AA352" s="3"/>
-      <c r="AB352" s="3"/>
+        <v>882</v>
+      </c>
+      <c r="AA352" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB352" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="353" spans="1:28">
       <c r="A353" s="7">
         <v>351</v>
       </c>
       <c r="B353" s="7">
-        <v>2025102005</v>
+        <v>2025102037</v>
       </c>
       <c r="C353" s="7">
         <v>1</v>
@@ -27124,12 +27130,8 @@
       <c r="I353" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="J353" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K353" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="J353" s="7"/>
+      <c r="K353" s="7"/>
       <c r="L353" s="8" t="s">
         <v>245</v>
       </c>
@@ -27140,14 +27142,16 @@
         <v>881</v>
       </c>
       <c r="O353" s="7" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
       <c r="R353" s="7">
         <v>0</v>
       </c>
-      <c r="S353" s="7"/>
+      <c r="S353" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T353" s="7"/>
       <c r="U353" s="7"/>
       <c r="V353" s="7"/>
@@ -27155,11 +27159,9 @@
       <c r="X353" s="7"/>
       <c r="Y353" s="7"/>
       <c r="Z353" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="AA353" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="AA353" s="7"/>
       <c r="AB353" s="7"/>
     </row>
     <row r="354" spans="1:28">
@@ -27202,7 +27204,7 @@
         <v>881</v>
       </c>
       <c r="O354" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P354" s="3"/>
       <c r="Q354" s="3"/>
@@ -27336,7 +27338,7 @@
         <v>894</v>
       </c>
       <c r="O356" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P356" s="3"/>
       <c r="Q356" s="3"/>
@@ -27497,7 +27499,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="7">
-        <v>2025103412</v>
+        <v>2025103385</v>
       </c>
       <c r="C359" s="7">
         <v>1</v>
@@ -27515,10 +27517,10 @@
         <v>250</v>
       </c>
       <c r="H359" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I359" s="7" t="s">
         <v>900</v>
-      </c>
-      <c r="I359" s="7" t="s">
-        <v>901</v>
       </c>
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
@@ -27526,13 +27528,13 @@
         <v>245</v>
       </c>
       <c r="M359" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="N359" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="N359" s="8" t="s">
-        <v>903</v>
-      </c>
       <c r="O359" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P359" s="7"/>
       <c r="Q359" s="7"/>
@@ -27549,7 +27551,7 @@
       <c r="X359" s="7"/>
       <c r="Y359" s="7"/>
       <c r="Z359" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AA359" s="7" t="s">
         <v>40</v>
@@ -27563,7 +27565,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="3">
-        <v>2025103385</v>
+        <v>2025103297</v>
       </c>
       <c r="C360" s="3">
         <v>1</v>
@@ -27581,33 +27583,35 @@
         <v>250</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>383</v>
+        <v>903</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="J360" s="3"/>
-      <c r="K360" s="3"/>
+        <v>900</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L360" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M360" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="N360" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="N360" s="6" t="s">
-        <v>903</v>
-      </c>
       <c r="O360" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P360" s="3"/>
       <c r="Q360" s="3"/>
       <c r="R360" s="3">
         <v>0</v>
       </c>
-      <c r="S360" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S360" s="3"/>
       <c r="T360" s="3"/>
       <c r="U360" s="3"/>
       <c r="V360" s="3"/>
@@ -27615,7 +27619,7 @@
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
       <c r="Z360" s="6" t="s">
-        <v>248</v>
+        <v>904</v>
       </c>
       <c r="AA360" s="3" t="s">
         <v>40</v>
@@ -27645,10 +27649,10 @@
         <v>250</v>
       </c>
       <c r="H361" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="I361" s="7" t="s">
         <v>900</v>
-      </c>
-      <c r="I361" s="7" t="s">
-        <v>901</v>
       </c>
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
@@ -27656,13 +27660,13 @@
         <v>245</v>
       </c>
       <c r="M361" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="N361" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="N361" s="8" t="s">
-        <v>903</v>
-      </c>
       <c r="O361" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P361" s="7"/>
       <c r="Q361" s="7"/>
@@ -27679,7 +27683,7 @@
       <c r="X361" s="7"/>
       <c r="Y361" s="7"/>
       <c r="Z361" s="8" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AA361" s="7" t="s">
         <v>40</v>
@@ -27691,7 +27695,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="3">
-        <v>2025103297</v>
+        <v>2025103412</v>
       </c>
       <c r="C362" s="3">
         <v>1</v>
@@ -27709,35 +27713,33 @@
         <v>250</v>
       </c>
       <c r="H362" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="I362" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="I362" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="J362" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K362" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J362" s="3"/>
+      <c r="K362" s="3"/>
       <c r="L362" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M362" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="N362" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="N362" s="6" t="s">
-        <v>903</v>
-      </c>
       <c r="O362" s="3" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="P362" s="3"/>
       <c r="Q362" s="3"/>
       <c r="R362" s="3">
         <v>0</v>
       </c>
-      <c r="S362" s="3"/>
+      <c r="S362" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T362" s="3"/>
       <c r="U362" s="3"/>
       <c r="V362" s="3"/>
@@ -27745,7 +27747,7 @@
       <c r="X362" s="3"/>
       <c r="Y362" s="3"/>
       <c r="Z362" s="6" t="s">
-        <v>905</v>
+        <v>255</v>
       </c>
       <c r="AA362" s="3" t="s">
         <v>40</v>
@@ -27919,7 +27921,7 @@
         <v>916</v>
       </c>
       <c r="AB365" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$365</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$368</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="929">
   <si>
     <t>服務次數統計表        篩選月份：202510</t>
   </si>
@@ -275,10 +275,10 @@
     <t>台北市士林區德行西路100號</t>
   </si>
   <si>
+    <t>服務</t>
+  </si>
+  <si>
     <t>PM抄表</t>
-  </si>
-  <si>
-    <t>服務</t>
   </si>
   <si>
     <t>10:27:00</t>
@@ -2362,6 +2362,21 @@
     <t>重插排線 清潔螢幕 觸控校正</t>
   </si>
   <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>THILF03399</t>
+  </si>
+  <si>
+    <t>新北市板橋區莊敬路77號</t>
+  </si>
+  <si>
+    <t>板橋藝文中心</t>
+  </si>
+  <si>
+    <t>撤店</t>
+  </si>
+  <si>
     <t>THILF03601</t>
   </si>
   <si>
@@ -2415,6 +2430,15 @@
   </si>
   <si>
     <t>14:15:00</t>
+  </si>
+  <si>
+    <t>THILF04083</t>
+  </si>
+  <si>
+    <t>新北市三重區中央南路74號</t>
+  </si>
+  <si>
+    <t>三重中央南</t>
   </si>
   <si>
     <t>THILF04144</t>
@@ -2587,6 +2611,18 @@
     <t>18:45:00</t>
   </si>
   <si>
+    <t>THILF05457</t>
+  </si>
+  <si>
+    <t>新北市三重區五華街89號一樓</t>
+  </si>
+  <si>
+    <t>三重鑫五華</t>
+  </si>
+  <si>
+    <t>新開門市</t>
+  </si>
+  <si>
     <t>THILF0T100</t>
   </si>
   <si>
@@ -2763,6 +2799,9 @@
 換下 8187000916</t>
   </si>
   <si>
+    <t>15:45:00</t>
+  </si>
+  <si>
     <t>THILF0D349</t>
   </si>
   <si>
@@ -2770,9 +2809,6 @@
   </si>
   <si>
     <t>板橋成都店</t>
-  </si>
-  <si>
-    <t>15:45:00</t>
   </si>
   <si>
     <t>驅動修復測試正常，請門市觀察中</t>
@@ -3228,10 +3264,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB365"/>
+  <dimension ref="A1:AB368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A365" sqref="A365"/>
+      <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3877,7 +3913,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025102728</v>
+        <v>2025102727</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -3914,7 +3950,7 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3">
@@ -3923,7 +3959,9 @@
       <c r="R10" s="3">
         <v>2018</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -3931,7 +3969,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>40</v>
@@ -3945,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025102727</v>
+        <v>2025102728</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -3982,7 +4020,7 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7">
@@ -3991,9 +4029,7 @@
       <c r="R11" s="7">
         <v>2018</v>
       </c>
-      <c r="S11" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -4001,7 +4037,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>40</v>
@@ -4083,7 +4119,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025100146</v>
+        <v>2025100147</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -4122,7 +4158,7 @@
         <v>94</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7">
@@ -4131,9 +4167,7 @@
       <c r="R13" s="7">
         <v>105</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -4141,7 +4175,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>40</v>
@@ -4155,7 +4189,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025100147</v>
+        <v>2025100146</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -4194,7 +4228,7 @@
         <v>94</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3">
@@ -4203,7 +4237,9 @@
       <c r="R14" s="3">
         <v>105</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -4211,7 +4247,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>40</v>
@@ -4330,7 +4366,7 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3">
@@ -4349,7 +4385,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>40</v>
@@ -4417,7 +4453,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>40</v>
@@ -4429,7 +4465,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025101694</v>
+        <v>2025101693</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -4468,7 +4504,7 @@
         <v>108</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
@@ -4477,7 +4513,9 @@
       <c r="R18" s="3">
         <v>2479</v>
       </c>
-      <c r="S18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -4485,7 +4523,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>40</v>
@@ -4499,7 +4537,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025101693</v>
+        <v>2025101694</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -4538,7 +4576,7 @@
         <v>108</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7">
@@ -4547,9 +4585,7 @@
       <c r="R19" s="7">
         <v>2479</v>
       </c>
-      <c r="S19" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -4557,7 +4593,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>40</v>
@@ -4608,7 +4644,7 @@
         <v>108</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
@@ -4627,7 +4663,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>40</v>
@@ -4697,7 +4733,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>40</v>
@@ -4748,7 +4784,7 @@
         <v>52</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
@@ -4767,7 +4803,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>40</v>
@@ -4837,7 +4873,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>40</v>
@@ -4886,7 +4922,7 @@
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -4977,7 +5013,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025101689</v>
+        <v>2025101688</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -5016,14 +5052,16 @@
         <v>128</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
         <v>1845</v>
       </c>
-      <c r="S26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -5031,7 +5069,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>40</v>
@@ -5045,7 +5083,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025101688</v>
+        <v>2025101689</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -5084,16 +5122,14 @@
         <v>128</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
         <v>1845</v>
       </c>
-      <c r="S27" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -5101,7 +5137,7 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>40</v>
@@ -5218,7 +5254,7 @@
         <v>30</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -5235,7 +5271,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -5299,7 +5335,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>40</v>
@@ -5350,7 +5386,7 @@
         <v>30</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -5418,7 +5454,7 @@
         <v>30</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -5435,7 +5471,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>40</v>
@@ -5503,7 +5539,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>40</v>
@@ -5552,7 +5588,7 @@
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -5680,7 +5716,7 @@
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -5750,7 +5786,7 @@
         <v>159</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -5767,7 +5803,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>40</v>
@@ -5835,7 +5871,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>40</v>
@@ -5847,7 +5883,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025102578</v>
+        <v>2025102577</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -5886,14 +5922,16 @@
         <v>30</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <v>36832</v>
       </c>
-      <c r="S39" s="7"/>
+      <c r="S39" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -5901,21 +5939,17 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB39" s="7">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025102577</v>
+        <v>2025102578</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -5954,16 +5988,14 @@
         <v>30</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
         <v>36832</v>
       </c>
-      <c r="S40" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -5971,9 +6003,11 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA40" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
@@ -6020,7 +6054,7 @@
         <v>169</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -6037,7 +6071,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>40</v>
@@ -6105,7 +6139,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>40</v>
@@ -6154,7 +6188,7 @@
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -6171,7 +6205,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>40</v>
@@ -6237,7 +6271,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>40</v>
@@ -6286,7 +6320,7 @@
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -6356,7 +6390,7 @@
         <v>180</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -6373,7 +6407,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>40</v>
@@ -6441,7 +6475,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>40</v>
@@ -6492,7 +6526,7 @@
         <v>30</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -6509,7 +6543,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -6573,7 +6607,7 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>40</v>
@@ -6624,7 +6658,7 @@
         <v>191</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3">
@@ -6696,7 +6730,7 @@
         <v>159</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7">
@@ -6715,7 +6749,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>40</v>
@@ -6785,7 +6819,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>40</v>
@@ -6836,7 +6870,7 @@
         <v>159</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7">
@@ -6908,7 +6942,7 @@
         <v>206</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3">
@@ -6927,7 +6961,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>40</v>
@@ -6997,7 +7031,7 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>40</v>
@@ -7186,7 +7220,7 @@
         <v>223</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3">
@@ -7205,7 +7239,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>40</v>
@@ -7275,7 +7309,7 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA59" s="7" t="s">
         <v>40</v>
@@ -7392,7 +7426,7 @@
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -7526,7 +7560,7 @@
         <v>236</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -7543,7 +7577,7 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA63" s="7" t="s">
         <v>40</v>
@@ -7611,7 +7645,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>40</v>
@@ -7623,7 +7657,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025103004</v>
+        <v>2025103005</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -7662,16 +7696,14 @@
         <v>240</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
         <v>59206</v>
       </c>
-      <c r="S65" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -7679,7 +7711,7 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA65" s="7" t="s">
         <v>40</v>
@@ -7693,7 +7725,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025103005</v>
+        <v>2025103004</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -7732,14 +7764,16 @@
         <v>240</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
         <v>59206</v>
       </c>
-      <c r="S66" s="3"/>
+      <c r="S66" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -7747,7 +7781,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>40</v>
@@ -7794,7 +7828,7 @@
         <v>247</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
@@ -7860,7 +7894,7 @@
         <v>254</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
@@ -7926,7 +7960,7 @@
         <v>259</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -8058,7 +8092,7 @@
         <v>268</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
@@ -8124,7 +8158,7 @@
         <v>273</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
@@ -8190,7 +8224,7 @@
         <v>277</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
@@ -8324,7 +8358,7 @@
         <v>286</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
@@ -8390,7 +8424,7 @@
         <v>289</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
@@ -8456,7 +8490,7 @@
         <v>294</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
@@ -8522,7 +8556,7 @@
         <v>297</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
@@ -8588,7 +8622,7 @@
         <v>297</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
@@ -8722,7 +8756,7 @@
         <v>303</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
@@ -8786,7 +8820,7 @@
         <v>311</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
@@ -8852,7 +8886,7 @@
         <v>316</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
@@ -8918,7 +8952,7 @@
         <v>321</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
@@ -8984,7 +9018,7 @@
         <v>325</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
@@ -9186,7 +9220,7 @@
         <v>343</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
@@ -9388,7 +9422,7 @@
         <v>352</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
@@ -9792,7 +9826,7 @@
         <v>366</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
@@ -9856,7 +9890,7 @@
         <v>374</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
@@ -9922,7 +9956,7 @@
         <v>377</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
@@ -9988,7 +10022,7 @@
         <v>381</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
@@ -10122,7 +10156,7 @@
         <v>388</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
@@ -10188,7 +10222,7 @@
         <v>391</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
@@ -10254,7 +10288,7 @@
         <v>395</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
@@ -10320,7 +10354,7 @@
         <v>400</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
@@ -10386,7 +10420,7 @@
         <v>404</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
@@ -10452,7 +10486,7 @@
         <v>408</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
@@ -10518,7 +10552,7 @@
         <v>412</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
@@ -10584,7 +10618,7 @@
         <v>417</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
@@ -10650,7 +10684,7 @@
         <v>421</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
@@ -10716,7 +10750,7 @@
         <v>424</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
@@ -10850,7 +10884,7 @@
         <v>427</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
@@ -10916,7 +10950,7 @@
         <v>433</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
@@ -10982,7 +11016,7 @@
         <v>437</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
@@ -11048,7 +11082,7 @@
         <v>437</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
@@ -11114,7 +11148,7 @@
         <v>441</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
@@ -11180,7 +11214,7 @@
         <v>446</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
@@ -11314,7 +11348,7 @@
         <v>446</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
@@ -11380,7 +11414,7 @@
         <v>454</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
@@ -11446,7 +11480,7 @@
         <v>458</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
@@ -11512,7 +11546,7 @@
         <v>463</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
@@ -11646,7 +11680,7 @@
         <v>466</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
@@ -11712,7 +11746,7 @@
         <v>471</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
@@ -11778,7 +11812,7 @@
         <v>474</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
@@ -11912,7 +11946,7 @@
         <v>480</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
@@ -11976,7 +12010,7 @@
         <v>485</v>
       </c>
       <c r="O130" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
@@ -12046,7 +12080,7 @@
         <v>491</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P131" s="7"/>
       <c r="Q131" s="7">
@@ -12186,7 +12220,7 @@
         <v>491</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P133" s="7"/>
       <c r="Q133" s="7">
@@ -12258,7 +12292,7 @@
         <v>499</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P134" s="3"/>
       <c r="Q134" s="3">
@@ -12392,7 +12426,7 @@
       </c>
       <c r="N136" s="6"/>
       <c r="O136" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P136" s="3"/>
       <c r="Q136" s="3">
@@ -12530,7 +12564,7 @@
         <v>507</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P138" s="3"/>
       <c r="Q138" s="3">
@@ -12602,7 +12636,7 @@
         <v>507</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P139" s="7"/>
       <c r="Q139" s="7">
@@ -12812,7 +12846,7 @@
         <v>514</v>
       </c>
       <c r="O142" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P142" s="3"/>
       <c r="Q142" s="3">
@@ -12948,7 +12982,7 @@
         <v>518</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P144" s="3"/>
       <c r="Q144" s="3">
@@ -13084,7 +13118,7 @@
         <v>521</v>
       </c>
       <c r="O146" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P146" s="3"/>
       <c r="Q146" s="3">
@@ -13156,7 +13190,7 @@
         <v>521</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P147" s="7"/>
       <c r="Q147" s="7">
@@ -13292,7 +13326,7 @@
         <v>525</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P149" s="7">
         <v>6677</v>
@@ -13436,7 +13470,7 @@
         <v>528</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P151" s="7">
         <v>1800</v>
@@ -13580,7 +13614,7 @@
         <v>532</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P153" s="7"/>
       <c r="Q153" s="7">
@@ -13720,7 +13754,7 @@
         <v>535</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P155" s="7">
         <v>117</v>
@@ -13864,7 +13898,7 @@
         <v>539</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P157" s="7"/>
       <c r="Q157" s="7">
@@ -14140,7 +14174,7 @@
         <v>532</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P161" s="7"/>
       <c r="Q161" s="7">
@@ -14350,7 +14384,7 @@
         <v>547</v>
       </c>
       <c r="O164" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P164" s="3"/>
       <c r="Q164" s="3">
@@ -14486,7 +14520,7 @@
         <v>547</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P166" s="3"/>
       <c r="Q166" s="3">
@@ -14558,7 +14592,7 @@
         <v>550</v>
       </c>
       <c r="O167" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P167" s="7"/>
       <c r="Q167" s="7">
@@ -14694,7 +14728,7 @@
         <v>554</v>
       </c>
       <c r="O169" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P169" s="7"/>
       <c r="Q169" s="7">
@@ -15170,7 +15204,7 @@
         <v>569</v>
       </c>
       <c r="O176" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
@@ -15308,7 +15342,7 @@
         <v>578</v>
       </c>
       <c r="O178" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
@@ -15442,7 +15476,7 @@
       </c>
       <c r="N180" s="6"/>
       <c r="O180" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
@@ -15576,7 +15610,7 @@
         <v>585</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
@@ -15712,7 +15746,7 @@
         <v>585</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
@@ -15848,7 +15882,7 @@
         <v>590</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
@@ -15980,7 +16014,7 @@
         <v>590</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
@@ -16116,7 +16150,7 @@
         <v>595</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
@@ -16252,7 +16286,7 @@
         <v>599</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
@@ -16349,7 +16383,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="3">
-        <v>2025100370</v>
+        <v>2025100371</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
@@ -16388,16 +16422,14 @@
         <v>602</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3">
         <v>140987</v>
       </c>
-      <c r="S194" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S194" s="3"/>
       <c r="T194" s="3"/>
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
@@ -16419,7 +16451,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="7">
-        <v>2025100371</v>
+        <v>2025100370</v>
       </c>
       <c r="C195" s="7">
         <v>1</v>
@@ -16458,14 +16490,16 @@
         <v>602</v>
       </c>
       <c r="O195" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
       <c r="R195" s="7">
         <v>140987</v>
       </c>
-      <c r="S195" s="7"/>
+      <c r="S195" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T195" s="7"/>
       <c r="U195" s="7"/>
       <c r="V195" s="7"/>
@@ -16590,7 +16624,7 @@
       </c>
       <c r="N197" s="8"/>
       <c r="O197" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P197" s="7"/>
       <c r="Q197" s="7"/>
@@ -16722,7 +16756,7 @@
       </c>
       <c r="N199" s="8"/>
       <c r="O199" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
@@ -16792,7 +16826,7 @@
         <v>565</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
@@ -16862,7 +16896,7 @@
         <v>565</v>
       </c>
       <c r="O201" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P201" s="7"/>
       <c r="Q201" s="7"/>
@@ -16893,7 +16927,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="3">
-        <v>2025102616</v>
+        <v>2025102617</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
@@ -16932,16 +16966,14 @@
         <v>613</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
       <c r="R202" s="3">
         <v>2724</v>
       </c>
-      <c r="S202" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S202" s="3"/>
       <c r="T202" s="3"/>
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
@@ -16951,15 +16983,19 @@
       <c r="Z202" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AA202" s="3"/>
-      <c r="AB202" s="3"/>
+      <c r="AA202" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB202" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:28">
       <c r="A203" s="7">
         <v>201</v>
       </c>
       <c r="B203" s="7">
-        <v>2025102617</v>
+        <v>2025102616</v>
       </c>
       <c r="C203" s="7">
         <v>1</v>
@@ -16998,14 +17034,16 @@
         <v>613</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
       <c r="R203" s="7">
         <v>2724</v>
       </c>
-      <c r="S203" s="7"/>
+      <c r="S203" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T203" s="7"/>
       <c r="U203" s="7"/>
       <c r="V203" s="7"/>
@@ -17015,9 +17053,7 @@
       <c r="Z203" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AA203" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA203" s="7"/>
       <c r="AB203" s="7"/>
     </row>
     <row r="204" spans="1:28">
@@ -17064,7 +17100,7 @@
         <v>617</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
@@ -17196,7 +17232,7 @@
         <v>620</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
@@ -17328,7 +17364,7 @@
         <v>532</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
@@ -17464,7 +17500,7 @@
         <v>625</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
@@ -17600,7 +17636,7 @@
         <v>628</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
@@ -17736,7 +17772,7 @@
         <v>631</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
@@ -17833,7 +17869,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="3">
-        <v>2025100064</v>
+        <v>2025100063</v>
       </c>
       <c r="C216" s="3">
         <v>1</v>
@@ -17872,14 +17908,16 @@
         <v>634</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
       <c r="R216" s="3">
         <v>2841</v>
       </c>
-      <c r="S216" s="3"/>
+      <c r="S216" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T216" s="3"/>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
@@ -17901,7 +17939,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="7">
-        <v>2025100063</v>
+        <v>2025100064</v>
       </c>
       <c r="C217" s="7">
         <v>1</v>
@@ -17940,16 +17978,14 @@
         <v>634</v>
       </c>
       <c r="O217" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P217" s="7"/>
       <c r="Q217" s="7"/>
       <c r="R217" s="7">
         <v>2841</v>
       </c>
-      <c r="S217" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S217" s="7"/>
       <c r="T217" s="7"/>
       <c r="U217" s="7"/>
       <c r="V217" s="7"/>
@@ -18008,7 +18044,7 @@
         <v>547</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
@@ -18144,7 +18180,7 @@
         <v>634</v>
       </c>
       <c r="O220" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
@@ -18276,7 +18312,7 @@
         <v>602</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
@@ -18762,7 +18798,7 @@
         <v>653</v>
       </c>
       <c r="O229" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="7">
@@ -18898,7 +18934,7 @@
         <v>657</v>
       </c>
       <c r="O231" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="7">
@@ -18970,7 +19006,7 @@
         <v>657</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P232" s="3"/>
       <c r="Q232" s="3">
@@ -19042,7 +19078,7 @@
         <v>657</v>
       </c>
       <c r="O233" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="7">
@@ -19178,7 +19214,7 @@
         <v>634</v>
       </c>
       <c r="O235" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="7">
@@ -19314,7 +19350,7 @@
         <v>665</v>
       </c>
       <c r="O237" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P237" s="7"/>
       <c r="Q237" s="7"/>
@@ -19446,7 +19482,7 @@
         <v>668</v>
       </c>
       <c r="O239" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P239" s="7"/>
       <c r="Q239" s="7"/>
@@ -19578,7 +19614,7 @@
         <v>671</v>
       </c>
       <c r="O241" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P241" s="7"/>
       <c r="Q241" s="7"/>
@@ -19710,7 +19746,7 @@
         <v>674</v>
       </c>
       <c r="O243" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P243" s="7"/>
       <c r="Q243" s="7"/>
@@ -19846,7 +19882,7 @@
         <v>677</v>
       </c>
       <c r="O245" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P245" s="7"/>
       <c r="Q245" s="7"/>
@@ -19943,7 +19979,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="7">
-        <v>2025100506</v>
+        <v>2025100505</v>
       </c>
       <c r="C247" s="7">
         <v>1</v>
@@ -19982,14 +20018,16 @@
         <v>668</v>
       </c>
       <c r="O247" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P247" s="7"/>
       <c r="Q247" s="7"/>
       <c r="R247" s="7">
         <v>187561</v>
       </c>
-      <c r="S247" s="7"/>
+      <c r="S247" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T247" s="7"/>
       <c r="U247" s="7"/>
       <c r="V247" s="7"/>
@@ -19999,19 +20037,15 @@
       <c r="Z247" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AA247" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB247" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA247" s="7"/>
+      <c r="AB247" s="7"/>
     </row>
     <row r="248" spans="1:28">
       <c r="A248" s="3">
         <v>246</v>
       </c>
       <c r="B248" s="3">
-        <v>2025100505</v>
+        <v>2025100506</v>
       </c>
       <c r="C248" s="3">
         <v>1</v>
@@ -20050,16 +20084,14 @@
         <v>668</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
       <c r="R248" s="3">
         <v>187561</v>
       </c>
-      <c r="S248" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S248" s="3"/>
       <c r="T248" s="3"/>
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
@@ -20069,7 +20101,9 @@
       <c r="Z248" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AA248" s="3"/>
+      <c r="AA248" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB248" s="3"/>
     </row>
     <row r="249" spans="1:28">
@@ -20116,7 +20150,7 @@
         <v>682</v>
       </c>
       <c r="O249" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P249" s="7"/>
       <c r="Q249" s="7"/>
@@ -20246,7 +20280,7 @@
       </c>
       <c r="N251" s="8"/>
       <c r="O251" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P251" s="7"/>
       <c r="Q251" s="7"/>
@@ -20378,7 +20412,7 @@
       </c>
       <c r="N253" s="8"/>
       <c r="O253" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P253" s="7"/>
       <c r="Q253" s="7"/>
@@ -20506,7 +20540,7 @@
       </c>
       <c r="N255" s="8"/>
       <c r="O255" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="7"/>
@@ -20716,7 +20750,7 @@
         <v>532</v>
       </c>
       <c r="O258" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P258" s="3"/>
       <c r="Q258" s="3">
@@ -20924,7 +20958,7 @@
         <v>590</v>
       </c>
       <c r="O261" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P261" s="7"/>
       <c r="Q261" s="7"/>
@@ -21124,7 +21158,7 @@
         <v>590</v>
       </c>
       <c r="O264" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
@@ -21330,7 +21364,7 @@
         <v>715</v>
       </c>
       <c r="O267" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P267" s="7"/>
       <c r="Q267" s="7"/>
@@ -21468,7 +21502,7 @@
         <v>718</v>
       </c>
       <c r="O269" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P269" s="7"/>
       <c r="Q269" s="7"/>
@@ -21561,7 +21595,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="7">
-        <v>2025101217</v>
+        <v>2025101218</v>
       </c>
       <c r="C271" s="7">
         <v>1</v>
@@ -21600,16 +21634,14 @@
         <v>671</v>
       </c>
       <c r="O271" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P271" s="7"/>
       <c r="Q271" s="7"/>
       <c r="R271" s="7">
         <v>53</v>
       </c>
-      <c r="S271" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S271" s="7"/>
       <c r="T271" s="7"/>
       <c r="U271" s="7"/>
       <c r="V271" s="7"/>
@@ -21619,15 +21651,19 @@
       <c r="Z271" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AA271" s="7"/>
-      <c r="AB271" s="7"/>
+      <c r="AA271" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB271" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="272" spans="1:28">
       <c r="A272" s="3">
         <v>270</v>
       </c>
       <c r="B272" s="3">
-        <v>2025101218</v>
+        <v>2025101217</v>
       </c>
       <c r="C272" s="3">
         <v>1</v>
@@ -21666,14 +21702,16 @@
         <v>671</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
       <c r="R272" s="3">
         <v>53</v>
       </c>
-      <c r="S272" s="3"/>
+      <c r="S272" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T272" s="3"/>
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
@@ -21683,9 +21721,7 @@
       <c r="Z272" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AA272" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA272" s="3"/>
       <c r="AB272" s="3"/>
     </row>
     <row r="273" spans="1:28">
@@ -21732,7 +21768,7 @@
         <v>723</v>
       </c>
       <c r="O273" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P273" s="7"/>
       <c r="Q273" s="7"/>
@@ -21870,7 +21906,7 @@
         <v>668</v>
       </c>
       <c r="O275" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P275" s="7"/>
       <c r="Q275" s="7">
@@ -22078,7 +22114,7 @@
         <v>693</v>
       </c>
       <c r="O278" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
@@ -22150,7 +22186,7 @@
         <v>693</v>
       </c>
       <c r="O279" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P279" s="7"/>
       <c r="Q279" s="7"/>
@@ -22220,7 +22256,7 @@
         <v>693</v>
       </c>
       <c r="O280" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
@@ -22288,7 +22324,7 @@
         <v>737</v>
       </c>
       <c r="O281" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P281" s="7"/>
       <c r="Q281" s="7"/>
@@ -22358,7 +22394,7 @@
         <v>737</v>
       </c>
       <c r="O282" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
@@ -22428,7 +22464,7 @@
         <v>737</v>
       </c>
       <c r="O283" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P283" s="7"/>
       <c r="Q283" s="7"/>
@@ -22498,7 +22534,7 @@
         <v>739</v>
       </c>
       <c r="O284" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
@@ -22568,7 +22604,7 @@
         <v>739</v>
       </c>
       <c r="O285" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P285" s="7"/>
       <c r="Q285" s="7"/>
@@ -22638,7 +22674,7 @@
         <v>739</v>
       </c>
       <c r="O286" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
@@ -22708,7 +22744,7 @@
         <v>602</v>
       </c>
       <c r="O287" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P287" s="7"/>
       <c r="Q287" s="7"/>
@@ -22805,7 +22841,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="7">
-        <v>2025100080</v>
+        <v>2025100079</v>
       </c>
       <c r="C289" s="7">
         <v>1</v>
@@ -22844,14 +22880,16 @@
         <v>744</v>
       </c>
       <c r="O289" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P289" s="7"/>
       <c r="Q289" s="7"/>
       <c r="R289" s="7">
         <v>68795</v>
       </c>
-      <c r="S289" s="7"/>
+      <c r="S289" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T289" s="7"/>
       <c r="U289" s="7"/>
       <c r="V289" s="7"/>
@@ -22861,19 +22899,15 @@
       <c r="Z289" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AA289" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB289" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA289" s="7"/>
+      <c r="AB289" s="7"/>
     </row>
     <row r="290" spans="1:28">
       <c r="A290" s="3">
         <v>288</v>
       </c>
       <c r="B290" s="3">
-        <v>2025100079</v>
+        <v>2025100080</v>
       </c>
       <c r="C290" s="3">
         <v>1</v>
@@ -22912,16 +22946,14 @@
         <v>744</v>
       </c>
       <c r="O290" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
       <c r="R290" s="3">
         <v>68795</v>
       </c>
-      <c r="S290" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S290" s="3"/>
       <c r="T290" s="3"/>
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
@@ -22931,7 +22963,9 @@
       <c r="Z290" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AA290" s="3"/>
+      <c r="AA290" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB290" s="3"/>
     </row>
     <row r="291" spans="1:28">
@@ -22978,7 +23012,7 @@
         <v>744</v>
       </c>
       <c r="O291" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P291" s="7"/>
       <c r="Q291" s="7"/>
@@ -23048,7 +23082,7 @@
         <v>746</v>
       </c>
       <c r="O292" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
@@ -23118,7 +23152,7 @@
         <v>746</v>
       </c>
       <c r="O293" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P293" s="7"/>
       <c r="Q293" s="7"/>
@@ -23188,7 +23222,7 @@
         <v>746</v>
       </c>
       <c r="O294" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
@@ -23258,7 +23292,7 @@
         <v>751</v>
       </c>
       <c r="O295" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P295" s="7"/>
       <c r="Q295" s="7">
@@ -23394,7 +23428,7 @@
         <v>751</v>
       </c>
       <c r="O297" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P297" s="7"/>
       <c r="Q297" s="7">
@@ -23466,7 +23500,7 @@
         <v>753</v>
       </c>
       <c r="O298" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P298" s="3"/>
       <c r="Q298" s="3">
@@ -23602,7 +23636,7 @@
         <v>753</v>
       </c>
       <c r="O300" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P300" s="3"/>
       <c r="Q300" s="3">
@@ -23670,7 +23704,7 @@
         <v>756</v>
       </c>
       <c r="O301" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
@@ -23804,7 +23838,7 @@
         <v>759</v>
       </c>
       <c r="O303" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
@@ -24004,7 +24038,7 @@
         <v>767</v>
       </c>
       <c r="O306" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P306" s="3"/>
       <c r="Q306" s="3"/>
@@ -24068,7 +24102,7 @@
         <v>771</v>
       </c>
       <c r="O307" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P307" s="7"/>
       <c r="Q307" s="7"/>
@@ -24167,7 +24201,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="7">
-        <v>2025103384</v>
+        <v>2025103523</v>
       </c>
       <c r="C309" s="7">
         <v>1</v>
@@ -24179,34 +24213,30 @@
         <v>486</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>493</v>
+        <v>773</v>
       </c>
       <c r="G309" s="7" t="s">
-        <v>510</v>
+        <v>112</v>
       </c>
       <c r="H309" s="7" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="I309" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="J309" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K309" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="J309" s="7"/>
+      <c r="K309" s="7"/>
       <c r="L309" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M309" s="8" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N309" s="8" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O309" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P309" s="7"/>
       <c r="Q309" s="7"/>
@@ -24214,14 +24244,16 @@
         <v>0</v>
       </c>
       <c r="S309" s="7"/>
-      <c r="T309" s="7"/>
+      <c r="T309" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="U309" s="7"/>
       <c r="V309" s="7"/>
       <c r="W309" s="7"/>
       <c r="X309" s="7"/>
       <c r="Y309" s="7"/>
       <c r="Z309" s="8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AA309" s="7" t="s">
         <v>40</v>
@@ -24235,7 +24267,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="3">
-        <v>2025103337</v>
+        <v>2025103384</v>
       </c>
       <c r="C310" s="3">
         <v>1</v>
@@ -24247,39 +24279,41 @@
         <v>486</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>249</v>
+        <v>493</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>112</v>
+        <v>510</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="J310" s="3"/>
-      <c r="K310" s="3"/>
+        <v>778</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L310" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M310" s="6" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N310" s="6" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P310" s="3"/>
       <c r="Q310" s="3"/>
       <c r="R310" s="3">
         <v>0</v>
       </c>
-      <c r="S310" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S310" s="3"/>
       <c r="T310" s="3"/>
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
@@ -24287,7 +24321,7 @@
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
       <c r="Z310" s="6" t="s">
-        <v>248</v>
+        <v>781</v>
       </c>
       <c r="AA310" s="3" t="s">
         <v>40</v>
@@ -24301,7 +24335,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="7">
-        <v>2025101401</v>
+        <v>2025103337</v>
       </c>
       <c r="C311" s="7">
         <v>1</v>
@@ -24313,41 +24347,39 @@
         <v>486</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="I311" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="J311" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K311" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="J311" s="7"/>
+      <c r="K311" s="7"/>
       <c r="L311" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M311" s="8" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N311" s="8" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O311" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P311" s="7"/>
       <c r="Q311" s="7"/>
       <c r="R311" s="7">
         <v>0</v>
       </c>
-      <c r="S311" s="7"/>
+      <c r="S311" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T311" s="7"/>
       <c r="U311" s="7"/>
       <c r="V311" s="7"/>
@@ -24355,7 +24387,7 @@
       <c r="X311" s="7"/>
       <c r="Y311" s="7"/>
       <c r="Z311" s="8" t="s">
-        <v>783</v>
+        <v>248</v>
       </c>
       <c r="AA311" s="7" t="s">
         <v>40</v>
@@ -24369,7 +24401,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="3">
-        <v>2025101597</v>
+        <v>2025101401</v>
       </c>
       <c r="C312" s="3">
         <v>1</v>
@@ -24384,36 +24416,38 @@
         <v>102</v>
       </c>
       <c r="G312" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H312" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H312" s="3" t="s">
-        <v>448</v>
-      </c>
       <c r="I312" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="J312" s="3"/>
-      <c r="K312" s="3"/>
+        <v>785</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L312" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M312" s="6" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="N312" s="6" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P312" s="3"/>
       <c r="Q312" s="3"/>
       <c r="R312" s="3">
         <v>0</v>
       </c>
-      <c r="S312" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S312" s="3"/>
       <c r="T312" s="3"/>
       <c r="U312" s="3"/>
       <c r="V312" s="3"/>
@@ -24421,19 +24455,21 @@
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
       <c r="Z312" s="6" t="s">
-        <v>248</v>
+        <v>788</v>
       </c>
       <c r="AA312" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB312" s="3"/>
+      <c r="AB312" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="313" spans="1:28">
       <c r="A313" s="7">
         <v>311</v>
       </c>
       <c r="B313" s="7">
-        <v>2025102286</v>
+        <v>2025101597</v>
       </c>
       <c r="C313" s="7">
         <v>1</v>
@@ -24445,41 +24481,39 @@
         <v>486</v>
       </c>
       <c r="F313" s="7" t="s">
-        <v>495</v>
+        <v>102</v>
       </c>
       <c r="G313" s="7" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="H313" s="7" t="s">
-        <v>371</v>
+        <v>448</v>
       </c>
       <c r="I313" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="J313" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K313" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="J313" s="7"/>
+      <c r="K313" s="7"/>
       <c r="L313" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M313" s="8" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="N313" s="8" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="O313" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P313" s="7"/>
       <c r="Q313" s="7"/>
       <c r="R313" s="7">
         <v>0</v>
       </c>
-      <c r="S313" s="7"/>
+      <c r="S313" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T313" s="7"/>
       <c r="U313" s="7"/>
       <c r="V313" s="7"/>
@@ -24487,21 +24521,19 @@
       <c r="X313" s="7"/>
       <c r="Y313" s="7"/>
       <c r="Z313" s="8" t="s">
-        <v>784</v>
+        <v>248</v>
       </c>
       <c r="AA313" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB313" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB313" s="7"/>
     </row>
     <row r="314" spans="1:28">
       <c r="A314" s="3">
         <v>312</v>
       </c>
       <c r="B314" s="3">
-        <v>2025101551</v>
+        <v>2025102286</v>
       </c>
       <c r="C314" s="3">
         <v>1</v>
@@ -24513,13 +24545,13 @@
         <v>486</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>102</v>
+        <v>495</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="I314" s="3" t="s">
         <v>785</v>
@@ -24555,7 +24587,7 @@
       <c r="X314" s="3"/>
       <c r="Y314" s="3"/>
       <c r="Z314" s="6" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="AA314" s="3" t="s">
         <v>40</v>
@@ -24569,7 +24601,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="7">
-        <v>2025101550</v>
+        <v>2025101551</v>
       </c>
       <c r="C315" s="7">
         <v>1</v>
@@ -24584,13 +24616,13 @@
         <v>102</v>
       </c>
       <c r="G315" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H315" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H315" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="I315" s="7" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="J315" s="7" t="s">
         <v>262</v>
@@ -24602,10 +24634,10 @@
         <v>245</v>
       </c>
       <c r="M315" s="8" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="N315" s="8" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="O315" s="7" t="s">
         <v>131</v>
@@ -24623,19 +24655,21 @@
       <c r="X315" s="7"/>
       <c r="Y315" s="7"/>
       <c r="Z315" s="8" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="AA315" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB315" s="7"/>
+      <c r="AB315" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="316" spans="1:28">
       <c r="A316" s="3">
         <v>314</v>
       </c>
       <c r="B316" s="3">
-        <v>2025101622</v>
+        <v>2025101550</v>
       </c>
       <c r="C316" s="3">
         <v>1</v>
@@ -24650,36 +24684,38 @@
         <v>102</v>
       </c>
       <c r="G316" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H316" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H316" s="3" t="s">
-        <v>789</v>
-      </c>
       <c r="I316" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="J316" s="3"/>
-      <c r="K316" s="3"/>
+        <v>790</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L316" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M316" s="6" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="N316" s="6" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P316" s="3"/>
       <c r="Q316" s="3"/>
       <c r="R316" s="3">
         <v>0</v>
       </c>
-      <c r="S316" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S316" s="3"/>
       <c r="T316" s="3"/>
       <c r="U316" s="3"/>
       <c r="V316" s="3"/>
@@ -24687,7 +24723,7 @@
       <c r="X316" s="3"/>
       <c r="Y316" s="3"/>
       <c r="Z316" s="6" t="s">
-        <v>248</v>
+        <v>793</v>
       </c>
       <c r="AA316" s="3" t="s">
         <v>40</v>
@@ -24699,7 +24735,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="7">
-        <v>2025103131</v>
+        <v>2025101622</v>
       </c>
       <c r="C317" s="7">
         <v>1</v>
@@ -24711,23 +24747,19 @@
         <v>486</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="G317" s="7" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>370</v>
+        <v>794</v>
       </c>
       <c r="I317" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="J317" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K317" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="J317" s="7"/>
+      <c r="K317" s="7"/>
       <c r="L317" s="8" t="s">
         <v>245</v>
       </c>
@@ -24738,14 +24770,16 @@
         <v>792</v>
       </c>
       <c r="O317" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P317" s="7"/>
       <c r="Q317" s="7"/>
       <c r="R317" s="7">
         <v>0</v>
       </c>
-      <c r="S317" s="7"/>
+      <c r="S317" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T317" s="7"/>
       <c r="U317" s="7"/>
       <c r="V317" s="7"/>
@@ -24753,21 +24787,19 @@
       <c r="X317" s="7"/>
       <c r="Y317" s="7"/>
       <c r="Z317" s="8" t="s">
-        <v>793</v>
+        <v>248</v>
       </c>
       <c r="AA317" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB317" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB317" s="7"/>
     </row>
     <row r="318" spans="1:28">
       <c r="A318" s="3">
         <v>316</v>
       </c>
       <c r="B318" s="3">
-        <v>2025103278</v>
+        <v>2025103613</v>
       </c>
       <c r="C318" s="3">
         <v>1</v>
@@ -24779,16 +24811,16 @@
         <v>486</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>150</v>
+        <v>773</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
@@ -24796,42 +24828,44 @@
         <v>245</v>
       </c>
       <c r="M318" s="6" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="N318" s="6" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P318" s="3"/>
       <c r="Q318" s="3"/>
       <c r="R318" s="3">
         <v>0</v>
       </c>
-      <c r="S318" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T318" s="3"/>
+      <c r="S318" s="3"/>
+      <c r="T318" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="U318" s="3"/>
       <c r="V318" s="3"/>
       <c r="W318" s="3"/>
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
       <c r="Z318" s="6" t="s">
-        <v>248</v>
+        <v>777</v>
       </c>
       <c r="AA318" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB318" s="3"/>
+      <c r="AB318" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="319" spans="1:28">
       <c r="A319" s="7">
         <v>317</v>
       </c>
       <c r="B319" s="7">
-        <v>2025102002</v>
+        <v>2025103131</v>
       </c>
       <c r="C319" s="7">
         <v>1</v>
@@ -24843,19 +24877,19 @@
         <v>486</v>
       </c>
       <c r="F319" s="7" t="s">
-        <v>442</v>
+        <v>150</v>
       </c>
       <c r="G319" s="7" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="I319" s="7" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="J319" s="7" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="K319" s="7" t="s">
         <v>263</v>
@@ -24864,10 +24898,10 @@
         <v>245</v>
       </c>
       <c r="M319" s="8" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="N319" s="8" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="O319" s="7" t="s">
         <v>131</v>
@@ -24885,7 +24919,7 @@
       <c r="X319" s="7"/>
       <c r="Y319" s="7"/>
       <c r="Z319" s="8" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="AA319" s="7" t="s">
         <v>40</v>
@@ -24899,7 +24933,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="3">
-        <v>2025103398</v>
+        <v>2025103278</v>
       </c>
       <c r="C320" s="3">
         <v>1</v>
@@ -24911,13 +24945,13 @@
         <v>486</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>298</v>
+        <v>371</v>
       </c>
       <c r="I320" s="3" t="s">
         <v>798</v>
@@ -24934,7 +24968,7 @@
         <v>800</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
@@ -24949,25 +24983,21 @@
       <c r="V320" s="3"/>
       <c r="W320" s="3"/>
       <c r="X320" s="3"/>
-      <c r="Y320" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y320" s="3"/>
       <c r="Z320" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AA320" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB320" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB320" s="3"/>
     </row>
     <row r="321" spans="1:28">
       <c r="A321" s="7">
         <v>319</v>
       </c>
       <c r="B321" s="7">
-        <v>2025103379</v>
+        <v>2025102002</v>
       </c>
       <c r="C321" s="7">
         <v>1</v>
@@ -24979,19 +25009,19 @@
         <v>486</v>
       </c>
       <c r="F321" s="7" t="s">
-        <v>249</v>
+        <v>442</v>
       </c>
       <c r="G321" s="7" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="I321" s="7" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="J321" s="7" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="K321" s="7" t="s">
         <v>263</v>
@@ -25000,10 +25030,10 @@
         <v>245</v>
       </c>
       <c r="M321" s="8" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="N321" s="8" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="O321" s="7" t="s">
         <v>131</v>
@@ -25021,19 +25051,21 @@
       <c r="X321" s="7"/>
       <c r="Y321" s="7"/>
       <c r="Z321" s="8" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="AA321" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB321" s="7"/>
+      <c r="AB321" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="322" spans="1:28">
       <c r="A322" s="3">
         <v>320</v>
       </c>
       <c r="B322" s="3">
-        <v>2025100974</v>
+        <v>2025103398</v>
       </c>
       <c r="C322" s="3">
         <v>1</v>
@@ -25045,7 +25077,7 @@
         <v>486</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>250</v>
@@ -25054,7 +25086,7 @@
         <v>298</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
@@ -25062,30 +25094,32 @@
         <v>245</v>
       </c>
       <c r="M322" s="6" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="N322" s="6" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P322" s="3"/>
       <c r="Q322" s="3"/>
       <c r="R322" s="3">
         <v>0</v>
       </c>
-      <c r="S322" s="3"/>
-      <c r="T322" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S322" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T322" s="3"/>
       <c r="U322" s="3"/>
       <c r="V322" s="3"/>
       <c r="W322" s="3"/>
       <c r="X322" s="3"/>
-      <c r="Y322" s="3"/>
+      <c r="Y322" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z322" s="6" t="s">
-        <v>805</v>
+        <v>255</v>
       </c>
       <c r="AA322" s="3" t="s">
         <v>40</v>
@@ -25099,7 +25133,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="7">
-        <v>2025103121</v>
+        <v>2025103379</v>
       </c>
       <c r="C323" s="7">
         <v>1</v>
@@ -25111,13 +25145,13 @@
         <v>486</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="G323" s="7" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>298</v>
+        <v>371</v>
       </c>
       <c r="I323" s="7" t="s">
         <v>806</v>
@@ -25158,16 +25192,14 @@
       <c r="AA323" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB323" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB323" s="7"/>
     </row>
     <row r="324" spans="1:28">
       <c r="A324" s="3">
         <v>322</v>
       </c>
       <c r="B324" s="3">
-        <v>2025103275</v>
+        <v>2025100974</v>
       </c>
       <c r="C324" s="3">
         <v>1</v>
@@ -25179,16 +25211,16 @@
         <v>486</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="G324" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H324" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="H324" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="I324" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
@@ -25196,42 +25228,44 @@
         <v>245</v>
       </c>
       <c r="M324" s="6" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="N324" s="6" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P324" s="3"/>
       <c r="Q324" s="3"/>
       <c r="R324" s="3">
         <v>0</v>
       </c>
-      <c r="S324" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T324" s="3"/>
+      <c r="S324" s="3"/>
+      <c r="T324" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="U324" s="3"/>
       <c r="V324" s="3"/>
       <c r="W324" s="3"/>
       <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
       <c r="Z324" s="6" t="s">
-        <v>248</v>
+        <v>813</v>
       </c>
       <c r="AA324" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB324" s="3"/>
+      <c r="AB324" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="325" spans="1:28">
       <c r="A325" s="7">
         <v>323</v>
       </c>
       <c r="B325" s="7">
-        <v>2025103342</v>
+        <v>2025103121</v>
       </c>
       <c r="C325" s="7">
         <v>1</v>
@@ -25243,49 +25277,49 @@
         <v>486</v>
       </c>
       <c r="F325" s="7" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="G325" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="I325" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="J325" s="7"/>
-      <c r="K325" s="7"/>
+        <v>814</v>
+      </c>
+      <c r="J325" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K325" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="L325" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M325" s="8" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="N325" s="8" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="O325" s="7" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P325" s="7"/>
       <c r="Q325" s="7"/>
       <c r="R325" s="7">
         <v>0</v>
       </c>
-      <c r="S325" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S325" s="7"/>
       <c r="T325" s="7"/>
       <c r="U325" s="7"/>
       <c r="V325" s="7"/>
       <c r="W325" s="7"/>
       <c r="X325" s="7"/>
-      <c r="Y325" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y325" s="7"/>
       <c r="Z325" s="8" t="s">
-        <v>255</v>
+        <v>817</v>
       </c>
       <c r="AA325" s="7" t="s">
         <v>40</v>
@@ -25299,7 +25333,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="3">
-        <v>2025100894</v>
+        <v>2025103275</v>
       </c>
       <c r="C326" s="3">
         <v>1</v>
@@ -25311,16 +25345,16 @@
         <v>486</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
@@ -25328,13 +25362,13 @@
         <v>245</v>
       </c>
       <c r="M326" s="6" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N326" s="6" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O326" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P326" s="3"/>
       <c r="Q326" s="3"/>
@@ -25351,21 +25385,19 @@
       <c r="X326" s="3"/>
       <c r="Y326" s="3"/>
       <c r="Z326" s="6" t="s">
-        <v>816</v>
+        <v>248</v>
       </c>
       <c r="AA326" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB326" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB326" s="3"/>
     </row>
     <row r="327" spans="1:28">
       <c r="A327" s="7">
         <v>325</v>
       </c>
       <c r="B327" s="7">
-        <v>2025100926</v>
+        <v>2025103342</v>
       </c>
       <c r="C327" s="7">
         <v>1</v>
@@ -25377,7 +25409,7 @@
         <v>486</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G327" s="7" t="s">
         <v>214</v>
@@ -25386,7 +25418,7 @@
         <v>256</v>
       </c>
       <c r="I327" s="7" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="J327" s="7"/>
       <c r="K327" s="7"/>
@@ -25394,13 +25426,13 @@
         <v>245</v>
       </c>
       <c r="M327" s="8" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="N327" s="8" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="O327" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P327" s="7"/>
       <c r="Q327" s="7"/>
@@ -25415,21 +25447,25 @@
       <c r="V327" s="7"/>
       <c r="W327" s="7"/>
       <c r="X327" s="7"/>
-      <c r="Y327" s="7"/>
+      <c r="Y327" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z327" s="8" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AA327" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB327" s="7"/>
+      <c r="AB327" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="328" spans="1:28">
       <c r="A328" s="3">
         <v>326</v>
       </c>
       <c r="B328" s="3">
-        <v>2025100752</v>
+        <v>2025100894</v>
       </c>
       <c r="C328" s="3">
         <v>1</v>
@@ -25444,38 +25480,36 @@
         <v>241</v>
       </c>
       <c r="G328" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H328" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H328" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="I328" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="J328" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K328" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="J328" s="3"/>
+      <c r="K328" s="3"/>
       <c r="L328" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M328" s="6" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="N328" s="6" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P328" s="3"/>
       <c r="Q328" s="3"/>
       <c r="R328" s="3">
         <v>0</v>
       </c>
-      <c r="S328" s="3"/>
+      <c r="S328" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T328" s="3"/>
       <c r="U328" s="3"/>
       <c r="V328" s="3"/>
@@ -25483,19 +25517,21 @@
       <c r="X328" s="3"/>
       <c r="Y328" s="3"/>
       <c r="Z328" s="6" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="AA328" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB328" s="3"/>
+      <c r="AB328" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="329" spans="1:28">
       <c r="A329" s="7">
         <v>327</v>
       </c>
       <c r="B329" s="7">
-        <v>2025103369</v>
+        <v>2025100926</v>
       </c>
       <c r="C329" s="7">
         <v>1</v>
@@ -25507,16 +25543,16 @@
         <v>486</v>
       </c>
       <c r="F329" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G329" s="7" t="s">
-        <v>401</v>
+        <v>214</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I329" s="7" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="J329" s="7"/>
       <c r="K329" s="7"/>
@@ -25524,13 +25560,13 @@
         <v>245</v>
       </c>
       <c r="M329" s="8" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="N329" s="8" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="O329" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P329" s="7"/>
       <c r="Q329" s="7"/>
@@ -25545,25 +25581,21 @@
       <c r="V329" s="7"/>
       <c r="W329" s="7"/>
       <c r="X329" s="7"/>
-      <c r="Y329" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y329" s="7"/>
       <c r="Z329" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AA329" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB329" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB329" s="7"/>
     </row>
     <row r="330" spans="1:28">
       <c r="A330" s="3">
         <v>328</v>
       </c>
       <c r="B330" s="3">
-        <v>2025101599</v>
+        <v>2025100752</v>
       </c>
       <c r="C330" s="3">
         <v>1</v>
@@ -25575,19 +25607,23 @@
         <v>486</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>448</v>
+        <v>256</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="I330" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="J330" s="3"/>
-      <c r="K330" s="3"/>
+      <c r="J330" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L330" s="6" t="s">
         <v>245</v>
       </c>
@@ -25598,16 +25634,14 @@
         <v>823</v>
       </c>
       <c r="O330" s="3" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P330" s="3"/>
       <c r="Q330" s="3"/>
       <c r="R330" s="3">
         <v>0</v>
       </c>
-      <c r="S330" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S330" s="3"/>
       <c r="T330" s="3"/>
       <c r="U330" s="3"/>
       <c r="V330" s="3"/>
@@ -25615,21 +25649,19 @@
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
       <c r="Z330" s="6" t="s">
-        <v>248</v>
+        <v>825</v>
       </c>
       <c r="AA330" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB330" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB330" s="3"/>
     </row>
     <row r="331" spans="1:28">
       <c r="A331" s="7">
         <v>329</v>
       </c>
       <c r="B331" s="7">
-        <v>2025101600</v>
+        <v>2025103369</v>
       </c>
       <c r="C331" s="7">
         <v>1</v>
@@ -25641,16 +25673,16 @@
         <v>486</v>
       </c>
       <c r="F331" s="7" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>214</v>
+        <v>401</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>824</v>
+        <v>250</v>
       </c>
       <c r="I331" s="7" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J331" s="7"/>
       <c r="K331" s="7"/>
@@ -25658,13 +25690,13 @@
         <v>245</v>
       </c>
       <c r="M331" s="8" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N331" s="8" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O331" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P331" s="7"/>
       <c r="Q331" s="7"/>
@@ -25679,9 +25711,11 @@
       <c r="V331" s="7"/>
       <c r="W331" s="7"/>
       <c r="X331" s="7"/>
-      <c r="Y331" s="7"/>
+      <c r="Y331" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z331" s="8" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AA331" s="7" t="s">
         <v>40</v>
@@ -25695,7 +25729,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="3">
-        <v>2025102673</v>
+        <v>2025101599</v>
       </c>
       <c r="C332" s="3">
         <v>1</v>
@@ -25707,41 +25741,39 @@
         <v>486</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="G332" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H332" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H332" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="I332" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="J332" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K332" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
       <c r="L332" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M332" s="6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N332" s="6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="O332" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P332" s="3"/>
       <c r="Q332" s="3"/>
       <c r="R332" s="3">
         <v>0</v>
       </c>
-      <c r="S332" s="3"/>
+      <c r="S332" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T332" s="3"/>
       <c r="U332" s="3"/>
       <c r="V332" s="3"/>
@@ -25749,7 +25781,7 @@
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
       <c r="Z332" s="6" t="s">
-        <v>831</v>
+        <v>248</v>
       </c>
       <c r="AA332" s="3" t="s">
         <v>40</v>
@@ -25763,7 +25795,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="7">
-        <v>2025102717</v>
+        <v>2025101600</v>
       </c>
       <c r="C333" s="7">
         <v>1</v>
@@ -25775,16 +25807,16 @@
         <v>486</v>
       </c>
       <c r="F333" s="7" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="G333" s="7" t="s">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="H333" s="7" t="s">
-        <v>510</v>
+        <v>832</v>
       </c>
       <c r="I333" s="7" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="J333" s="7"/>
       <c r="K333" s="7"/>
@@ -25792,13 +25824,13 @@
         <v>245</v>
       </c>
       <c r="M333" s="8" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="N333" s="8" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="O333" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P333" s="7"/>
       <c r="Q333" s="7"/>
@@ -25829,7 +25861,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="3">
-        <v>2025101896</v>
+        <v>2025102673</v>
       </c>
       <c r="C334" s="3">
         <v>1</v>
@@ -25841,16 +25873,16 @@
         <v>486</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>262</v>
@@ -25862,10 +25894,10 @@
         <v>245</v>
       </c>
       <c r="M334" s="6" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="N334" s="6" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="O334" s="3" t="s">
         <v>131</v>
@@ -25883,7 +25915,7 @@
       <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
       <c r="Z334" s="6" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="AA334" s="3" t="s">
         <v>40</v>
@@ -25897,7 +25929,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="7">
-        <v>2025101939</v>
+        <v>2025102717</v>
       </c>
       <c r="C335" s="7">
         <v>1</v>
@@ -25909,16 +25941,16 @@
         <v>486</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="G335" s="7" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="H335" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="I335" s="7" t="s">
         <v>836</v>
-      </c>
-      <c r="I335" s="7" t="s">
-        <v>832</v>
       </c>
       <c r="J335" s="7"/>
       <c r="K335" s="7"/>
@@ -25926,13 +25958,13 @@
         <v>245</v>
       </c>
       <c r="M335" s="8" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="N335" s="8" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="O335" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P335" s="7"/>
       <c r="Q335" s="7"/>
@@ -25954,14 +25986,16 @@
       <c r="AA335" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB335" s="7"/>
+      <c r="AB335" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:28">
       <c r="A336" s="3">
         <v>334</v>
       </c>
       <c r="B336" s="3">
-        <v>2025103380</v>
+        <v>2025101896</v>
       </c>
       <c r="C336" s="3">
         <v>1</v>
@@ -25973,16 +26007,16 @@
         <v>486</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>837</v>
+        <v>242</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="J336" s="3" t="s">
         <v>262</v>
@@ -25994,10 +26028,10 @@
         <v>245</v>
       </c>
       <c r="M336" s="6" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="N336" s="6" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="O336" s="3" t="s">
         <v>131</v>
@@ -26015,7 +26049,7 @@
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
       <c r="Z336" s="6" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AA336" s="3" t="s">
         <v>40</v>
@@ -26029,7 +26063,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="7">
-        <v>2025103411</v>
+        <v>2025101939</v>
       </c>
       <c r="C337" s="7">
         <v>1</v>
@@ -26041,16 +26075,16 @@
         <v>486</v>
       </c>
       <c r="F337" s="7" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>842</v>
+        <v>242</v>
       </c>
       <c r="H337" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I337" s="7" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="J337" s="7"/>
       <c r="K337" s="7"/>
@@ -26058,13 +26092,13 @@
         <v>245</v>
       </c>
       <c r="M337" s="8" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="N337" s="8" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="O337" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P337" s="7"/>
       <c r="Q337" s="7"/>
@@ -26079,25 +26113,21 @@
       <c r="V337" s="7"/>
       <c r="W337" s="7"/>
       <c r="X337" s="7"/>
-      <c r="Y337" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y337" s="7"/>
       <c r="Z337" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AA337" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB337" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB337" s="7"/>
     </row>
     <row r="338" spans="1:28">
       <c r="A338" s="3">
         <v>336</v>
       </c>
       <c r="B338" s="3">
-        <v>2025101400</v>
+        <v>2025103380</v>
       </c>
       <c r="C338" s="3">
         <v>1</v>
@@ -26109,16 +26139,16 @@
         <v>486</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>448</v>
+        <v>186</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>430</v>
+        <v>845</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J338" s="3" t="s">
         <v>262</v>
@@ -26130,10 +26160,10 @@
         <v>245</v>
       </c>
       <c r="M338" s="6" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="N338" s="6" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="O338" s="3" t="s">
         <v>131</v>
@@ -26151,7 +26181,7 @@
       <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
       <c r="Z338" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AA338" s="3" t="s">
         <v>40</v>
@@ -26165,10 +26195,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="7">
-        <v>2025101400</v>
+        <v>2025103411</v>
       </c>
       <c r="C339" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D339" s="7" t="s">
         <v>29</v>
@@ -26177,49 +26207,49 @@
         <v>486</v>
       </c>
       <c r="F339" s="7" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="G339" s="7" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I339" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="J339" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K339" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="J339" s="7"/>
+      <c r="K339" s="7"/>
       <c r="L339" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M339" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="N339" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="O339" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P339" s="7"/>
       <c r="Q339" s="7"/>
       <c r="R339" s="7">
         <v>0</v>
       </c>
-      <c r="S339" s="7"/>
+      <c r="S339" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T339" s="7"/>
       <c r="U339" s="7"/>
       <c r="V339" s="7"/>
       <c r="W339" s="7"/>
       <c r="X339" s="7"/>
-      <c r="Y339" s="7"/>
+      <c r="Y339" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z339" s="8" t="s">
-        <v>850</v>
+        <v>255</v>
       </c>
       <c r="AA339" s="7" t="s">
         <v>40</v>
@@ -26233,10 +26263,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="3">
-        <v>2025101400</v>
+        <v>2025103585</v>
       </c>
       <c r="C340" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>29</v>
@@ -26245,34 +26275,30 @@
         <v>486</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>102</v>
+        <v>773</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>851</v>
+        <v>291</v>
       </c>
       <c r="H340" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I340" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="I340" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="J340" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K340" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J340" s="3"/>
+      <c r="K340" s="3"/>
       <c r="L340" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M340" s="6" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="N340" s="6" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="O340" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P340" s="3"/>
       <c r="Q340" s="3"/>
@@ -26280,19 +26306,23 @@
         <v>0</v>
       </c>
       <c r="S340" s="3"/>
-      <c r="T340" s="3"/>
+      <c r="T340" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="U340" s="3"/>
       <c r="V340" s="3"/>
       <c r="W340" s="3"/>
       <c r="X340" s="3"/>
       <c r="Y340" s="3"/>
       <c r="Z340" s="6" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="AA340" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB340" s="3"/>
+      <c r="AB340" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="341" spans="1:28">
       <c r="A341" s="7">
@@ -26302,7 +26332,7 @@
         <v>2025101400</v>
       </c>
       <c r="C341" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D341" s="7" t="s">
         <v>29</v>
@@ -26311,16 +26341,16 @@
         <v>486</v>
       </c>
       <c r="F341" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>274</v>
+        <v>448</v>
       </c>
       <c r="H341" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I341" s="7" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="J341" s="7" t="s">
         <v>262</v>
@@ -26332,10 +26362,10 @@
         <v>245</v>
       </c>
       <c r="M341" s="8" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="N341" s="8" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="O341" s="7" t="s">
         <v>131</v>
@@ -26353,7 +26383,7 @@
       <c r="X341" s="7"/>
       <c r="Y341" s="7"/>
       <c r="Z341" s="8" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="AA341" s="7" t="s">
         <v>40</v>
@@ -26367,10 +26397,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="3">
-        <v>2025102600</v>
+        <v>2025101400</v>
       </c>
       <c r="C342" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>29</v>
@@ -26379,43 +26409,41 @@
         <v>486</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>322</v>
+        <v>860</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>185</v>
+        <v>861</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>855</v>
+        <v>262</v>
       </c>
       <c r="K342" s="3" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="L342" s="6" t="s">
-        <v>512</v>
+        <v>245</v>
       </c>
       <c r="M342" s="6" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N342" s="6" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="O342" s="3" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P342" s="3"/>
       <c r="Q342" s="3"/>
       <c r="R342" s="3">
-        <v>725</v>
-      </c>
-      <c r="S342" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S342" s="3"/>
       <c r="T342" s="3"/>
       <c r="U342" s="3"/>
       <c r="V342" s="3"/>
@@ -26423,20 +26451,24 @@
       <c r="X342" s="3"/>
       <c r="Y342" s="3"/>
       <c r="Z342" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA342" s="3"/>
-      <c r="AB342" s="3"/>
+        <v>862</v>
+      </c>
+      <c r="AA342" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB342" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="343" spans="1:28">
       <c r="A343" s="7">
         <v>341</v>
       </c>
       <c r="B343" s="7">
-        <v>2025102601</v>
+        <v>2025101400</v>
       </c>
       <c r="C343" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D343" s="7" t="s">
         <v>29</v>
@@ -26445,39 +26477,39 @@
         <v>486</v>
       </c>
       <c r="F343" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G343" s="7" t="s">
-        <v>322</v>
+        <v>863</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>185</v>
+        <v>864</v>
       </c>
       <c r="I343" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="J343" s="7" t="s">
-        <v>855</v>
+        <v>262</v>
       </c>
       <c r="K343" s="7" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="L343" s="8" t="s">
-        <v>512</v>
+        <v>245</v>
       </c>
       <c r="M343" s="8" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N343" s="8" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="O343" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="P343" s="7"/>
       <c r="Q343" s="7"/>
       <c r="R343" s="7">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="S343" s="7"/>
       <c r="T343" s="7"/>
@@ -26487,7 +26519,7 @@
       <c r="X343" s="7"/>
       <c r="Y343" s="7"/>
       <c r="Z343" s="8" t="s">
-        <v>515</v>
+        <v>862</v>
       </c>
       <c r="AA343" s="7" t="s">
         <v>40</v>
@@ -26499,10 +26531,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="3">
-        <v>2025102602</v>
+        <v>2025101400</v>
       </c>
       <c r="C344" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>29</v>
@@ -26511,43 +26543,41 @@
         <v>486</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>112</v>
+        <v>429</v>
       </c>
       <c r="I344" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L344" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M344" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="N344" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="J344" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="K344" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L344" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="M344" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="N344" s="6" t="s">
-        <v>860</v>
-      </c>
       <c r="O344" s="3" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
       <c r="R344" s="3">
-        <v>1342</v>
-      </c>
-      <c r="S344" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S344" s="3"/>
       <c r="T344" s="3"/>
       <c r="U344" s="3"/>
       <c r="V344" s="3"/>
@@ -26555,17 +26585,21 @@
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
       <c r="Z344" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA344" s="3"/>
-      <c r="AB344" s="3"/>
+        <v>865</v>
+      </c>
+      <c r="AA344" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB344" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="345" spans="1:28">
       <c r="A345" s="7">
         <v>343</v>
       </c>
       <c r="B345" s="7">
-        <v>2025102603</v>
+        <v>2025102600</v>
       </c>
       <c r="C345" s="7">
         <v>1</v>
@@ -26580,16 +26614,16 @@
         <v>116</v>
       </c>
       <c r="G345" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H345" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H345" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="I345" s="7" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="J345" s="7" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="K345" s="7" t="s">
         <v>36</v>
@@ -26598,20 +26632,22 @@
         <v>512</v>
       </c>
       <c r="M345" s="8" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="N345" s="8" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="O345" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P345" s="7"/>
       <c r="Q345" s="7"/>
       <c r="R345" s="7">
-        <v>1342</v>
-      </c>
-      <c r="S345" s="7"/>
+        <v>725</v>
+      </c>
+      <c r="S345" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T345" s="7"/>
       <c r="U345" s="7"/>
       <c r="V345" s="7"/>
@@ -26621,9 +26657,7 @@
       <c r="Z345" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AA345" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA345" s="7"/>
       <c r="AB345" s="7"/>
     </row>
     <row r="346" spans="1:28">
@@ -26631,7 +26665,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="3">
-        <v>2025102604</v>
+        <v>2025102601</v>
       </c>
       <c r="C346" s="3">
         <v>1</v>
@@ -26646,16 +26680,16 @@
         <v>116</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="J346" s="3" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="K346" s="3" t="s">
         <v>36</v>
@@ -26664,22 +26698,20 @@
         <v>512</v>
       </c>
       <c r="M346" s="6" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="N346" s="6" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="O346" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P346" s="3"/>
       <c r="Q346" s="3"/>
       <c r="R346" s="3">
-        <v>349</v>
-      </c>
-      <c r="S346" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="S346" s="3"/>
       <c r="T346" s="3"/>
       <c r="U346" s="3"/>
       <c r="V346" s="3"/>
@@ -26689,7 +26721,9 @@
       <c r="Z346" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AA346" s="3"/>
+      <c r="AA346" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB346" s="3"/>
     </row>
     <row r="347" spans="1:28">
@@ -26697,7 +26731,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="7">
-        <v>2025102605</v>
+        <v>2025102602</v>
       </c>
       <c r="C347" s="7">
         <v>1</v>
@@ -26712,16 +26746,16 @@
         <v>116</v>
       </c>
       <c r="G347" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H347" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H347" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="I347" s="7" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="J347" s="7" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="K347" s="7" t="s">
         <v>36</v>
@@ -26730,20 +26764,22 @@
         <v>512</v>
       </c>
       <c r="M347" s="8" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="N347" s="8" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="O347" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P347" s="7"/>
       <c r="Q347" s="7"/>
       <c r="R347" s="7">
-        <v>349</v>
-      </c>
-      <c r="S347" s="7"/>
+        <v>1342</v>
+      </c>
+      <c r="S347" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T347" s="7"/>
       <c r="U347" s="7"/>
       <c r="V347" s="7"/>
@@ -26753,9 +26789,7 @@
       <c r="Z347" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AA347" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA347" s="7"/>
       <c r="AB347" s="7"/>
     </row>
     <row r="348" spans="1:28">
@@ -26763,7 +26797,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="3">
-        <v>2025102177</v>
+        <v>2025102603</v>
       </c>
       <c r="C348" s="3">
         <v>1</v>
@@ -26775,39 +26809,39 @@
         <v>486</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>495</v>
+        <v>116</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="K348" s="3" t="s">
-        <v>866</v>
+        <v>36</v>
       </c>
       <c r="L348" s="6" t="s">
-        <v>867</v>
+        <v>512</v>
       </c>
       <c r="M348" s="6" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="N348" s="6" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="O348" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P348" s="3"/>
       <c r="Q348" s="3"/>
       <c r="R348" s="3">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="S348" s="3"/>
       <c r="T348" s="3"/>
@@ -26815,25 +26849,21 @@
       <c r="V348" s="3"/>
       <c r="W348" s="3"/>
       <c r="X348" s="3"/>
-      <c r="Y348" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y348" s="3"/>
       <c r="Z348" s="6" t="s">
-        <v>870</v>
+        <v>515</v>
       </c>
       <c r="AA348" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB348" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB348" s="3"/>
     </row>
     <row r="349" spans="1:28">
       <c r="A349" s="7">
         <v>347</v>
       </c>
       <c r="B349" s="7">
-        <v>2025103477</v>
+        <v>2025102604</v>
       </c>
       <c r="C349" s="7">
         <v>1</v>
@@ -26845,65 +26875,61 @@
         <v>486</v>
       </c>
       <c r="F349" s="7" t="s">
-        <v>493</v>
+        <v>116</v>
       </c>
       <c r="G349" s="7" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="H349" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="I349" s="7" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="J349" s="7" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="K349" s="7" t="s">
-        <v>866</v>
+        <v>36</v>
       </c>
       <c r="L349" s="8" t="s">
-        <v>867</v>
+        <v>512</v>
       </c>
       <c r="M349" s="8" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="N349" s="8" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="O349" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
       <c r="R349" s="7">
-        <v>0</v>
-      </c>
-      <c r="S349" s="7"/>
+        <v>349</v>
+      </c>
+      <c r="S349" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T349" s="7"/>
       <c r="U349" s="7"/>
       <c r="V349" s="7"/>
       <c r="W349" s="7"/>
       <c r="X349" s="7"/>
-      <c r="Y349" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y349" s="7"/>
       <c r="Z349" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="AA349" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB349" s="7">
-        <v>1</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="AA349" s="7"/>
+      <c r="AB349" s="7"/>
     </row>
     <row r="350" spans="1:28">
       <c r="A350" s="3">
         <v>348</v>
       </c>
       <c r="B350" s="3">
-        <v>2025101909</v>
+        <v>2025102605</v>
       </c>
       <c r="C350" s="3">
         <v>1</v>
@@ -26912,44 +26938,42 @@
         <v>29</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>872</v>
+        <v>486</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G350" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I350" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H350" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="I350" s="3" t="s">
-        <v>875</v>
-      </c>
       <c r="J350" s="3" t="s">
-        <v>203</v>
+        <v>867</v>
       </c>
       <c r="K350" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L350" s="6" t="s">
-        <v>876</v>
+        <v>512</v>
       </c>
       <c r="M350" s="6" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="N350" s="6" t="s">
-        <v>595</v>
+        <v>875</v>
       </c>
       <c r="O350" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P350" s="3"/>
-      <c r="Q350" s="3">
-        <v>5870</v>
-      </c>
+      <c r="Q350" s="3"/>
       <c r="R350" s="3">
-        <v>66329</v>
+        <v>349</v>
       </c>
       <c r="S350" s="3"/>
       <c r="T350" s="3"/>
@@ -26958,20 +26982,20 @@
       <c r="W350" s="3"/>
       <c r="X350" s="3"/>
       <c r="Y350" s="3"/>
-      <c r="Z350" s="6"/>
+      <c r="Z350" s="6" t="s">
+        <v>515</v>
+      </c>
       <c r="AA350" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB350" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB350" s="3"/>
     </row>
     <row r="351" spans="1:28">
       <c r="A351" s="7">
         <v>349</v>
       </c>
       <c r="B351" s="7">
-        <v>2025101908</v>
+        <v>2025102177</v>
       </c>
       <c r="C351" s="7">
         <v>1</v>
@@ -26980,44 +27004,42 @@
         <v>29</v>
       </c>
       <c r="E351" s="7" t="s">
-        <v>872</v>
+        <v>486</v>
       </c>
       <c r="F351" s="7" t="s">
-        <v>109</v>
+        <v>495</v>
       </c>
       <c r="G351" s="7" t="s">
-        <v>873</v>
+        <v>214</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>874</v>
+        <v>291</v>
       </c>
       <c r="I351" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="J351" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="K351" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="J351" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K351" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="L351" s="8" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="M351" s="8" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="N351" s="8" t="s">
-        <v>595</v>
+        <v>881</v>
       </c>
       <c r="O351" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P351" s="7"/>
-      <c r="Q351" s="7">
-        <v>8500</v>
-      </c>
+      <c r="Q351" s="7"/>
       <c r="R351" s="7">
-        <v>111827</v>
+        <v>0</v>
       </c>
       <c r="S351" s="7"/>
       <c r="T351" s="7"/>
@@ -27025,8 +27047,12 @@
       <c r="V351" s="7"/>
       <c r="W351" s="7"/>
       <c r="X351" s="7"/>
-      <c r="Y351" s="7"/>
-      <c r="Z351" s="8"/>
+      <c r="Y351" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z351" s="8" t="s">
+        <v>882</v>
+      </c>
       <c r="AA351" s="7" t="s">
         <v>40</v>
       </c>
@@ -27039,7 +27065,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="3">
-        <v>2025102005</v>
+        <v>2025103477</v>
       </c>
       <c r="C352" s="3">
         <v>1</v>
@@ -27048,28 +27074,28 @@
         <v>29</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>872</v>
+        <v>486</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I352" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="L352" s="6" t="s">
         <v>879</v>
-      </c>
-      <c r="J352" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="K352" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L352" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="M352" s="6" t="s">
         <v>880</v>
@@ -27078,7 +27104,7 @@
         <v>881</v>
       </c>
       <c r="O352" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P352" s="3"/>
       <c r="Q352" s="3"/>
@@ -27091,9 +27117,11 @@
       <c r="V352" s="3"/>
       <c r="W352" s="3"/>
       <c r="X352" s="3"/>
-      <c r="Y352" s="3"/>
+      <c r="Y352" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z352" s="6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AA352" s="3" t="s">
         <v>40</v>
@@ -27107,7 +27135,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="7">
-        <v>2025102037</v>
+        <v>2025101909</v>
       </c>
       <c r="C353" s="7">
         <v>1</v>
@@ -27116,60 +27144,66 @@
         <v>29</v>
       </c>
       <c r="E353" s="7" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F353" s="7" t="s">
-        <v>442</v>
+        <v>109</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>256</v>
+        <v>885</v>
       </c>
       <c r="H353" s="7" t="s">
-        <v>237</v>
+        <v>886</v>
       </c>
       <c r="I353" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="J353" s="7"/>
-      <c r="K353" s="7"/>
+        <v>887</v>
+      </c>
+      <c r="J353" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K353" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L353" s="8" t="s">
-        <v>245</v>
+        <v>888</v>
       </c>
       <c r="M353" s="8" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="N353" s="8" t="s">
-        <v>881</v>
+        <v>595</v>
       </c>
       <c r="O353" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P353" s="7"/>
-      <c r="Q353" s="7"/>
+      <c r="Q353" s="7">
+        <v>5870</v>
+      </c>
       <c r="R353" s="7">
-        <v>0</v>
-      </c>
-      <c r="S353" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>66329</v>
+      </c>
+      <c r="S353" s="7"/>
       <c r="T353" s="7"/>
       <c r="U353" s="7"/>
       <c r="V353" s="7"/>
       <c r="W353" s="7"/>
       <c r="X353" s="7"/>
       <c r="Y353" s="7"/>
-      <c r="Z353" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="AA353" s="7"/>
-      <c r="AB353" s="7"/>
+      <c r="Z353" s="8"/>
+      <c r="AA353" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB353" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="354" spans="1:28">
       <c r="A354" s="3">
         <v>352</v>
       </c>
       <c r="B354" s="3">
-        <v>2025102331</v>
+        <v>2025101908</v>
       </c>
       <c r="C354" s="3">
         <v>1</v>
@@ -27178,51 +27212,53 @@
         <v>29</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>495</v>
+        <v>109</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J354" s="3"/>
-      <c r="K354" s="3"/>
+        <v>890</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L354" s="6" t="s">
-        <v>245</v>
+        <v>888</v>
       </c>
       <c r="M354" s="6" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="N354" s="6" t="s">
-        <v>881</v>
+        <v>595</v>
       </c>
       <c r="O354" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="P354" s="3"/>
-      <c r="Q354" s="3"/>
+      <c r="Q354" s="3">
+        <v>8500</v>
+      </c>
       <c r="R354" s="3">
-        <v>0</v>
-      </c>
-      <c r="S354" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>111827</v>
+      </c>
+      <c r="S354" s="3"/>
       <c r="T354" s="3"/>
       <c r="U354" s="3"/>
       <c r="V354" s="3"/>
       <c r="W354" s="3"/>
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
-      <c r="Z354" s="6" t="s">
-        <v>248</v>
-      </c>
+      <c r="Z354" s="6"/>
       <c r="AA354" s="3" t="s">
         <v>40</v>
       </c>
@@ -27235,7 +27271,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="7">
-        <v>2025103124</v>
+        <v>2025102005</v>
       </c>
       <c r="C355" s="7">
         <v>1</v>
@@ -27244,22 +27280,22 @@
         <v>29</v>
       </c>
       <c r="E355" s="7" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F355" s="7" t="s">
-        <v>150</v>
+        <v>442</v>
       </c>
       <c r="G355" s="7" t="s">
-        <v>885</v>
+        <v>256</v>
       </c>
       <c r="H355" s="7" t="s">
-        <v>886</v>
+        <v>237</v>
       </c>
       <c r="I355" s="7" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="J355" s="7" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="K355" s="7" t="s">
         <v>263</v>
@@ -27268,10 +27304,10 @@
         <v>245</v>
       </c>
       <c r="M355" s="8" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="N355" s="8" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="O355" s="7" t="s">
         <v>131</v>
@@ -27289,7 +27325,7 @@
       <c r="X355" s="7"/>
       <c r="Y355" s="7"/>
       <c r="Z355" s="8" t="s">
-        <v>337</v>
+        <v>894</v>
       </c>
       <c r="AA355" s="7" t="s">
         <v>40</v>
@@ -27303,7 +27339,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="3">
-        <v>2025101206</v>
+        <v>2025102037</v>
       </c>
       <c r="C356" s="3">
         <v>1</v>
@@ -27312,19 +27348,19 @@
         <v>29</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>890</v>
+        <v>256</v>
       </c>
       <c r="H356" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I356" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="I356" s="3" t="s">
-        <v>892</v>
       </c>
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
@@ -27332,13 +27368,13 @@
         <v>245</v>
       </c>
       <c r="M356" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="N356" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="N356" s="6" t="s">
-        <v>894</v>
-      </c>
       <c r="O356" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P356" s="3"/>
       <c r="Q356" s="3"/>
@@ -27355,7 +27391,7 @@
       <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
       <c r="Z356" s="6" t="s">
-        <v>248</v>
+        <v>824</v>
       </c>
       <c r="AA356" s="3"/>
       <c r="AB356" s="3"/>
@@ -27365,7 +27401,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="7">
-        <v>2025101048</v>
+        <v>2025102331</v>
       </c>
       <c r="C357" s="7">
         <v>1</v>
@@ -27374,44 +27410,42 @@
         <v>29</v>
       </c>
       <c r="E357" s="7" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F357" s="7" t="s">
-        <v>378</v>
+        <v>495</v>
       </c>
       <c r="G357" s="7" t="s">
         <v>895</v>
       </c>
       <c r="H357" s="7" t="s">
-        <v>261</v>
+        <v>896</v>
       </c>
       <c r="I357" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="J357" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K357" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="J357" s="7"/>
+      <c r="K357" s="7"/>
       <c r="L357" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M357" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="N357" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="N357" s="8" t="s">
-        <v>894</v>
-      </c>
       <c r="O357" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P357" s="7"/>
       <c r="Q357" s="7"/>
       <c r="R357" s="7">
         <v>0</v>
       </c>
-      <c r="S357" s="7"/>
+      <c r="S357" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T357" s="7"/>
       <c r="U357" s="7"/>
       <c r="V357" s="7"/>
@@ -27419,19 +27453,21 @@
       <c r="X357" s="7"/>
       <c r="Y357" s="7"/>
       <c r="Z357" s="8" t="s">
-        <v>896</v>
+        <v>248</v>
       </c>
       <c r="AA357" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB357" s="7"/>
+      <c r="AB357" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="358" spans="1:28">
       <c r="A358" s="3">
         <v>356</v>
       </c>
       <c r="B358" s="3">
-        <v>2025103112</v>
+        <v>2025103124</v>
       </c>
       <c r="C358" s="3">
         <v>1</v>
@@ -27440,7 +27476,7 @@
         <v>29</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>150</v>
@@ -27452,7 +27488,7 @@
         <v>898</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="J358" s="3" t="s">
         <v>262</v>
@@ -27464,10 +27500,10 @@
         <v>245</v>
       </c>
       <c r="M358" s="6" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="N358" s="6" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="O358" s="3" t="s">
         <v>131</v>
@@ -27485,7 +27521,7 @@
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
       <c r="Z358" s="6" t="s">
-        <v>899</v>
+        <v>337</v>
       </c>
       <c r="AA358" s="3" t="s">
         <v>40</v>
@@ -27499,7 +27535,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="7">
-        <v>2025103385</v>
+        <v>2025101206</v>
       </c>
       <c r="C359" s="7">
         <v>1</v>
@@ -27508,19 +27544,19 @@
         <v>29</v>
       </c>
       <c r="E359" s="7" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F359" s="7" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>250</v>
+        <v>902</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>383</v>
+        <v>903</v>
       </c>
       <c r="I359" s="7" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
@@ -27528,13 +27564,13 @@
         <v>245</v>
       </c>
       <c r="M359" s="8" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="N359" s="8" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="O359" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P359" s="7"/>
       <c r="Q359" s="7"/>
@@ -27553,19 +27589,15 @@
       <c r="Z359" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AA359" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB359" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA359" s="7"/>
+      <c r="AB359" s="7"/>
     </row>
     <row r="360" spans="1:28">
       <c r="A360" s="3">
         <v>358</v>
       </c>
       <c r="B360" s="3">
-        <v>2025103297</v>
+        <v>2025101048</v>
       </c>
       <c r="C360" s="3">
         <v>1</v>
@@ -27574,22 +27606,22 @@
         <v>29</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>250</v>
+        <v>907</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>903</v>
+        <v>261</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="K360" s="3" t="s">
         <v>263</v>
@@ -27598,10 +27630,10 @@
         <v>245</v>
       </c>
       <c r="M360" s="6" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="N360" s="6" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="O360" s="3" t="s">
         <v>131</v>
@@ -27619,7 +27651,7 @@
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
       <c r="Z360" s="6" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="AA360" s="3" t="s">
         <v>40</v>
@@ -27631,7 +27663,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="7">
-        <v>2025103409</v>
+        <v>2025103112</v>
       </c>
       <c r="C361" s="7">
         <v>1</v>
@@ -27640,42 +27672,44 @@
         <v>29</v>
       </c>
       <c r="E361" s="7" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F361" s="7" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>250</v>
+        <v>909</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="I361" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="J361" s="7"/>
-      <c r="K361" s="7"/>
+        <v>904</v>
+      </c>
+      <c r="J361" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K361" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="L361" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M361" s="8" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="N361" s="8" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="O361" s="7" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P361" s="7"/>
       <c r="Q361" s="7"/>
       <c r="R361" s="7">
         <v>0</v>
       </c>
-      <c r="S361" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S361" s="7"/>
       <c r="T361" s="7"/>
       <c r="U361" s="7"/>
       <c r="V361" s="7"/>
@@ -27683,19 +27717,21 @@
       <c r="X361" s="7"/>
       <c r="Y361" s="7"/>
       <c r="Z361" s="8" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="AA361" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB361" s="7"/>
+      <c r="AB361" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="362" spans="1:28">
       <c r="A362" s="3">
         <v>360</v>
       </c>
       <c r="B362" s="3">
-        <v>2025103412</v>
+        <v>2025103297</v>
       </c>
       <c r="C362" s="3">
         <v>1</v>
@@ -27704,7 +27740,7 @@
         <v>29</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F362" s="3" t="s">
         <v>249</v>
@@ -27713,33 +27749,35 @@
         <v>250</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="J362" s="3"/>
-      <c r="K362" s="3"/>
+        <v>913</v>
+      </c>
+      <c r="J362" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L362" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M362" s="6" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="N362" s="6" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
       <c r="O362" s="3" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P362" s="3"/>
       <c r="Q362" s="3"/>
       <c r="R362" s="3">
         <v>0</v>
       </c>
-      <c r="S362" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S362" s="3"/>
       <c r="T362" s="3"/>
       <c r="U362" s="3"/>
       <c r="V362" s="3"/>
@@ -27747,19 +27785,21 @@
       <c r="X362" s="3"/>
       <c r="Y362" s="3"/>
       <c r="Z362" s="6" t="s">
-        <v>255</v>
+        <v>916</v>
       </c>
       <c r="AA362" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB362" s="3"/>
+      <c r="AB362" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="363" spans="1:28">
       <c r="A363" s="7">
         <v>361</v>
       </c>
       <c r="B363" s="7">
-        <v>2025100636</v>
+        <v>2025103385</v>
       </c>
       <c r="C363" s="7">
         <v>1</v>
@@ -27768,44 +27808,42 @@
         <v>29</v>
       </c>
       <c r="E363" s="7" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F363" s="7" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="G363" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>510</v>
+        <v>383</v>
       </c>
       <c r="I363" s="7" t="s">
-        <v>906</v>
-      </c>
-      <c r="J363" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="K363" s="7" t="s">
-        <v>866</v>
-      </c>
+        <v>913</v>
+      </c>
+      <c r="J363" s="7"/>
+      <c r="K363" s="7"/>
       <c r="L363" s="8" t="s">
-        <v>908</v>
+        <v>245</v>
       </c>
       <c r="M363" s="8" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="N363" s="8" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="O363" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P363" s="7"/>
       <c r="Q363" s="7"/>
       <c r="R363" s="7">
         <v>0</v>
       </c>
-      <c r="S363" s="7"/>
+      <c r="S363" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T363" s="7"/>
       <c r="U363" s="7"/>
       <c r="V363" s="7"/>
@@ -27813,21 +27851,19 @@
       <c r="X363" s="7"/>
       <c r="Y363" s="7"/>
       <c r="Z363" s="8" t="s">
-        <v>911</v>
+        <v>248</v>
       </c>
       <c r="AA363" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB363" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB363" s="7"/>
     </row>
     <row r="364" spans="1:28">
       <c r="A364" s="3">
         <v>362</v>
       </c>
       <c r="B364" s="3">
-        <v>2025101954</v>
+        <v>2025103409</v>
       </c>
       <c r="C364" s="3">
         <v>1</v>
@@ -27836,44 +27872,42 @@
         <v>29</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>397</v>
+        <v>912</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="J364" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="K364" s="3" t="s">
-        <v>866</v>
-      </c>
+        <v>913</v>
+      </c>
+      <c r="J364" s="3"/>
+      <c r="K364" s="3"/>
       <c r="L364" s="6" t="s">
-        <v>908</v>
+        <v>245</v>
       </c>
       <c r="M364" s="6" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N364" s="6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="O364" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P364" s="3"/>
       <c r="Q364" s="3"/>
       <c r="R364" s="3">
         <v>0</v>
       </c>
-      <c r="S364" s="3"/>
+      <c r="S364" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T364" s="3"/>
       <c r="U364" s="3"/>
       <c r="V364" s="3"/>
@@ -27881,47 +27915,245 @@
       <c r="X364" s="3"/>
       <c r="Y364" s="3"/>
       <c r="Z364" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="AA364" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB364" s="3"/>
+    </row>
+    <row r="365" spans="1:28">
+      <c r="A365" s="7">
+        <v>363</v>
+      </c>
+      <c r="B365" s="7">
+        <v>2025103412</v>
+      </c>
+      <c r="C365" s="7">
+        <v>1</v>
+      </c>
+      <c r="D365" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E365" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G365" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H365" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="I365" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="J365" s="7"/>
+      <c r="K365" s="7"/>
+      <c r="L365" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M365" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="N365" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="AA364" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB364" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:28">
-      <c r="A365" s="9"/>
-      <c r="B365" s="9"/>
-      <c r="C365" s="9"/>
-      <c r="D365" s="9"/>
-      <c r="E365" s="9"/>
-      <c r="F365" s="9"/>
-      <c r="G365" s="9"/>
-      <c r="H365" s="9"/>
-      <c r="I365" s="9"/>
-      <c r="J365" s="9"/>
-      <c r="K365" s="9"/>
-      <c r="L365" s="10"/>
-      <c r="M365" s="10"/>
-      <c r="N365" s="10"/>
-      <c r="O365" s="9"/>
-      <c r="P365" s="9"/>
-      <c r="Q365" s="9"/>
-      <c r="R365" s="9"/>
-      <c r="S365" s="9"/>
-      <c r="T365" s="9"/>
-      <c r="U365" s="9"/>
-      <c r="V365" s="9"/>
-      <c r="W365" s="9"/>
-      <c r="X365" s="9"/>
-      <c r="Y365" s="9"/>
-      <c r="Z365" s="10"/>
-      <c r="AA365" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="AB365" s="9">
-        <v>218</v>
+      <c r="O365" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P365" s="7"/>
+      <c r="Q365" s="7"/>
+      <c r="R365" s="7">
+        <v>0</v>
+      </c>
+      <c r="S365" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T365" s="7"/>
+      <c r="U365" s="7"/>
+      <c r="V365" s="7"/>
+      <c r="W365" s="7"/>
+      <c r="X365" s="7"/>
+      <c r="Y365" s="7"/>
+      <c r="Z365" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA365" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB365" s="7"/>
+    </row>
+    <row r="366" spans="1:28">
+      <c r="A366" s="3">
+        <v>364</v>
+      </c>
+      <c r="B366" s="3">
+        <v>2025100636</v>
+      </c>
+      <c r="C366" s="3">
+        <v>1</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I366" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="J366" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="L366" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="M366" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="N366" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="O366" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P366" s="3"/>
+      <c r="Q366" s="3"/>
+      <c r="R366" s="3">
+        <v>0</v>
+      </c>
+      <c r="S366" s="3"/>
+      <c r="T366" s="3"/>
+      <c r="U366" s="3"/>
+      <c r="V366" s="3"/>
+      <c r="W366" s="3"/>
+      <c r="X366" s="3"/>
+      <c r="Y366" s="3"/>
+      <c r="Z366" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="AA366" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB366" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:28">
+      <c r="A367" s="7">
+        <v>365</v>
+      </c>
+      <c r="B367" s="7">
+        <v>2025101954</v>
+      </c>
+      <c r="C367" s="7">
+        <v>1</v>
+      </c>
+      <c r="D367" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E367" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F367" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G367" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H367" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I367" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="J367" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K367" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="L367" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="M367" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="N367" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="O367" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P367" s="7"/>
+      <c r="Q367" s="7"/>
+      <c r="R367" s="7">
+        <v>0</v>
+      </c>
+      <c r="S367" s="7"/>
+      <c r="T367" s="7"/>
+      <c r="U367" s="7"/>
+      <c r="V367" s="7"/>
+      <c r="W367" s="7"/>
+      <c r="X367" s="7"/>
+      <c r="Y367" s="7"/>
+      <c r="Z367" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="AA367" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB367" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:28">
+      <c r="A368" s="9"/>
+      <c r="B368" s="9"/>
+      <c r="C368" s="9"/>
+      <c r="D368" s="9"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="9"/>
+      <c r="G368" s="9"/>
+      <c r="H368" s="9"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="9"/>
+      <c r="K368" s="9"/>
+      <c r="L368" s="10"/>
+      <c r="M368" s="10"/>
+      <c r="N368" s="10"/>
+      <c r="O368" s="9"/>
+      <c r="P368" s="9"/>
+      <c r="Q368" s="9"/>
+      <c r="R368" s="9"/>
+      <c r="S368" s="9"/>
+      <c r="T368" s="9"/>
+      <c r="U368" s="9"/>
+      <c r="V368" s="9"/>
+      <c r="W368" s="9"/>
+      <c r="X368" s="9"/>
+      <c r="Y368" s="9"/>
+      <c r="Z368" s="10"/>
+      <c r="AA368" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="AB368" s="9">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$368</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$372</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="936">
   <si>
     <t>服務次數統計表        篩選月份：202510</t>
   </si>
@@ -2362,6 +2362,12 @@
     <t>重插排線 清潔螢幕 觸控校正</t>
   </si>
   <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>變壓器端接觸不良，重新固定排線</t>
+  </si>
+  <si>
     <t>2025-10-30</t>
   </si>
   <si>
@@ -2451,6 +2457,9 @@
   </si>
   <si>
     <t>更換滑鼠</t>
+  </si>
+  <si>
+    <t>重插電源 更新韌體</t>
   </si>
   <si>
     <t>THILF04153</t>
@@ -2493,6 +2502,18 @@
     <t>暫撤店</t>
   </si>
   <si>
+    <t>THILF04282</t>
+  </si>
+  <si>
+    <t>新北市林口區文化北路一段258號一樓</t>
+  </si>
+  <si>
+    <t>林口建林店</t>
+  </si>
+  <si>
+    <t>客戶取消 現場為L90故障</t>
+  </si>
+  <si>
     <t>THILF04552</t>
   </si>
   <si>
@@ -2799,16 +2820,16 @@
 換下 8187000916</t>
   </si>
   <si>
+    <t>THILF0D349</t>
+  </si>
+  <si>
+    <t>新北市板橋區重慶路245巷61號</t>
+  </si>
+  <si>
+    <t>板橋成都店</t>
+  </si>
+  <si>
     <t>15:45:00</t>
-  </si>
-  <si>
-    <t>THILF0D349</t>
-  </si>
-  <si>
-    <t>新北市板橋區重慶路245巷61號</t>
-  </si>
-  <si>
-    <t>板橋成都店</t>
   </si>
   <si>
     <t>驅動修復測試正常，請門市觀察中</t>
@@ -3264,10 +3285,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB368"/>
+  <dimension ref="A1:AB372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A368" sqref="A368"/>
+      <selection activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4119,7 +4140,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025100147</v>
+        <v>2025100146</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -4158,7 +4179,7 @@
         <v>94</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7">
@@ -4167,7 +4188,9 @@
       <c r="R13" s="7">
         <v>105</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -4189,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025100146</v>
+        <v>2025100147</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -4228,7 +4251,7 @@
         <v>94</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3">
@@ -4237,9 +4260,7 @@
       <c r="R14" s="3">
         <v>105</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -7657,7 +7678,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025103005</v>
+        <v>2025103004</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -7696,14 +7717,16 @@
         <v>240</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
         <v>59206</v>
       </c>
-      <c r="S65" s="7"/>
+      <c r="S65" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -7725,7 +7748,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025103004</v>
+        <v>2025103005</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -7764,16 +7787,14 @@
         <v>240</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
         <v>59206</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -12807,7 +12828,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <v>2025102612</v>
+        <v>2025102613</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -12846,7 +12867,7 @@
         <v>514</v>
       </c>
       <c r="O142" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P142" s="3"/>
       <c r="Q142" s="3">
@@ -12855,9 +12876,7 @@
       <c r="R142" s="3">
         <v>262</v>
       </c>
-      <c r="S142" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S142" s="3"/>
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
@@ -12867,15 +12886,19 @@
       <c r="Z142" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AA142" s="3"/>
-      <c r="AB142" s="3"/>
+      <c r="AA142" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB142" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:28">
       <c r="A143" s="7">
         <v>141</v>
       </c>
       <c r="B143" s="7">
-        <v>2025102613</v>
+        <v>2025102612</v>
       </c>
       <c r="C143" s="7">
         <v>1</v>
@@ -12914,7 +12937,7 @@
         <v>514</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P143" s="7"/>
       <c r="Q143" s="7">
@@ -12923,7 +12946,9 @@
       <c r="R143" s="7">
         <v>262</v>
       </c>
-      <c r="S143" s="7"/>
+      <c r="S143" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T143" s="7"/>
       <c r="U143" s="7"/>
       <c r="V143" s="7"/>
@@ -12933,9 +12958,7 @@
       <c r="Z143" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AA143" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA143" s="7"/>
       <c r="AB143" s="7"/>
     </row>
     <row r="144" spans="1:28">
@@ -16383,7 +16406,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="3">
-        <v>2025100371</v>
+        <v>2025100370</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
@@ -16422,14 +16445,16 @@
         <v>602</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3">
         <v>140987</v>
       </c>
-      <c r="S194" s="3"/>
+      <c r="S194" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T194" s="3"/>
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
@@ -16451,7 +16476,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="7">
-        <v>2025100370</v>
+        <v>2025100371</v>
       </c>
       <c r="C195" s="7">
         <v>1</v>
@@ -16490,16 +16515,14 @@
         <v>602</v>
       </c>
       <c r="O195" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
       <c r="R195" s="7">
         <v>140987</v>
       </c>
-      <c r="S195" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S195" s="7"/>
       <c r="T195" s="7"/>
       <c r="U195" s="7"/>
       <c r="V195" s="7"/>
@@ -16927,7 +16950,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="3">
-        <v>2025102617</v>
+        <v>2025102616</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
@@ -16966,14 +16989,16 @@
         <v>613</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
       <c r="R202" s="3">
         <v>2724</v>
       </c>
-      <c r="S202" s="3"/>
+      <c r="S202" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T202" s="3"/>
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
@@ -16983,19 +17008,15 @@
       <c r="Z202" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AA202" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB202" s="3">
-        <v>1</v>
-      </c>
+      <c r="AA202" s="3"/>
+      <c r="AB202" s="3"/>
     </row>
     <row r="203" spans="1:28">
       <c r="A203" s="7">
         <v>201</v>
       </c>
       <c r="B203" s="7">
-        <v>2025102616</v>
+        <v>2025102617</v>
       </c>
       <c r="C203" s="7">
         <v>1</v>
@@ -17034,16 +17055,14 @@
         <v>613</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
       <c r="R203" s="7">
         <v>2724</v>
       </c>
-      <c r="S203" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S203" s="7"/>
       <c r="T203" s="7"/>
       <c r="U203" s="7"/>
       <c r="V203" s="7"/>
@@ -17053,7 +17072,9 @@
       <c r="Z203" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AA203" s="7"/>
+      <c r="AA203" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AB203" s="7"/>
     </row>
     <row r="204" spans="1:28">
@@ -18759,7 +18780,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="7">
-        <v>2025102610</v>
+        <v>2025102611</v>
       </c>
       <c r="C229" s="7">
         <v>1</v>
@@ -18798,7 +18819,7 @@
         <v>653</v>
       </c>
       <c r="O229" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="7">
@@ -18807,9 +18828,7 @@
       <c r="R229" s="7">
         <v>1034</v>
       </c>
-      <c r="S229" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S229" s="7"/>
       <c r="T229" s="7"/>
       <c r="U229" s="7"/>
       <c r="V229" s="7"/>
@@ -18819,15 +18838,19 @@
       <c r="Z229" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AA229" s="7"/>
-      <c r="AB229" s="7"/>
+      <c r="AA229" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB229" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:28">
       <c r="A230" s="3">
         <v>228</v>
       </c>
       <c r="B230" s="3">
-        <v>2025102611</v>
+        <v>2025102610</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
@@ -18866,7 +18889,7 @@
         <v>653</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P230" s="3"/>
       <c r="Q230" s="3">
@@ -18875,7 +18898,9 @@
       <c r="R230" s="3">
         <v>1034</v>
       </c>
-      <c r="S230" s="3"/>
+      <c r="S230" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T230" s="3"/>
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
@@ -18885,9 +18910,7 @@
       <c r="Z230" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AA230" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
     </row>
     <row r="231" spans="1:28">
@@ -19443,7 +19466,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="7">
-        <v>2025100511</v>
+        <v>2025100512</v>
       </c>
       <c r="C239" s="7">
         <v>1</v>
@@ -19482,16 +19505,14 @@
         <v>668</v>
       </c>
       <c r="O239" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P239" s="7"/>
       <c r="Q239" s="7"/>
       <c r="R239" s="7">
         <v>117288</v>
       </c>
-      <c r="S239" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S239" s="7"/>
       <c r="T239" s="7"/>
       <c r="U239" s="7"/>
       <c r="V239" s="7"/>
@@ -19501,15 +19522,19 @@
       <c r="Z239" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AA239" s="7"/>
-      <c r="AB239" s="7"/>
+      <c r="AA239" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB239" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:28">
       <c r="A240" s="3">
         <v>238</v>
       </c>
       <c r="B240" s="3">
-        <v>2025100512</v>
+        <v>2025100511</v>
       </c>
       <c r="C240" s="3">
         <v>1</v>
@@ -19548,14 +19573,16 @@
         <v>668</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P240" s="3"/>
       <c r="Q240" s="3"/>
       <c r="R240" s="3">
         <v>117288</v>
       </c>
-      <c r="S240" s="3"/>
+      <c r="S240" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T240" s="3"/>
       <c r="U240" s="3"/>
       <c r="V240" s="3"/>
@@ -19565,9 +19592,7 @@
       <c r="Z240" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AA240" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
     </row>
     <row r="241" spans="1:28">
@@ -20641,7 +20666,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="7">
-        <v>2025100558</v>
+        <v>2025100557</v>
       </c>
       <c r="C257" s="7">
         <v>1</v>
@@ -20680,7 +20705,7 @@
         <v>532</v>
       </c>
       <c r="O257" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P257" s="7"/>
       <c r="Q257" s="7">
@@ -20689,7 +20714,9 @@
       <c r="R257" s="7">
         <v>8923</v>
       </c>
-      <c r="S257" s="7"/>
+      <c r="S257" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T257" s="7"/>
       <c r="U257" s="7"/>
       <c r="V257" s="7"/>
@@ -20711,7 +20738,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="3">
-        <v>2025100557</v>
+        <v>2025100558</v>
       </c>
       <c r="C258" s="3">
         <v>1</v>
@@ -20750,7 +20777,7 @@
         <v>532</v>
       </c>
       <c r="O258" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P258" s="3"/>
       <c r="Q258" s="3">
@@ -20759,9 +20786,7 @@
       <c r="R258" s="3">
         <v>8923</v>
       </c>
-      <c r="S258" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S258" s="3"/>
       <c r="T258" s="3"/>
       <c r="U258" s="3"/>
       <c r="V258" s="3"/>
@@ -21595,7 +21620,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="7">
-        <v>2025101218</v>
+        <v>2025101217</v>
       </c>
       <c r="C271" s="7">
         <v>1</v>
@@ -21634,14 +21659,16 @@
         <v>671</v>
       </c>
       <c r="O271" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P271" s="7"/>
       <c r="Q271" s="7"/>
       <c r="R271" s="7">
         <v>53</v>
       </c>
-      <c r="S271" s="7"/>
+      <c r="S271" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T271" s="7"/>
       <c r="U271" s="7"/>
       <c r="V271" s="7"/>
@@ -21651,19 +21678,15 @@
       <c r="Z271" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AA271" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB271" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA271" s="7"/>
+      <c r="AB271" s="7"/>
     </row>
     <row r="272" spans="1:28">
       <c r="A272" s="3">
         <v>270</v>
       </c>
       <c r="B272" s="3">
-        <v>2025101217</v>
+        <v>2025101218</v>
       </c>
       <c r="C272" s="3">
         <v>1</v>
@@ -21702,16 +21725,14 @@
         <v>671</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
       <c r="R272" s="3">
         <v>53</v>
       </c>
-      <c r="S272" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S272" s="3"/>
       <c r="T272" s="3"/>
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
@@ -21721,7 +21742,9 @@
       <c r="Z272" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AA272" s="3"/>
+      <c r="AA272" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB272" s="3"/>
     </row>
     <row r="273" spans="1:28">
@@ -24201,7 +24224,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="7">
-        <v>2025103523</v>
+        <v>2025103655</v>
       </c>
       <c r="C309" s="7">
         <v>1</v>
@@ -24222,21 +24245,25 @@
         <v>214</v>
       </c>
       <c r="I309" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="J309" s="7"/>
-      <c r="K309" s="7"/>
+        <v>769</v>
+      </c>
+      <c r="J309" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K309" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="L309" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M309" s="8" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="N309" s="8" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="O309" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P309" s="7"/>
       <c r="Q309" s="7"/>
@@ -24244,16 +24271,14 @@
         <v>0</v>
       </c>
       <c r="S309" s="7"/>
-      <c r="T309" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="T309" s="7"/>
       <c r="U309" s="7"/>
       <c r="V309" s="7"/>
       <c r="W309" s="7"/>
       <c r="X309" s="7"/>
       <c r="Y309" s="7"/>
       <c r="Z309" s="8" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="AA309" s="7" t="s">
         <v>40</v>
@@ -24267,7 +24292,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="3">
-        <v>2025103384</v>
+        <v>2025103523</v>
       </c>
       <c r="C310" s="3">
         <v>1</v>
@@ -24279,34 +24304,30 @@
         <v>486</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>493</v>
+        <v>775</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>510</v>
+        <v>112</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="J310" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K310" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="J310" s="3"/>
+      <c r="K310" s="3"/>
       <c r="L310" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M310" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N310" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P310" s="3"/>
       <c r="Q310" s="3"/>
@@ -24314,14 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S310" s="3"/>
-      <c r="T310" s="3"/>
+      <c r="T310" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
       <c r="W310" s="3"/>
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
       <c r="Z310" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AA310" s="3" t="s">
         <v>40</v>
@@ -24335,7 +24358,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="7">
-        <v>2025103337</v>
+        <v>2025103384</v>
       </c>
       <c r="C311" s="7">
         <v>1</v>
@@ -24347,39 +24370,41 @@
         <v>486</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>249</v>
+        <v>493</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>112</v>
+        <v>510</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="I311" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="J311" s="7"/>
-      <c r="K311" s="7"/>
+        <v>780</v>
+      </c>
+      <c r="J311" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K311" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="L311" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M311" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N311" s="8" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="O311" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P311" s="7"/>
       <c r="Q311" s="7"/>
       <c r="R311" s="7">
         <v>0</v>
       </c>
-      <c r="S311" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S311" s="7"/>
       <c r="T311" s="7"/>
       <c r="U311" s="7"/>
       <c r="V311" s="7"/>
@@ -24387,7 +24412,7 @@
       <c r="X311" s="7"/>
       <c r="Y311" s="7"/>
       <c r="Z311" s="8" t="s">
-        <v>248</v>
+        <v>783</v>
       </c>
       <c r="AA311" s="7" t="s">
         <v>40</v>
@@ -24401,7 +24426,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="3">
-        <v>2025101401</v>
+        <v>2025103337</v>
       </c>
       <c r="C312" s="3">
         <v>1</v>
@@ -24413,41 +24438,39 @@
         <v>486</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="J312" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K312" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="J312" s="3"/>
+      <c r="K312" s="3"/>
       <c r="L312" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M312" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="N312" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="N312" s="6" t="s">
-        <v>787</v>
-      </c>
       <c r="O312" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P312" s="3"/>
       <c r="Q312" s="3"/>
       <c r="R312" s="3">
         <v>0</v>
       </c>
-      <c r="S312" s="3"/>
+      <c r="S312" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T312" s="3"/>
       <c r="U312" s="3"/>
       <c r="V312" s="3"/>
@@ -24455,7 +24478,7 @@
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
       <c r="Z312" s="6" t="s">
-        <v>788</v>
+        <v>248</v>
       </c>
       <c r="AA312" s="3" t="s">
         <v>40</v>
@@ -24469,7 +24492,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="7">
-        <v>2025101597</v>
+        <v>2025101401</v>
       </c>
       <c r="C313" s="7">
         <v>1</v>
@@ -24484,36 +24507,38 @@
         <v>102</v>
       </c>
       <c r="G313" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H313" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H313" s="7" t="s">
-        <v>448</v>
-      </c>
       <c r="I313" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="J313" s="7"/>
-      <c r="K313" s="7"/>
+        <v>787</v>
+      </c>
+      <c r="J313" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K313" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="L313" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M313" s="8" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="N313" s="8" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="O313" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P313" s="7"/>
       <c r="Q313" s="7"/>
       <c r="R313" s="7">
         <v>0</v>
       </c>
-      <c r="S313" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S313" s="7"/>
       <c r="T313" s="7"/>
       <c r="U313" s="7"/>
       <c r="V313" s="7"/>
@@ -24521,19 +24546,21 @@
       <c r="X313" s="7"/>
       <c r="Y313" s="7"/>
       <c r="Z313" s="8" t="s">
-        <v>248</v>
+        <v>790</v>
       </c>
       <c r="AA313" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB313" s="7"/>
+      <c r="AB313" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="314" spans="1:28">
       <c r="A314" s="3">
         <v>312</v>
       </c>
       <c r="B314" s="3">
-        <v>2025102286</v>
+        <v>2025101597</v>
       </c>
       <c r="C314" s="3">
         <v>1</v>
@@ -24545,41 +24572,39 @@
         <v>486</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>495</v>
+        <v>102</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>371</v>
+        <v>448</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="J314" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K314" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="J314" s="3"/>
+      <c r="K314" s="3"/>
       <c r="L314" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M314" s="6" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="N314" s="6" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P314" s="3"/>
       <c r="Q314" s="3"/>
       <c r="R314" s="3">
         <v>0</v>
       </c>
-      <c r="S314" s="3"/>
+      <c r="S314" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T314" s="3"/>
       <c r="U314" s="3"/>
       <c r="V314" s="3"/>
@@ -24587,21 +24612,19 @@
       <c r="X314" s="3"/>
       <c r="Y314" s="3"/>
       <c r="Z314" s="6" t="s">
-        <v>789</v>
+        <v>248</v>
       </c>
       <c r="AA314" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB314" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB314" s="3"/>
     </row>
     <row r="315" spans="1:28">
       <c r="A315" s="7">
         <v>313</v>
       </c>
       <c r="B315" s="7">
-        <v>2025101551</v>
+        <v>2025102286</v>
       </c>
       <c r="C315" s="7">
         <v>1</v>
@@ -24613,16 +24636,16 @@
         <v>486</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>102</v>
+        <v>495</v>
       </c>
       <c r="G315" s="7" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="I315" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="J315" s="7" t="s">
         <v>262</v>
@@ -24634,10 +24657,10 @@
         <v>245</v>
       </c>
       <c r="M315" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="N315" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="O315" s="7" t="s">
         <v>131</v>
@@ -24655,7 +24678,7 @@
       <c r="X315" s="7"/>
       <c r="Y315" s="7"/>
       <c r="Z315" s="8" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="AA315" s="7" t="s">
         <v>40</v>
@@ -24669,7 +24692,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="3">
-        <v>2025101550</v>
+        <v>2025101551</v>
       </c>
       <c r="C316" s="3">
         <v>1</v>
@@ -24684,13 +24707,13 @@
         <v>102</v>
       </c>
       <c r="G316" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H316" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="H316" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="I316" s="3" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J316" s="3" t="s">
         <v>262</v>
@@ -24702,10 +24725,10 @@
         <v>245</v>
       </c>
       <c r="M316" s="6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="N316" s="6" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="O316" s="3" t="s">
         <v>131</v>
@@ -24723,19 +24746,21 @@
       <c r="X316" s="3"/>
       <c r="Y316" s="3"/>
       <c r="Z316" s="6" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="AA316" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB316" s="3"/>
+      <c r="AB316" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="317" spans="1:28">
       <c r="A317" s="7">
         <v>315</v>
       </c>
       <c r="B317" s="7">
-        <v>2025101622</v>
+        <v>2025101550</v>
       </c>
       <c r="C317" s="7">
         <v>1</v>
@@ -24750,36 +24775,38 @@
         <v>102</v>
       </c>
       <c r="G317" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H317" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H317" s="7" t="s">
-        <v>794</v>
-      </c>
       <c r="I317" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="J317" s="7"/>
-      <c r="K317" s="7"/>
+        <v>792</v>
+      </c>
+      <c r="J317" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K317" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="L317" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M317" s="8" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="N317" s="8" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="O317" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P317" s="7"/>
       <c r="Q317" s="7"/>
       <c r="R317" s="7">
         <v>0</v>
       </c>
-      <c r="S317" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S317" s="7"/>
       <c r="T317" s="7"/>
       <c r="U317" s="7"/>
       <c r="V317" s="7"/>
@@ -24787,7 +24814,7 @@
       <c r="X317" s="7"/>
       <c r="Y317" s="7"/>
       <c r="Z317" s="8" t="s">
-        <v>248</v>
+        <v>795</v>
       </c>
       <c r="AA317" s="7" t="s">
         <v>40</v>
@@ -24799,7 +24826,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="3">
-        <v>2025103613</v>
+        <v>2025101622</v>
       </c>
       <c r="C318" s="3">
         <v>1</v>
@@ -24811,16 +24838,16 @@
         <v>486</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>773</v>
+        <v>102</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>397</v>
+        <v>796</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
@@ -24828,10 +24855,10 @@
         <v>245</v>
       </c>
       <c r="M318" s="6" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="N318" s="6" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="O318" s="3" t="s">
         <v>81</v>
@@ -24841,31 +24868,29 @@
       <c r="R318" s="3">
         <v>0</v>
       </c>
-      <c r="S318" s="3"/>
-      <c r="T318" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S318" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T318" s="3"/>
       <c r="U318" s="3"/>
       <c r="V318" s="3"/>
       <c r="W318" s="3"/>
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
       <c r="Z318" s="6" t="s">
-        <v>777</v>
+        <v>248</v>
       </c>
       <c r="AA318" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB318" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB318" s="3"/>
     </row>
     <row r="319" spans="1:28">
       <c r="A319" s="7">
         <v>317</v>
       </c>
       <c r="B319" s="7">
-        <v>2025103131</v>
+        <v>2025103613</v>
       </c>
       <c r="C319" s="7">
         <v>1</v>
@@ -24877,34 +24902,30 @@
         <v>486</v>
       </c>
       <c r="F319" s="7" t="s">
-        <v>150</v>
+        <v>775</v>
       </c>
       <c r="G319" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="I319" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="J319" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K319" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="J319" s="7"/>
+      <c r="K319" s="7"/>
       <c r="L319" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M319" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="N319" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="N319" s="8" t="s">
-        <v>800</v>
-      </c>
       <c r="O319" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P319" s="7"/>
       <c r="Q319" s="7"/>
@@ -24912,14 +24933,16 @@
         <v>0</v>
       </c>
       <c r="S319" s="7"/>
-      <c r="T319" s="7"/>
+      <c r="T319" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="U319" s="7"/>
       <c r="V319" s="7"/>
       <c r="W319" s="7"/>
       <c r="X319" s="7"/>
       <c r="Y319" s="7"/>
       <c r="Z319" s="8" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="AA319" s="7" t="s">
         <v>40</v>
@@ -24933,7 +24956,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="3">
-        <v>2025103278</v>
+        <v>2025103131</v>
       </c>
       <c r="C320" s="3">
         <v>1</v>
@@ -24948,36 +24971,38 @@
         <v>150</v>
       </c>
       <c r="G320" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H320" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="H320" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="I320" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="J320" s="3"/>
-      <c r="K320" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L320" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M320" s="6" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="N320" s="6" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
       <c r="R320" s="3">
         <v>0</v>
       </c>
-      <c r="S320" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S320" s="3"/>
       <c r="T320" s="3"/>
       <c r="U320" s="3"/>
       <c r="V320" s="3"/>
@@ -24985,19 +25010,21 @@
       <c r="X320" s="3"/>
       <c r="Y320" s="3"/>
       <c r="Z320" s="6" t="s">
-        <v>248</v>
+        <v>803</v>
       </c>
       <c r="AA320" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB320" s="3"/>
+      <c r="AB320" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="321" spans="1:28">
       <c r="A321" s="7">
         <v>319</v>
       </c>
       <c r="B321" s="7">
-        <v>2025102002</v>
+        <v>2025103278</v>
       </c>
       <c r="C321" s="7">
         <v>1</v>
@@ -25009,41 +25036,39 @@
         <v>486</v>
       </c>
       <c r="F321" s="7" t="s">
-        <v>442</v>
+        <v>150</v>
       </c>
       <c r="G321" s="7" t="s">
-        <v>214</v>
+        <v>370</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="I321" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="J321" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K321" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="J321" s="7"/>
+      <c r="K321" s="7"/>
       <c r="L321" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M321" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N321" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="O321" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P321" s="7"/>
       <c r="Q321" s="7"/>
       <c r="R321" s="7">
         <v>0</v>
       </c>
-      <c r="S321" s="7"/>
+      <c r="S321" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T321" s="7"/>
       <c r="U321" s="7"/>
       <c r="V321" s="7"/>
@@ -25051,21 +25076,19 @@
       <c r="X321" s="7"/>
       <c r="Y321" s="7"/>
       <c r="Z321" s="8" t="s">
-        <v>805</v>
+        <v>248</v>
       </c>
       <c r="AA321" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB321" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB321" s="7"/>
     </row>
     <row r="322" spans="1:28">
       <c r="A322" s="3">
         <v>320</v>
       </c>
       <c r="B322" s="3">
-        <v>2025103398</v>
+        <v>2025103520</v>
       </c>
       <c r="C322" s="3">
         <v>1</v>
@@ -25077,49 +25100,49 @@
         <v>486</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>249</v>
+        <v>773</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="J322" s="3"/>
-      <c r="K322" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L322" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M322" s="6" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="N322" s="6" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P322" s="3"/>
       <c r="Q322" s="3"/>
       <c r="R322" s="3">
         <v>0</v>
       </c>
-      <c r="S322" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S322" s="3"/>
       <c r="T322" s="3"/>
       <c r="U322" s="3"/>
       <c r="V322" s="3"/>
       <c r="W322" s="3"/>
       <c r="X322" s="3"/>
-      <c r="Y322" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y322" s="3"/>
       <c r="Z322" s="6" t="s">
-        <v>255</v>
+        <v>804</v>
       </c>
       <c r="AA322" s="3" t="s">
         <v>40</v>
@@ -25133,7 +25156,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="7">
-        <v>2025103379</v>
+        <v>2025102002</v>
       </c>
       <c r="C323" s="7">
         <v>1</v>
@@ -25145,19 +25168,19 @@
         <v>486</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>249</v>
+        <v>442</v>
       </c>
       <c r="G323" s="7" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="I323" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J323" s="7" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="K323" s="7" t="s">
         <v>263</v>
@@ -25166,10 +25189,10 @@
         <v>245</v>
       </c>
       <c r="M323" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="N323" s="8" t="s">
         <v>807</v>
-      </c>
-      <c r="N323" s="8" t="s">
-        <v>808</v>
       </c>
       <c r="O323" s="7" t="s">
         <v>131</v>
@@ -25187,19 +25210,21 @@
       <c r="X323" s="7"/>
       <c r="Y323" s="7"/>
       <c r="Z323" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AA323" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB323" s="7"/>
+      <c r="AB323" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" spans="1:28">
       <c r="A324" s="3">
         <v>322</v>
       </c>
       <c r="B324" s="3">
-        <v>2025100974</v>
+        <v>2025103398</v>
       </c>
       <c r="C324" s="3">
         <v>1</v>
@@ -25211,7 +25236,7 @@
         <v>486</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>250</v>
@@ -25220,7 +25245,7 @@
         <v>298</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
@@ -25228,10 +25253,10 @@
         <v>245</v>
       </c>
       <c r="M324" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="N324" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="N324" s="6" t="s">
-        <v>812</v>
       </c>
       <c r="O324" s="3" t="s">
         <v>81</v>
@@ -25241,17 +25266,19 @@
       <c r="R324" s="3">
         <v>0</v>
       </c>
-      <c r="S324" s="3"/>
-      <c r="T324" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S324" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T324" s="3"/>
       <c r="U324" s="3"/>
       <c r="V324" s="3"/>
       <c r="W324" s="3"/>
       <c r="X324" s="3"/>
-      <c r="Y324" s="3"/>
+      <c r="Y324" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z324" s="6" t="s">
-        <v>813</v>
+        <v>255</v>
       </c>
       <c r="AA324" s="3" t="s">
         <v>40</v>
@@ -25265,7 +25292,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="7">
-        <v>2025103121</v>
+        <v>2025103379</v>
       </c>
       <c r="C325" s="7">
         <v>1</v>
@@ -25277,16 +25304,16 @@
         <v>486</v>
       </c>
       <c r="F325" s="7" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="G325" s="7" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>298</v>
+        <v>371</v>
       </c>
       <c r="I325" s="7" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="J325" s="7" t="s">
         <v>262</v>
@@ -25298,10 +25325,10 @@
         <v>245</v>
       </c>
       <c r="M325" s="8" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="N325" s="8" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="O325" s="7" t="s">
         <v>131</v>
@@ -25319,21 +25346,19 @@
       <c r="X325" s="7"/>
       <c r="Y325" s="7"/>
       <c r="Z325" s="8" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="AA325" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB325" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB325" s="7"/>
     </row>
     <row r="326" spans="1:28">
       <c r="A326" s="3">
         <v>324</v>
       </c>
       <c r="B326" s="3">
-        <v>2025103275</v>
+        <v>2025100974</v>
       </c>
       <c r="C326" s="3">
         <v>1</v>
@@ -25345,16 +25370,16 @@
         <v>486</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="G326" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H326" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="H326" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="I326" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
@@ -25362,10 +25387,10 @@
         <v>245</v>
       </c>
       <c r="M326" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="N326" s="6" t="s">
         <v>815</v>
-      </c>
-      <c r="N326" s="6" t="s">
-        <v>816</v>
       </c>
       <c r="O326" s="3" t="s">
         <v>81</v>
@@ -25375,29 +25400,31 @@
       <c r="R326" s="3">
         <v>0</v>
       </c>
-      <c r="S326" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T326" s="3"/>
+      <c r="S326" s="3"/>
+      <c r="T326" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="U326" s="3"/>
       <c r="V326" s="3"/>
       <c r="W326" s="3"/>
       <c r="X326" s="3"/>
       <c r="Y326" s="3"/>
       <c r="Z326" s="6" t="s">
-        <v>248</v>
+        <v>816</v>
       </c>
       <c r="AA326" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB326" s="3"/>
+      <c r="AB326" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="327" spans="1:28">
       <c r="A327" s="7">
         <v>325</v>
       </c>
       <c r="B327" s="7">
-        <v>2025103342</v>
+        <v>2025103669</v>
       </c>
       <c r="C327" s="7">
         <v>1</v>
@@ -25409,16 +25436,16 @@
         <v>486</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>249</v>
+        <v>773</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>214</v>
+        <v>487</v>
       </c>
       <c r="H327" s="7" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="I327" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J327" s="7"/>
       <c r="K327" s="7"/>
@@ -25426,10 +25453,10 @@
         <v>245</v>
       </c>
       <c r="M327" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="N327" s="8" t="s">
         <v>819</v>
-      </c>
-      <c r="N327" s="8" t="s">
-        <v>820</v>
       </c>
       <c r="O327" s="7" t="s">
         <v>81</v>
@@ -25465,7 +25492,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="3">
-        <v>2025100894</v>
+        <v>2025103647</v>
       </c>
       <c r="C328" s="3">
         <v>1</v>
@@ -25477,39 +25504,41 @@
         <v>486</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>241</v>
+        <v>773</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="J328" s="3"/>
-      <c r="K328" s="3"/>
+        <v>817</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L328" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M328" s="6" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="N328" s="6" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P328" s="3"/>
       <c r="Q328" s="3"/>
       <c r="R328" s="3">
-        <v>0</v>
-      </c>
-      <c r="S328" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="S328" s="3"/>
       <c r="T328" s="3"/>
       <c r="U328" s="3"/>
       <c r="V328" s="3"/>
@@ -25517,21 +25546,19 @@
       <c r="X328" s="3"/>
       <c r="Y328" s="3"/>
       <c r="Z328" s="6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AA328" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB328" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB328" s="3"/>
     </row>
     <row r="329" spans="1:28">
       <c r="A329" s="7">
         <v>327</v>
       </c>
       <c r="B329" s="7">
-        <v>2025100926</v>
+        <v>2025103121</v>
       </c>
       <c r="C329" s="7">
         <v>1</v>
@@ -25543,19 +25570,23 @@
         <v>486</v>
       </c>
       <c r="F329" s="7" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G329" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="I329" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="J329" s="7"/>
-      <c r="K329" s="7"/>
+      <c r="J329" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K329" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="L329" s="8" t="s">
         <v>245</v>
       </c>
@@ -25566,16 +25597,14 @@
         <v>823</v>
       </c>
       <c r="O329" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P329" s="7"/>
       <c r="Q329" s="7"/>
       <c r="R329" s="7">
         <v>0</v>
       </c>
-      <c r="S329" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S329" s="7"/>
       <c r="T329" s="7"/>
       <c r="U329" s="7"/>
       <c r="V329" s="7"/>
@@ -25583,19 +25612,21 @@
       <c r="X329" s="7"/>
       <c r="Y329" s="7"/>
       <c r="Z329" s="8" t="s">
-        <v>248</v>
+        <v>824</v>
       </c>
       <c r="AA329" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB329" s="7"/>
+      <c r="AB329" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="330" spans="1:28">
       <c r="A330" s="3">
         <v>328</v>
       </c>
       <c r="B330" s="3">
-        <v>2025100752</v>
+        <v>2025103275</v>
       </c>
       <c r="C330" s="3">
         <v>1</v>
@@ -25607,23 +25638,19 @@
         <v>486</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="I330" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="J330" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K330" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J330" s="3"/>
+      <c r="K330" s="3"/>
       <c r="L330" s="6" t="s">
         <v>245</v>
       </c>
@@ -25634,14 +25661,16 @@
         <v>823</v>
       </c>
       <c r="O330" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P330" s="3"/>
       <c r="Q330" s="3"/>
       <c r="R330" s="3">
         <v>0</v>
       </c>
-      <c r="S330" s="3"/>
+      <c r="S330" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T330" s="3"/>
       <c r="U330" s="3"/>
       <c r="V330" s="3"/>
@@ -25649,7 +25678,7 @@
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
       <c r="Z330" s="6" t="s">
-        <v>825</v>
+        <v>248</v>
       </c>
       <c r="AA330" s="3" t="s">
         <v>40</v>
@@ -25661,7 +25690,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="7">
-        <v>2025103369</v>
+        <v>2025103342</v>
       </c>
       <c r="C331" s="7">
         <v>1</v>
@@ -25676,13 +25705,13 @@
         <v>249</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>401</v>
+        <v>214</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I331" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J331" s="7"/>
       <c r="K331" s="7"/>
@@ -25690,10 +25719,10 @@
         <v>245</v>
       </c>
       <c r="M331" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="N331" s="8" t="s">
         <v>827</v>
-      </c>
-      <c r="N331" s="8" t="s">
-        <v>828</v>
       </c>
       <c r="O331" s="7" t="s">
         <v>81</v>
@@ -25729,7 +25758,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="3">
-        <v>2025101599</v>
+        <v>2025100894</v>
       </c>
       <c r="C332" s="3">
         <v>1</v>
@@ -25741,16 +25770,16 @@
         <v>486</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>448</v>
+        <v>214</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
@@ -25758,10 +25787,10 @@
         <v>245</v>
       </c>
       <c r="M332" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="N332" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="N332" s="6" t="s">
-        <v>831</v>
       </c>
       <c r="O332" s="3" t="s">
         <v>81</v>
@@ -25781,7 +25810,7 @@
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
       <c r="Z332" s="6" t="s">
-        <v>248</v>
+        <v>831</v>
       </c>
       <c r="AA332" s="3" t="s">
         <v>40</v>
@@ -25795,7 +25824,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="7">
-        <v>2025101600</v>
+        <v>2025100926</v>
       </c>
       <c r="C333" s="7">
         <v>1</v>
@@ -25807,16 +25836,16 @@
         <v>486</v>
       </c>
       <c r="F333" s="7" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="G333" s="7" t="s">
         <v>214</v>
       </c>
       <c r="H333" s="7" t="s">
-        <v>832</v>
+        <v>256</v>
       </c>
       <c r="I333" s="7" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="J333" s="7"/>
       <c r="K333" s="7"/>
@@ -25824,10 +25853,10 @@
         <v>245</v>
       </c>
       <c r="M333" s="8" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="N333" s="8" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="O333" s="7" t="s">
         <v>81</v>
@@ -25852,16 +25881,14 @@
       <c r="AA333" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB333" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB333" s="7"/>
     </row>
     <row r="334" spans="1:28">
       <c r="A334" s="3">
         <v>332</v>
       </c>
       <c r="B334" s="3">
-        <v>2025102673</v>
+        <v>2025100752</v>
       </c>
       <c r="C334" s="3">
         <v>1</v>
@@ -25873,16 +25900,16 @@
         <v>486</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="H334" s="3" t="s">
         <v>291</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>262</v>
@@ -25894,10 +25921,10 @@
         <v>245</v>
       </c>
       <c r="M334" s="6" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="N334" s="6" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="O334" s="3" t="s">
         <v>131</v>
@@ -25915,21 +25942,19 @@
       <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
       <c r="Z334" s="6" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="AA334" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB334" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB334" s="3"/>
     </row>
     <row r="335" spans="1:28">
       <c r="A335" s="7">
         <v>333</v>
       </c>
       <c r="B335" s="7">
-        <v>2025102717</v>
+        <v>2025103369</v>
       </c>
       <c r="C335" s="7">
         <v>1</v>
@@ -25941,16 +25966,16 @@
         <v>486</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="G335" s="7" t="s">
-        <v>291</v>
+        <v>401</v>
       </c>
       <c r="H335" s="7" t="s">
-        <v>510</v>
+        <v>250</v>
       </c>
       <c r="I335" s="7" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J335" s="7"/>
       <c r="K335" s="7"/>
@@ -25958,10 +25983,10 @@
         <v>245</v>
       </c>
       <c r="M335" s="8" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="N335" s="8" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="O335" s="7" t="s">
         <v>81</v>
@@ -25979,9 +26004,11 @@
       <c r="V335" s="7"/>
       <c r="W335" s="7"/>
       <c r="X335" s="7"/>
-      <c r="Y335" s="7"/>
+      <c r="Y335" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z335" s="8" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AA335" s="7" t="s">
         <v>40</v>
@@ -25995,7 +26022,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="3">
-        <v>2025101896</v>
+        <v>2025101599</v>
       </c>
       <c r="C336" s="3">
         <v>1</v>
@@ -26007,41 +26034,39 @@
         <v>486</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>250</v>
+        <v>448</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="J336" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K336" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="J336" s="3"/>
+      <c r="K336" s="3"/>
       <c r="L336" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M336" s="6" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="N336" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="O336" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P336" s="3"/>
       <c r="Q336" s="3"/>
       <c r="R336" s="3">
         <v>0</v>
       </c>
-      <c r="S336" s="3"/>
+      <c r="S336" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T336" s="3"/>
       <c r="U336" s="3"/>
       <c r="V336" s="3"/>
@@ -26049,7 +26074,7 @@
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
       <c r="Z336" s="6" t="s">
-        <v>843</v>
+        <v>248</v>
       </c>
       <c r="AA336" s="3" t="s">
         <v>40</v>
@@ -26063,7 +26088,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="7">
-        <v>2025101939</v>
+        <v>2025101600</v>
       </c>
       <c r="C337" s="7">
         <v>1</v>
@@ -26075,13 +26100,13 @@
         <v>486</v>
       </c>
       <c r="F337" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="H337" s="7" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="I337" s="7" t="s">
         <v>840</v>
@@ -26120,14 +26145,16 @@
       <c r="AA337" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB337" s="7"/>
+      <c r="AB337" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" spans="1:28">
       <c r="A338" s="3">
         <v>336</v>
       </c>
       <c r="B338" s="3">
-        <v>2025103380</v>
+        <v>2025102673</v>
       </c>
       <c r="C338" s="3">
         <v>1</v>
@@ -26139,16 +26166,16 @@
         <v>486</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>845</v>
+        <v>291</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J338" s="3" t="s">
         <v>262</v>
@@ -26160,10 +26187,10 @@
         <v>245</v>
       </c>
       <c r="M338" s="6" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="N338" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="O338" s="3" t="s">
         <v>131</v>
@@ -26181,7 +26208,7 @@
       <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
       <c r="Z338" s="6" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AA338" s="3" t="s">
         <v>40</v>
@@ -26195,7 +26222,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="7">
-        <v>2025103411</v>
+        <v>2025102717</v>
       </c>
       <c r="C339" s="7">
         <v>1</v>
@@ -26207,16 +26234,16 @@
         <v>486</v>
       </c>
       <c r="F339" s="7" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="G339" s="7" t="s">
-        <v>850</v>
+        <v>291</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>851</v>
+        <v>510</v>
       </c>
       <c r="I339" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J339" s="7"/>
       <c r="K339" s="7"/>
@@ -26224,10 +26251,10 @@
         <v>245</v>
       </c>
       <c r="M339" s="8" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="N339" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="O339" s="7" t="s">
         <v>81</v>
@@ -26245,11 +26272,9 @@
       <c r="V339" s="7"/>
       <c r="W339" s="7"/>
       <c r="X339" s="7"/>
-      <c r="Y339" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y339" s="7"/>
       <c r="Z339" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AA339" s="7" t="s">
         <v>40</v>
@@ -26263,7 +26288,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="3">
-        <v>2025103585</v>
+        <v>2025101896</v>
       </c>
       <c r="C340" s="3">
         <v>1</v>
@@ -26275,30 +26300,34 @@
         <v>486</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>773</v>
+        <v>109</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J340" s="3"/>
-      <c r="K340" s="3"/>
+        <v>847</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K340" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L340" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M340" s="6" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="N340" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="O340" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P340" s="3"/>
       <c r="Q340" s="3"/>
@@ -26306,16 +26335,14 @@
         <v>0</v>
       </c>
       <c r="S340" s="3"/>
-      <c r="T340" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="T340" s="3"/>
       <c r="U340" s="3"/>
       <c r="V340" s="3"/>
       <c r="W340" s="3"/>
       <c r="X340" s="3"/>
       <c r="Y340" s="3"/>
       <c r="Z340" s="6" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="AA340" s="3" t="s">
         <v>40</v>
@@ -26329,7 +26356,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="7">
-        <v>2025101400</v>
+        <v>2025101939</v>
       </c>
       <c r="C341" s="7">
         <v>1</v>
@@ -26341,41 +26368,39 @@
         <v>486</v>
       </c>
       <c r="F341" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>448</v>
+        <v>242</v>
       </c>
       <c r="H341" s="7" t="s">
-        <v>430</v>
+        <v>851</v>
       </c>
       <c r="I341" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="J341" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K341" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="J341" s="7"/>
+      <c r="K341" s="7"/>
       <c r="L341" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M341" s="8" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="N341" s="8" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="O341" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P341" s="7"/>
       <c r="Q341" s="7"/>
       <c r="R341" s="7">
         <v>0</v>
       </c>
-      <c r="S341" s="7"/>
+      <c r="S341" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T341" s="7"/>
       <c r="U341" s="7"/>
       <c r="V341" s="7"/>
@@ -26383,24 +26408,22 @@
       <c r="X341" s="7"/>
       <c r="Y341" s="7"/>
       <c r="Z341" s="8" t="s">
-        <v>859</v>
+        <v>248</v>
       </c>
       <c r="AA341" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB341" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB341" s="7"/>
     </row>
     <row r="342" spans="1:28">
       <c r="A342" s="3">
         <v>340</v>
       </c>
       <c r="B342" s="3">
-        <v>2025101400</v>
+        <v>2025103380</v>
       </c>
       <c r="C342" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>29</v>
@@ -26409,16 +26432,16 @@
         <v>486</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>860</v>
+        <v>186</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="J342" s="3" t="s">
         <v>262</v>
@@ -26430,10 +26453,10 @@
         <v>245</v>
       </c>
       <c r="M342" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="N342" s="6" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="O342" s="3" t="s">
         <v>131</v>
@@ -26451,7 +26474,7 @@
       <c r="X342" s="3"/>
       <c r="Y342" s="3"/>
       <c r="Z342" s="6" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="AA342" s="3" t="s">
         <v>40</v>
@@ -26465,10 +26488,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="7">
-        <v>2025101400</v>
+        <v>2025103411</v>
       </c>
       <c r="C343" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D343" s="7" t="s">
         <v>29</v>
@@ -26477,64 +26500,66 @@
         <v>486</v>
       </c>
       <c r="F343" s="7" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="G343" s="7" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="I343" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="J343" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K343" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="J343" s="7"/>
+      <c r="K343" s="7"/>
       <c r="L343" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M343" s="8" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="N343" s="8" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="O343" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P343" s="7"/>
       <c r="Q343" s="7"/>
       <c r="R343" s="7">
         <v>0</v>
       </c>
-      <c r="S343" s="7"/>
+      <c r="S343" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T343" s="7"/>
       <c r="U343" s="7"/>
       <c r="V343" s="7"/>
       <c r="W343" s="7"/>
       <c r="X343" s="7"/>
-      <c r="Y343" s="7"/>
+      <c r="Y343" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z343" s="8" t="s">
-        <v>862</v>
+        <v>255</v>
       </c>
       <c r="AA343" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB343" s="7"/>
+      <c r="AB343" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" spans="1:28">
       <c r="A344" s="3">
         <v>342</v>
       </c>
       <c r="B344" s="3">
-        <v>2025101400</v>
+        <v>2025103585</v>
       </c>
       <c r="C344" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>29</v>
@@ -26543,34 +26568,30 @@
         <v>486</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>109</v>
+        <v>775</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>429</v>
+        <v>250</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="J344" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K344" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>859</v>
+      </c>
+      <c r="J344" s="3"/>
+      <c r="K344" s="3"/>
       <c r="L344" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M344" s="6" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="N344" s="6" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="O344" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
@@ -26578,14 +26599,16 @@
         <v>0</v>
       </c>
       <c r="S344" s="3"/>
-      <c r="T344" s="3"/>
+      <c r="T344" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="U344" s="3"/>
       <c r="V344" s="3"/>
       <c r="W344" s="3"/>
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
       <c r="Z344" s="6" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="AA344" s="3" t="s">
         <v>40</v>
@@ -26599,7 +26622,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="7">
-        <v>2025102600</v>
+        <v>2025101400</v>
       </c>
       <c r="C345" s="7">
         <v>1</v>
@@ -26611,43 +26634,41 @@
         <v>486</v>
       </c>
       <c r="F345" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G345" s="7" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>185</v>
+        <v>430</v>
       </c>
       <c r="I345" s="7" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="J345" s="7" t="s">
-        <v>867</v>
+        <v>262</v>
       </c>
       <c r="K345" s="7" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="L345" s="8" t="s">
-        <v>512</v>
+        <v>245</v>
       </c>
       <c r="M345" s="8" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="N345" s="8" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="O345" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P345" s="7"/>
       <c r="Q345" s="7"/>
       <c r="R345" s="7">
-        <v>725</v>
-      </c>
-      <c r="S345" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S345" s="7"/>
       <c r="T345" s="7"/>
       <c r="U345" s="7"/>
       <c r="V345" s="7"/>
@@ -26655,20 +26676,24 @@
       <c r="X345" s="7"/>
       <c r="Y345" s="7"/>
       <c r="Z345" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA345" s="7"/>
-      <c r="AB345" s="7"/>
+        <v>866</v>
+      </c>
+      <c r="AA345" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB345" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="346" spans="1:28">
       <c r="A346" s="3">
         <v>344</v>
       </c>
       <c r="B346" s="3">
-        <v>2025102601</v>
+        <v>2025101400</v>
       </c>
       <c r="C346" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>29</v>
@@ -26677,39 +26702,39 @@
         <v>486</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>322</v>
+        <v>867</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>185</v>
+        <v>868</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="J346" s="3" t="s">
-        <v>867</v>
+        <v>262</v>
       </c>
       <c r="K346" s="3" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="L346" s="6" t="s">
-        <v>512</v>
+        <v>245</v>
       </c>
       <c r="M346" s="6" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="N346" s="6" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="O346" s="3" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="P346" s="3"/>
       <c r="Q346" s="3"/>
       <c r="R346" s="3">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="S346" s="3"/>
       <c r="T346" s="3"/>
@@ -26719,22 +26744,24 @@
       <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
       <c r="Z346" s="6" t="s">
-        <v>515</v>
+        <v>869</v>
       </c>
       <c r="AA346" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB346" s="3"/>
+      <c r="AB346" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="347" spans="1:28">
       <c r="A347" s="7">
         <v>345</v>
       </c>
       <c r="B347" s="7">
-        <v>2025102602</v>
+        <v>2025101400</v>
       </c>
       <c r="C347" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D347" s="7" t="s">
         <v>29</v>
@@ -26743,43 +26770,41 @@
         <v>486</v>
       </c>
       <c r="F347" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G347" s="7" t="s">
-        <v>185</v>
+        <v>870</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>112</v>
+        <v>871</v>
       </c>
       <c r="I347" s="7" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="J347" s="7" t="s">
-        <v>867</v>
+        <v>262</v>
       </c>
       <c r="K347" s="7" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="L347" s="8" t="s">
-        <v>512</v>
+        <v>245</v>
       </c>
       <c r="M347" s="8" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="N347" s="8" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="O347" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P347" s="7"/>
       <c r="Q347" s="7"/>
       <c r="R347" s="7">
-        <v>1342</v>
-      </c>
-      <c r="S347" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S347" s="7"/>
       <c r="T347" s="7"/>
       <c r="U347" s="7"/>
       <c r="V347" s="7"/>
@@ -26787,9 +26812,11 @@
       <c r="X347" s="7"/>
       <c r="Y347" s="7"/>
       <c r="Z347" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA347" s="7"/>
+        <v>869</v>
+      </c>
+      <c r="AA347" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AB347" s="7"/>
     </row>
     <row r="348" spans="1:28">
@@ -26797,10 +26824,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="3">
-        <v>2025102603</v>
+        <v>2025101400</v>
       </c>
       <c r="C348" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>29</v>
@@ -26809,39 +26836,39 @@
         <v>486</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>112</v>
+        <v>429</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>867</v>
+        <v>262</v>
       </c>
       <c r="K348" s="3" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="L348" s="6" t="s">
-        <v>512</v>
+        <v>245</v>
       </c>
       <c r="M348" s="6" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="N348" s="6" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="O348" s="3" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="P348" s="3"/>
       <c r="Q348" s="3"/>
       <c r="R348" s="3">
-        <v>1342</v>
+        <v>0</v>
       </c>
       <c r="S348" s="3"/>
       <c r="T348" s="3"/>
@@ -26851,19 +26878,21 @@
       <c r="X348" s="3"/>
       <c r="Y348" s="3"/>
       <c r="Z348" s="6" t="s">
-        <v>515</v>
+        <v>872</v>
       </c>
       <c r="AA348" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB348" s="3"/>
+      <c r="AB348" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="349" spans="1:28">
       <c r="A349" s="7">
         <v>347</v>
       </c>
       <c r="B349" s="7">
-        <v>2025102604</v>
+        <v>2025102600</v>
       </c>
       <c r="C349" s="7">
         <v>1</v>
@@ -26878,16 +26907,16 @@
         <v>116</v>
       </c>
       <c r="G349" s="7" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="H349" s="7" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I349" s="7" t="s">
         <v>873</v>
       </c>
       <c r="J349" s="7" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="K349" s="7" t="s">
         <v>36</v>
@@ -26896,10 +26925,10 @@
         <v>512</v>
       </c>
       <c r="M349" s="8" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="N349" s="8" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O349" s="7" t="s">
         <v>81</v>
@@ -26907,7 +26936,7 @@
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
       <c r="R349" s="7">
-        <v>349</v>
+        <v>725</v>
       </c>
       <c r="S349" s="7" t="s">
         <v>40</v>
@@ -26929,7 +26958,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="3">
-        <v>2025102605</v>
+        <v>2025102601</v>
       </c>
       <c r="C350" s="3">
         <v>1</v>
@@ -26944,16 +26973,16 @@
         <v>116</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I350" s="3" t="s">
         <v>873</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="K350" s="3" t="s">
         <v>36</v>
@@ -26962,10 +26991,10 @@
         <v>512</v>
       </c>
       <c r="M350" s="6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="N350" s="6" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O350" s="3" t="s">
         <v>39</v>
@@ -26973,7 +27002,7 @@
       <c r="P350" s="3"/>
       <c r="Q350" s="3"/>
       <c r="R350" s="3">
-        <v>349</v>
+        <v>725</v>
       </c>
       <c r="S350" s="3"/>
       <c r="T350" s="3"/>
@@ -26995,7 +27024,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="7">
-        <v>2025102177</v>
+        <v>2025102602</v>
       </c>
       <c r="C351" s="7">
         <v>1</v>
@@ -27007,31 +27036,31 @@
         <v>486</v>
       </c>
       <c r="F351" s="7" t="s">
-        <v>495</v>
+        <v>116</v>
       </c>
       <c r="G351" s="7" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="I351" s="7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J351" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="K351" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L351" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="M351" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="L351" s="8" t="s">
+      <c r="N351" s="8" t="s">
         <v>879</v>
-      </c>
-      <c r="M351" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="N351" s="8" t="s">
-        <v>881</v>
       </c>
       <c r="O351" s="7" t="s">
         <v>81</v>
@@ -27039,33 +27068,29 @@
       <c r="P351" s="7"/>
       <c r="Q351" s="7"/>
       <c r="R351" s="7">
-        <v>0</v>
-      </c>
-      <c r="S351" s="7"/>
+        <v>1342</v>
+      </c>
+      <c r="S351" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T351" s="7"/>
       <c r="U351" s="7"/>
       <c r="V351" s="7"/>
       <c r="W351" s="7"/>
       <c r="X351" s="7"/>
-      <c r="Y351" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y351" s="7"/>
       <c r="Z351" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="AA351" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB351" s="7">
-        <v>1</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="AA351" s="7"/>
+      <c r="AB351" s="7"/>
     </row>
     <row r="352" spans="1:28">
       <c r="A352" s="3">
         <v>350</v>
       </c>
       <c r="B352" s="3">
-        <v>2025103477</v>
+        <v>2025102603</v>
       </c>
       <c r="C352" s="3">
         <v>1</v>
@@ -27077,39 +27102,39 @@
         <v>486</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>493</v>
+        <v>116</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="K352" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L352" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="M352" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="L352" s="6" t="s">
+      <c r="N352" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="M352" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="N352" s="6" t="s">
-        <v>881</v>
-      </c>
       <c r="O352" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P352" s="3"/>
       <c r="Q352" s="3"/>
       <c r="R352" s="3">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="S352" s="3"/>
       <c r="T352" s="3"/>
@@ -27117,25 +27142,21 @@
       <c r="V352" s="3"/>
       <c r="W352" s="3"/>
       <c r="X352" s="3"/>
-      <c r="Y352" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y352" s="3"/>
       <c r="Z352" s="6" t="s">
-        <v>883</v>
+        <v>515</v>
       </c>
       <c r="AA352" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB352" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB352" s="3"/>
     </row>
     <row r="353" spans="1:28">
       <c r="A353" s="7">
         <v>351</v>
       </c>
       <c r="B353" s="7">
-        <v>2025101909</v>
+        <v>2025102604</v>
       </c>
       <c r="C353" s="7">
         <v>1</v>
@@ -27144,66 +27165,64 @@
         <v>29</v>
       </c>
       <c r="E353" s="7" t="s">
-        <v>884</v>
+        <v>486</v>
       </c>
       <c r="F353" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>885</v>
+        <v>112</v>
       </c>
       <c r="H353" s="7" t="s">
-        <v>886</v>
+        <v>214</v>
       </c>
       <c r="I353" s="7" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="J353" s="7" t="s">
-        <v>203</v>
+        <v>874</v>
       </c>
       <c r="K353" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L353" s="8" t="s">
-        <v>888</v>
+        <v>512</v>
       </c>
       <c r="M353" s="8" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N353" s="8" t="s">
-        <v>595</v>
+        <v>882</v>
       </c>
       <c r="O353" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="P353" s="7"/>
-      <c r="Q353" s="7">
-        <v>5870</v>
-      </c>
+      <c r="Q353" s="7"/>
       <c r="R353" s="7">
-        <v>66329</v>
-      </c>
-      <c r="S353" s="7"/>
+        <v>349</v>
+      </c>
+      <c r="S353" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T353" s="7"/>
       <c r="U353" s="7"/>
       <c r="V353" s="7"/>
       <c r="W353" s="7"/>
       <c r="X353" s="7"/>
       <c r="Y353" s="7"/>
-      <c r="Z353" s="8"/>
-      <c r="AA353" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB353" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z353" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA353" s="7"/>
+      <c r="AB353" s="7"/>
     </row>
     <row r="354" spans="1:28">
       <c r="A354" s="3">
         <v>352</v>
       </c>
       <c r="B354" s="3">
-        <v>2025101908</v>
+        <v>2025102605</v>
       </c>
       <c r="C354" s="3">
         <v>1</v>
@@ -27212,44 +27231,42 @@
         <v>29</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>884</v>
+        <v>486</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>885</v>
+        <v>112</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>886</v>
+        <v>214</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>203</v>
+        <v>874</v>
       </c>
       <c r="K354" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L354" s="6" t="s">
-        <v>888</v>
+        <v>512</v>
       </c>
       <c r="M354" s="6" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N354" s="6" t="s">
-        <v>595</v>
+        <v>882</v>
       </c>
       <c r="O354" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P354" s="3"/>
-      <c r="Q354" s="3">
-        <v>8500</v>
-      </c>
+      <c r="Q354" s="3"/>
       <c r="R354" s="3">
-        <v>111827</v>
+        <v>349</v>
       </c>
       <c r="S354" s="3"/>
       <c r="T354" s="3"/>
@@ -27258,20 +27275,20 @@
       <c r="W354" s="3"/>
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
-      <c r="Z354" s="6"/>
+      <c r="Z354" s="6" t="s">
+        <v>515</v>
+      </c>
       <c r="AA354" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB354" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB354" s="3"/>
     </row>
     <row r="355" spans="1:28">
       <c r="A355" s="7">
         <v>353</v>
       </c>
       <c r="B355" s="7">
-        <v>2025102005</v>
+        <v>2025102177</v>
       </c>
       <c r="C355" s="7">
         <v>1</v>
@@ -27280,37 +27297,37 @@
         <v>29</v>
       </c>
       <c r="E355" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F355" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G355" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H355" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I355" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="J355" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="F355" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G355" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H355" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I355" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="J355" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="K355" s="7" t="s">
-        <v>263</v>
+        <v>885</v>
       </c>
       <c r="L355" s="8" t="s">
-        <v>245</v>
+        <v>886</v>
       </c>
       <c r="M355" s="8" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="N355" s="8" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="O355" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P355" s="7"/>
       <c r="Q355" s="7"/>
@@ -27323,9 +27340,11 @@
       <c r="V355" s="7"/>
       <c r="W355" s="7"/>
       <c r="X355" s="7"/>
-      <c r="Y355" s="7"/>
+      <c r="Y355" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z355" s="8" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="AA355" s="7" t="s">
         <v>40</v>
@@ -27339,7 +27358,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="3">
-        <v>2025102037</v>
+        <v>2025103477</v>
       </c>
       <c r="C356" s="3">
         <v>1</v>
@@ -27348,30 +27367,34 @@
         <v>29</v>
       </c>
       <c r="E356" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="J356" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="F356" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G356" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H356" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I356" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="J356" s="3"/>
-      <c r="K356" s="3"/>
+      <c r="K356" s="3" t="s">
+        <v>885</v>
+      </c>
       <c r="L356" s="6" t="s">
-        <v>245</v>
+        <v>886</v>
       </c>
       <c r="M356" s="6" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="N356" s="6" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="O356" s="3" t="s">
         <v>81</v>
@@ -27381,27 +27404,31 @@
       <c r="R356" s="3">
         <v>0</v>
       </c>
-      <c r="S356" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S356" s="3"/>
       <c r="T356" s="3"/>
       <c r="U356" s="3"/>
       <c r="V356" s="3"/>
       <c r="W356" s="3"/>
       <c r="X356" s="3"/>
-      <c r="Y356" s="3"/>
+      <c r="Y356" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z356" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="AA356" s="3"/>
-      <c r="AB356" s="3"/>
+        <v>890</v>
+      </c>
+      <c r="AA356" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB356" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="357" spans="1:28">
       <c r="A357" s="7">
         <v>355</v>
       </c>
       <c r="B357" s="7">
-        <v>2025102331</v>
+        <v>2025101909</v>
       </c>
       <c r="C357" s="7">
         <v>1</v>
@@ -27410,51 +27437,53 @@
         <v>29</v>
       </c>
       <c r="E357" s="7" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F357" s="7" t="s">
-        <v>495</v>
+        <v>109</v>
       </c>
       <c r="G357" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="H357" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="I357" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="J357" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K357" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L357" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="H357" s="7" t="s">
+      <c r="M357" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="I357" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="J357" s="7"/>
-      <c r="K357" s="7"/>
-      <c r="L357" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="M357" s="8" t="s">
-        <v>892</v>
-      </c>
       <c r="N357" s="8" t="s">
-        <v>893</v>
+        <v>595</v>
       </c>
       <c r="O357" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P357" s="7"/>
-      <c r="Q357" s="7"/>
+      <c r="Q357" s="7">
+        <v>5870</v>
+      </c>
       <c r="R357" s="7">
-        <v>0</v>
-      </c>
-      <c r="S357" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>66329</v>
+      </c>
+      <c r="S357" s="7"/>
       <c r="T357" s="7"/>
       <c r="U357" s="7"/>
       <c r="V357" s="7"/>
       <c r="W357" s="7"/>
       <c r="X357" s="7"/>
       <c r="Y357" s="7"/>
-      <c r="Z357" s="8" t="s">
-        <v>248</v>
-      </c>
+      <c r="Z357" s="8"/>
       <c r="AA357" s="7" t="s">
         <v>40</v>
       </c>
@@ -27467,7 +27496,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="3">
-        <v>2025103124</v>
+        <v>2025101908</v>
       </c>
       <c r="C358" s="3">
         <v>1</v>
@@ -27476,42 +27505,44 @@
         <v>29</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="G358" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="I358" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="H358" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="I358" s="3" t="s">
-        <v>899</v>
-      </c>
       <c r="J358" s="3" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="K358" s="3" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="L358" s="6" t="s">
-        <v>245</v>
+        <v>895</v>
       </c>
       <c r="M358" s="6" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="N358" s="6" t="s">
-        <v>901</v>
+        <v>595</v>
       </c>
       <c r="O358" s="3" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="P358" s="3"/>
-      <c r="Q358" s="3"/>
+      <c r="Q358" s="3">
+        <v>8500</v>
+      </c>
       <c r="R358" s="3">
-        <v>0</v>
+        <v>111827</v>
       </c>
       <c r="S358" s="3"/>
       <c r="T358" s="3"/>
@@ -27520,9 +27551,7 @@
       <c r="W358" s="3"/>
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
-      <c r="Z358" s="6" t="s">
-        <v>337</v>
-      </c>
+      <c r="Z358" s="6"/>
       <c r="AA358" s="3" t="s">
         <v>40</v>
       </c>
@@ -27535,7 +27564,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="7">
-        <v>2025101206</v>
+        <v>2025102005</v>
       </c>
       <c r="C359" s="7">
         <v>1</v>
@@ -27544,42 +27573,44 @@
         <v>29</v>
       </c>
       <c r="E359" s="7" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F359" s="7" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>902</v>
+        <v>256</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>903</v>
+        <v>237</v>
       </c>
       <c r="I359" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="J359" s="7"/>
-      <c r="K359" s="7"/>
+        <v>898</v>
+      </c>
+      <c r="J359" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K359" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="L359" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M359" s="8" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="N359" s="8" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="O359" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P359" s="7"/>
       <c r="Q359" s="7"/>
       <c r="R359" s="7">
         <v>0</v>
       </c>
-      <c r="S359" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S359" s="7"/>
       <c r="T359" s="7"/>
       <c r="U359" s="7"/>
       <c r="V359" s="7"/>
@@ -27587,17 +27618,21 @@
       <c r="X359" s="7"/>
       <c r="Y359" s="7"/>
       <c r="Z359" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA359" s="7"/>
-      <c r="AB359" s="7"/>
+        <v>901</v>
+      </c>
+      <c r="AA359" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB359" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="360" spans="1:28">
       <c r="A360" s="3">
         <v>358</v>
       </c>
       <c r="B360" s="3">
-        <v>2025101048</v>
+        <v>2025102037</v>
       </c>
       <c r="C360" s="3">
         <v>1</v>
@@ -27606,44 +27641,42 @@
         <v>29</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>907</v>
+        <v>256</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="J360" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="K360" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="J360" s="3"/>
+      <c r="K360" s="3"/>
       <c r="L360" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M360" s="6" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="N360" s="6" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="O360" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P360" s="3"/>
       <c r="Q360" s="3"/>
       <c r="R360" s="3">
         <v>0</v>
       </c>
-      <c r="S360" s="3"/>
+      <c r="S360" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T360" s="3"/>
       <c r="U360" s="3"/>
       <c r="V360" s="3"/>
@@ -27651,11 +27684,9 @@
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
       <c r="Z360" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="AA360" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="AA360" s="3"/>
       <c r="AB360" s="3"/>
     </row>
     <row r="361" spans="1:28">
@@ -27663,7 +27694,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="7">
-        <v>2025103112</v>
+        <v>2025102331</v>
       </c>
       <c r="C361" s="7">
         <v>1</v>
@@ -27672,44 +27703,42 @@
         <v>29</v>
       </c>
       <c r="E361" s="7" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F361" s="7" t="s">
-        <v>150</v>
+        <v>495</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I361" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="J361" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K361" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="J361" s="7"/>
+      <c r="K361" s="7"/>
       <c r="L361" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M361" s="8" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="N361" s="8" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="O361" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P361" s="7"/>
       <c r="Q361" s="7"/>
       <c r="R361" s="7">
         <v>0</v>
       </c>
-      <c r="S361" s="7"/>
+      <c r="S361" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T361" s="7"/>
       <c r="U361" s="7"/>
       <c r="V361" s="7"/>
@@ -27717,7 +27746,7 @@
       <c r="X361" s="7"/>
       <c r="Y361" s="7"/>
       <c r="Z361" s="8" t="s">
-        <v>911</v>
+        <v>248</v>
       </c>
       <c r="AA361" s="7" t="s">
         <v>40</v>
@@ -27731,7 +27760,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="3">
-        <v>2025103297</v>
+        <v>2025103124</v>
       </c>
       <c r="C362" s="3">
         <v>1</v>
@@ -27740,19 +27769,19 @@
         <v>29</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>250</v>
+        <v>904</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="J362" s="3" t="s">
         <v>262</v>
@@ -27764,10 +27793,10 @@
         <v>245</v>
       </c>
       <c r="M362" s="6" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="N362" s="6" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="O362" s="3" t="s">
         <v>131</v>
@@ -27785,7 +27814,7 @@
       <c r="X362" s="3"/>
       <c r="Y362" s="3"/>
       <c r="Z362" s="6" t="s">
-        <v>916</v>
+        <v>337</v>
       </c>
       <c r="AA362" s="3" t="s">
         <v>40</v>
@@ -27799,7 +27828,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="7">
-        <v>2025103385</v>
+        <v>2025101206</v>
       </c>
       <c r="C363" s="7">
         <v>1</v>
@@ -27808,19 +27837,19 @@
         <v>29</v>
       </c>
       <c r="E363" s="7" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F363" s="7" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="G363" s="7" t="s">
-        <v>250</v>
+        <v>909</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>383</v>
+        <v>910</v>
       </c>
       <c r="I363" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
@@ -27828,10 +27857,10 @@
         <v>245</v>
       </c>
       <c r="M363" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="N363" s="8" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="O363" s="7" t="s">
         <v>81</v>
@@ -27853,9 +27882,7 @@
       <c r="Z363" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AA363" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA363" s="7"/>
       <c r="AB363" s="7"/>
     </row>
     <row r="364" spans="1:28">
@@ -27863,7 +27890,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="3">
-        <v>2025103409</v>
+        <v>2025101048</v>
       </c>
       <c r="C364" s="3">
         <v>1</v>
@@ -27872,42 +27899,44 @@
         <v>29</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>250</v>
+        <v>914</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>912</v>
+        <v>261</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="J364" s="3"/>
-      <c r="K364" s="3"/>
+        <v>911</v>
+      </c>
+      <c r="J364" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L364" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M364" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="N364" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="O364" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P364" s="3"/>
       <c r="Q364" s="3"/>
       <c r="R364" s="3">
         <v>0</v>
       </c>
-      <c r="S364" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S364" s="3"/>
       <c r="T364" s="3"/>
       <c r="U364" s="3"/>
       <c r="V364" s="3"/>
@@ -27915,7 +27944,7 @@
       <c r="X364" s="3"/>
       <c r="Y364" s="3"/>
       <c r="Z364" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AA364" s="3" t="s">
         <v>40</v>
@@ -27927,7 +27956,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="7">
-        <v>2025103412</v>
+        <v>2025103112</v>
       </c>
       <c r="C365" s="7">
         <v>1</v>
@@ -27936,42 +27965,44 @@
         <v>29</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>250</v>
+        <v>916</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="I365" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="J365" s="7"/>
-      <c r="K365" s="7"/>
+        <v>911</v>
+      </c>
+      <c r="J365" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K365" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="L365" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M365" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="N365" s="8" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="O365" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P365" s="7"/>
       <c r="Q365" s="7"/>
       <c r="R365" s="7">
         <v>0</v>
       </c>
-      <c r="S365" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S365" s="7"/>
       <c r="T365" s="7"/>
       <c r="U365" s="7"/>
       <c r="V365" s="7"/>
@@ -27979,19 +28010,21 @@
       <c r="X365" s="7"/>
       <c r="Y365" s="7"/>
       <c r="Z365" s="8" t="s">
-        <v>255</v>
+        <v>918</v>
       </c>
       <c r="AA365" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB365" s="7"/>
+      <c r="AB365" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="366" spans="1:28">
       <c r="A366" s="3">
         <v>364</v>
       </c>
       <c r="B366" s="3">
-        <v>2025100636</v>
+        <v>2025103385</v>
       </c>
       <c r="C366" s="3">
         <v>1</v>
@@ -28000,44 +28033,42 @@
         <v>29</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>510</v>
+        <v>383</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="J366" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="K366" s="3" t="s">
-        <v>878</v>
-      </c>
+      <c r="J366" s="3"/>
+      <c r="K366" s="3"/>
       <c r="L366" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M366" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="M366" s="6" t="s">
+      <c r="N366" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="N366" s="6" t="s">
-        <v>922</v>
-      </c>
       <c r="O366" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="P366" s="3"/>
       <c r="Q366" s="3"/>
       <c r="R366" s="3">
         <v>0</v>
       </c>
-      <c r="S366" s="3"/>
+      <c r="S366" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T366" s="3"/>
       <c r="U366" s="3"/>
       <c r="V366" s="3"/>
@@ -28045,7 +28076,7 @@
       <c r="X366" s="3"/>
       <c r="Y366" s="3"/>
       <c r="Z366" s="6" t="s">
-        <v>923</v>
+        <v>248</v>
       </c>
       <c r="AA366" s="3" t="s">
         <v>40</v>
@@ -28059,7 +28090,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="7">
-        <v>2025101954</v>
+        <v>2025103297</v>
       </c>
       <c r="C367" s="7">
         <v>1</v>
@@ -28068,34 +28099,34 @@
         <v>29</v>
       </c>
       <c r="E367" s="7" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F367" s="7" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>397</v>
+        <v>922</v>
       </c>
       <c r="I367" s="7" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="J367" s="7" t="s">
-        <v>919</v>
+        <v>262</v>
       </c>
       <c r="K367" s="7" t="s">
-        <v>878</v>
+        <v>263</v>
       </c>
       <c r="L367" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M367" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="M367" s="8" t="s">
-        <v>925</v>
-      </c>
       <c r="N367" s="8" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="O367" s="7" t="s">
         <v>131</v>
@@ -28113,47 +28144,309 @@
       <c r="X367" s="7"/>
       <c r="Y367" s="7"/>
       <c r="Z367" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="AA367" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB367" s="7"/>
+    </row>
+    <row r="368" spans="1:28">
+      <c r="A368" s="3">
+        <v>366</v>
+      </c>
+      <c r="B368" s="3">
+        <v>2025103409</v>
+      </c>
+      <c r="C368" s="3">
+        <v>1</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="I368" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="J368" s="3"/>
+      <c r="K368" s="3"/>
+      <c r="L368" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M368" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="N368" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="O368" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P368" s="3"/>
+      <c r="Q368" s="3"/>
+      <c r="R368" s="3">
+        <v>0</v>
+      </c>
+      <c r="S368" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T368" s="3"/>
+      <c r="U368" s="3"/>
+      <c r="V368" s="3"/>
+      <c r="W368" s="3"/>
+      <c r="X368" s="3"/>
+      <c r="Y368" s="3"/>
+      <c r="Z368" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="AA368" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB368" s="3"/>
+    </row>
+    <row r="369" spans="1:28">
+      <c r="A369" s="7">
+        <v>367</v>
+      </c>
+      <c r="B369" s="7">
+        <v>2025103412</v>
+      </c>
+      <c r="C369" s="7">
+        <v>1</v>
+      </c>
+      <c r="D369" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E369" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F369" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G369" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H369" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="I369" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="J369" s="7"/>
+      <c r="K369" s="7"/>
+      <c r="L369" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M369" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="N369" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="O369" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P369" s="7"/>
+      <c r="Q369" s="7"/>
+      <c r="R369" s="7">
+        <v>0</v>
+      </c>
+      <c r="S369" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T369" s="7"/>
+      <c r="U369" s="7"/>
+      <c r="V369" s="7"/>
+      <c r="W369" s="7"/>
+      <c r="X369" s="7"/>
+      <c r="Y369" s="7"/>
+      <c r="Z369" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA369" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB369" s="7"/>
+    </row>
+    <row r="370" spans="1:28">
+      <c r="A370" s="3">
+        <v>368</v>
+      </c>
+      <c r="B370" s="3">
+        <v>2025100636</v>
+      </c>
+      <c r="C370" s="3">
+        <v>1</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I370" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="L370" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="AA367" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB367" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:28">
-      <c r="A368" s="9"/>
-      <c r="B368" s="9"/>
-      <c r="C368" s="9"/>
-      <c r="D368" s="9"/>
-      <c r="E368" s="9"/>
-      <c r="F368" s="9"/>
-      <c r="G368" s="9"/>
-      <c r="H368" s="9"/>
-      <c r="I368" s="9"/>
-      <c r="J368" s="9"/>
-      <c r="K368" s="9"/>
-      <c r="L368" s="10"/>
-      <c r="M368" s="10"/>
-      <c r="N368" s="10"/>
-      <c r="O368" s="9"/>
-      <c r="P368" s="9"/>
-      <c r="Q368" s="9"/>
-      <c r="R368" s="9"/>
-      <c r="S368" s="9"/>
-      <c r="T368" s="9"/>
-      <c r="U368" s="9"/>
-      <c r="V368" s="9"/>
-      <c r="W368" s="9"/>
-      <c r="X368" s="9"/>
-      <c r="Y368" s="9"/>
-      <c r="Z368" s="10"/>
-      <c r="AA368" s="9" t="s">
+      <c r="M370" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="AB368" s="9">
-        <v>220</v>
+      <c r="N370" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="O370" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P370" s="3"/>
+      <c r="Q370" s="3"/>
+      <c r="R370" s="3">
+        <v>0</v>
+      </c>
+      <c r="S370" s="3"/>
+      <c r="T370" s="3"/>
+      <c r="U370" s="3"/>
+      <c r="V370" s="3"/>
+      <c r="W370" s="3"/>
+      <c r="X370" s="3"/>
+      <c r="Y370" s="3"/>
+      <c r="Z370" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="AA370" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB370" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:28">
+      <c r="A371" s="7">
+        <v>369</v>
+      </c>
+      <c r="B371" s="7">
+        <v>2025101954</v>
+      </c>
+      <c r="C371" s="7">
+        <v>1</v>
+      </c>
+      <c r="D371" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E371" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F371" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G371" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H371" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I371" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="J371" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="K371" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="L371" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="M371" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="N371" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="O371" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P371" s="7"/>
+      <c r="Q371" s="7"/>
+      <c r="R371" s="7">
+        <v>0</v>
+      </c>
+      <c r="S371" s="7"/>
+      <c r="T371" s="7"/>
+      <c r="U371" s="7"/>
+      <c r="V371" s="7"/>
+      <c r="W371" s="7"/>
+      <c r="X371" s="7"/>
+      <c r="Y371" s="7"/>
+      <c r="Z371" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA371" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB371" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:28">
+      <c r="A372" s="9"/>
+      <c r="B372" s="9"/>
+      <c r="C372" s="9"/>
+      <c r="D372" s="9"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="9"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="9"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="9"/>
+      <c r="K372" s="9"/>
+      <c r="L372" s="10"/>
+      <c r="M372" s="10"/>
+      <c r="N372" s="10"/>
+      <c r="O372" s="9"/>
+      <c r="P372" s="9"/>
+      <c r="Q372" s="9"/>
+      <c r="R372" s="9"/>
+      <c r="S372" s="9"/>
+      <c r="T372" s="9"/>
+      <c r="U372" s="9"/>
+      <c r="V372" s="9"/>
+      <c r="W372" s="9"/>
+      <c r="X372" s="9"/>
+      <c r="Y372" s="9"/>
+      <c r="Z372" s="10"/>
+      <c r="AA372" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="AB372" s="9">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
